--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\t\py-ivtools\ivtools\sampledata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="226">
   <si>
     <t>wafer_number</t>
   </si>
@@ -674,12 +674,36 @@
   </si>
   <si>
     <t>Beamline 10 nm crystalline, initially forgot Ta protection layer, left at home</t>
+  </si>
+  <si>
+    <t>lassen4</t>
+  </si>
+  <si>
+    <t>Katze</t>
+  </si>
+  <si>
+    <t>corner piece; for resistance drift measurement</t>
+  </si>
+  <si>
+    <t>REP1</t>
+  </si>
+  <si>
+    <t>REP2</t>
+  </si>
+  <si>
+    <t>REP3</t>
+  </si>
+  <si>
+    <t>Repeatability test, process v1</t>
+  </si>
+  <si>
+    <t>Reh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -822,7 +846,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1295,7 +1325,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1355,7 +1385,6 @@
     <xf numFmtId="14" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1365,50 +1394,56 @@
     <xf numFmtId="14" fontId="0" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1691,14 +1726,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -5671,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="37">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D85" s="38">
         <v>43290</v>
@@ -5727,7 +5762,7 @@
         <v>2</v>
       </c>
       <c r="C86" s="37">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D86" s="38">
         <v>43290</v>
@@ -5783,7 +5818,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="37">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D87" s="38">
         <v>43290</v>
@@ -5839,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="37">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D88" s="38">
         <v>43290</v>
@@ -5895,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="37">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D89" s="38">
         <v>43291</v>
@@ -6386,7 +6421,7 @@
       <c r="J98" s="43">
         <v>10</v>
       </c>
-      <c r="K98" s="52">
+      <c r="K98" s="51">
         <v>23</v>
       </c>
       <c r="L98" s="43" t="s">
@@ -6397,850 +6432,1018 @@
       </c>
       <c r="N98" s="43"/>
       <c r="O98" s="43"/>
-      <c r="P98" s="52">
+      <c r="P98" s="51">
         <v>298</v>
       </c>
-      <c r="Q98" s="52">
-        <v>17</v>
-      </c>
-      <c r="R98" s="52">
+      <c r="Q98" s="51">
+        <v>17</v>
+      </c>
+      <c r="R98" s="51">
         <v>76.5</v>
       </c>
-      <c r="S98" s="52"/>
+      <c r="S98" s="51"/>
       <c r="T98" s="43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="53">
+    <row r="99" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="52">
         <v>4</v>
       </c>
-      <c r="D99" s="54">
+      <c r="D99" s="53">
         <v>43298</v>
       </c>
-      <c r="E99" s="55" t="s">
+      <c r="E99" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="F99" s="53" t="s">
+      <c r="F99" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="G99" s="56">
+      <c r="G99" s="55">
         <v>20</v>
       </c>
-      <c r="H99" s="56">
-        <v>1</v>
-      </c>
-      <c r="I99" s="55" t="s">
+      <c r="H99" s="55">
+        <v>1</v>
+      </c>
+      <c r="I99" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="J99" s="56">
+      <c r="J99" s="55">
         <v>10</v>
       </c>
-      <c r="K99" s="56">
+      <c r="K99" s="55">
         <v>0</v>
       </c>
-      <c r="L99" s="55" t="s">
+      <c r="L99" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="M99" s="56">
-        <v>2</v>
-      </c>
-      <c r="N99" s="55"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="56">
+      <c r="M99" s="55">
+        <v>2</v>
+      </c>
+      <c r="N99" s="54"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="55">
         <v>873</v>
       </c>
-      <c r="Q99" s="56">
-        <v>17</v>
-      </c>
-      <c r="R99" s="56">
+      <c r="Q99" s="55">
+        <v>17</v>
+      </c>
+      <c r="R99" s="55">
         <v>76.5</v>
       </c>
-      <c r="S99" s="56"/>
-      <c r="T99" s="55" t="s">
+      <c r="S99" s="55"/>
+      <c r="T99" s="54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" s="53">
+    <row r="100" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="52">
         <v>4</v>
       </c>
-      <c r="D100" s="54">
+      <c r="D100" s="53">
         <v>43298</v>
       </c>
-      <c r="E100" s="55" t="s">
+      <c r="E100" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="F100" s="53" t="s">
+      <c r="F100" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="G100" s="56">
+      <c r="G100" s="55">
         <v>21</v>
       </c>
-      <c r="H100" s="56">
-        <v>1</v>
-      </c>
-      <c r="I100" s="55" t="s">
+      <c r="H100" s="55">
+        <v>1</v>
+      </c>
+      <c r="I100" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="J100" s="56">
+      <c r="J100" s="55">
         <v>10</v>
       </c>
-      <c r="K100" s="56">
+      <c r="K100" s="55">
         <v>5</v>
       </c>
-      <c r="L100" s="55" t="s">
+      <c r="L100" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="M100" s="56">
-        <v>2</v>
-      </c>
-      <c r="N100" s="55"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="56">
+      <c r="M100" s="55">
+        <v>2</v>
+      </c>
+      <c r="N100" s="54"/>
+      <c r="O100" s="54"/>
+      <c r="P100" s="55">
         <v>873</v>
       </c>
-      <c r="Q100" s="56">
-        <v>17</v>
-      </c>
-      <c r="R100" s="56">
+      <c r="Q100" s="55">
+        <v>17</v>
+      </c>
+      <c r="R100" s="55">
         <v>76.5</v>
       </c>
-      <c r="S100" s="56"/>
-      <c r="T100" s="55" t="s">
+      <c r="S100" s="55"/>
+      <c r="T100" s="54" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="53">
+    <row r="101" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="52">
         <v>4</v>
       </c>
-      <c r="D101" s="54">
+      <c r="D101" s="53">
         <v>43298</v>
       </c>
-      <c r="E101" s="55" t="s">
+      <c r="E101" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="F101" s="53" t="s">
+      <c r="F101" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="G101" s="56">
+      <c r="G101" s="55">
         <v>22</v>
       </c>
-      <c r="H101" s="56">
-        <v>1</v>
-      </c>
-      <c r="I101" s="55" t="s">
+      <c r="H101" s="55">
+        <v>1</v>
+      </c>
+      <c r="I101" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="J101" s="56">
+      <c r="J101" s="55">
         <v>10</v>
       </c>
-      <c r="K101" s="56">
+      <c r="K101" s="55">
         <v>23</v>
       </c>
-      <c r="L101" s="55" t="s">
+      <c r="L101" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="M101" s="56">
-        <v>2</v>
-      </c>
-      <c r="N101" s="55"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="56">
+      <c r="M101" s="55">
+        <v>2</v>
+      </c>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="55">
         <v>873</v>
       </c>
-      <c r="Q101" s="56">
-        <v>17</v>
-      </c>
-      <c r="R101" s="56">
+      <c r="Q101" s="55">
+        <v>17</v>
+      </c>
+      <c r="R101" s="55">
         <v>76.5</v>
       </c>
-      <c r="S101" s="56"/>
-      <c r="T101" s="55" t="s">
+      <c r="S101" s="55"/>
+      <c r="T101" s="54" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="57">
+      <c r="A102" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="56">
         <v>4</v>
       </c>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58">
+      <c r="C102" s="56"/>
+      <c r="D102" s="57">
         <v>43298</v>
       </c>
-      <c r="E102" s="59" t="s">
+      <c r="E102" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="F102" s="57" t="s">
+      <c r="F102" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G102" s="60">
+      <c r="G102" s="59">
         <v>11</v>
       </c>
-      <c r="H102" s="60">
-        <v>1</v>
-      </c>
-      <c r="I102" s="59" t="s">
+      <c r="H102" s="59">
+        <v>1</v>
+      </c>
+      <c r="I102" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="J102" s="60">
+      <c r="J102" s="59">
         <v>10</v>
       </c>
-      <c r="K102" s="60">
+      <c r="K102" s="59">
         <v>0</v>
       </c>
-      <c r="L102" s="59" t="s">
+      <c r="L102" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M102" s="60">
-        <v>2</v>
-      </c>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="60">
+      <c r="M102" s="59">
+        <v>2</v>
+      </c>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+      <c r="P102" s="59">
         <v>873</v>
       </c>
-      <c r="Q102" s="60">
-        <v>17</v>
-      </c>
-      <c r="R102" s="60">
+      <c r="Q102" s="59">
+        <v>17</v>
+      </c>
+      <c r="R102" s="59">
         <v>76.5</v>
       </c>
-      <c r="S102" s="60"/>
-      <c r="T102" s="59" t="s">
+      <c r="S102" s="59"/>
+      <c r="T102" s="58" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" s="57">
+      <c r="A103" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="56">
         <v>4</v>
       </c>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58">
+      <c r="C103" s="56"/>
+      <c r="D103" s="57">
         <v>43298</v>
       </c>
-      <c r="E103" s="59" t="s">
+      <c r="E103" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="F103" s="57" t="s">
+      <c r="F103" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G103" s="60">
+      <c r="G103" s="59">
         <v>14</v>
       </c>
-      <c r="H103" s="60">
-        <v>1</v>
-      </c>
-      <c r="I103" s="59" t="s">
+      <c r="H103" s="59">
+        <v>1</v>
+      </c>
+      <c r="I103" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="J103" s="60">
+      <c r="J103" s="59">
         <v>10</v>
       </c>
-      <c r="K103" s="60">
+      <c r="K103" s="59">
         <v>5</v>
       </c>
-      <c r="L103" s="59" t="s">
+      <c r="L103" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M103" s="60">
-        <v>2</v>
-      </c>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="60">
+      <c r="M103" s="59">
+        <v>2</v>
+      </c>
+      <c r="N103" s="58"/>
+      <c r="O103" s="58"/>
+      <c r="P103" s="59">
         <v>873</v>
       </c>
-      <c r="Q103" s="60">
-        <v>17</v>
-      </c>
-      <c r="R103" s="60">
+      <c r="Q103" s="59">
+        <v>17</v>
+      </c>
+      <c r="R103" s="59">
         <v>76.5</v>
       </c>
-      <c r="S103" s="60"/>
-      <c r="T103" s="59" t="s">
+      <c r="S103" s="59"/>
+      <c r="T103" s="58" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" s="57">
+      <c r="A104" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" s="56">
         <v>4</v>
       </c>
-      <c r="C104" s="57"/>
-      <c r="D104" s="58">
+      <c r="C104" s="56"/>
+      <c r="D104" s="57">
         <v>43306</v>
       </c>
-      <c r="E104" s="59" t="s">
+      <c r="E104" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="F104" s="57" t="s">
+      <c r="F104" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G104" s="60">
-        <v>17</v>
-      </c>
-      <c r="H104" s="60">
-        <v>1</v>
-      </c>
-      <c r="I104" s="59" t="s">
+      <c r="G104" s="59">
+        <v>17</v>
+      </c>
+      <c r="H104" s="59">
+        <v>1</v>
+      </c>
+      <c r="I104" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J104" s="60">
+      <c r="J104" s="59">
         <v>10</v>
       </c>
-      <c r="K104" s="60">
+      <c r="K104" s="59">
         <v>23</v>
       </c>
-      <c r="L104" s="59" t="s">
+      <c r="L104" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M104" s="60">
-        <v>2</v>
-      </c>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="60">
+      <c r="M104" s="59">
+        <v>2</v>
+      </c>
+      <c r="N104" s="58"/>
+      <c r="O104" s="58"/>
+      <c r="P104" s="59">
         <v>873</v>
       </c>
-      <c r="Q104" s="60">
-        <v>17</v>
-      </c>
-      <c r="R104" s="60">
+      <c r="Q104" s="59">
+        <v>17</v>
+      </c>
+      <c r="R104" s="59">
         <v>76.5</v>
       </c>
-      <c r="S104" s="60"/>
-      <c r="T104" s="59" t="s">
+      <c r="S104" s="59"/>
+      <c r="T104" s="58" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B105" s="57">
+      <c r="A105" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="56">
         <v>4</v>
       </c>
-      <c r="C105" s="57"/>
-      <c r="D105" s="58">
+      <c r="C105" s="56"/>
+      <c r="D105" s="57">
         <v>43306</v>
       </c>
-      <c r="E105" s="59" t="s">
+      <c r="E105" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="F105" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G105" s="60">
-        <v>1</v>
-      </c>
-      <c r="H105" s="60">
-        <v>1</v>
-      </c>
-      <c r="I105" s="59" t="s">
+      <c r="G105" s="59">
+        <v>1</v>
+      </c>
+      <c r="H105" s="59">
+        <v>1</v>
+      </c>
+      <c r="I105" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="J105" s="60">
+      <c r="J105" s="59">
         <v>5</v>
       </c>
-      <c r="K105" s="60">
+      <c r="K105" s="59">
         <v>0</v>
       </c>
-      <c r="L105" s="59" t="s">
+      <c r="L105" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M105" s="60">
-        <v>2</v>
-      </c>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="60">
+      <c r="M105" s="59">
+        <v>2</v>
+      </c>
+      <c r="N105" s="58"/>
+      <c r="O105" s="58"/>
+      <c r="P105" s="59">
         <v>298</v>
       </c>
-      <c r="Q105" s="60">
-        <v>17</v>
-      </c>
-      <c r="R105" s="60">
+      <c r="Q105" s="59">
+        <v>17</v>
+      </c>
+      <c r="R105" s="59">
         <v>76.5</v>
       </c>
-      <c r="S105" s="60"/>
-      <c r="T105" s="59" t="s">
+      <c r="S105" s="59"/>
+      <c r="T105" s="58" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="57">
+      <c r="A106" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="56">
         <v>4</v>
       </c>
-      <c r="C106" s="57"/>
-      <c r="D106" s="58">
+      <c r="C106" s="56"/>
+      <c r="D106" s="57">
         <v>43306</v>
       </c>
-      <c r="E106" s="59" t="s">
+      <c r="E106" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="F106" s="57" t="s">
+      <c r="F106" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G106" s="60">
+      <c r="G106" s="59">
         <v>4</v>
       </c>
-      <c r="H106" s="60">
-        <v>1</v>
-      </c>
-      <c r="I106" s="59" t="s">
+      <c r="H106" s="59">
+        <v>1</v>
+      </c>
+      <c r="I106" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="J106" s="60">
+      <c r="J106" s="59">
         <v>5</v>
       </c>
-      <c r="K106" s="60">
+      <c r="K106" s="59">
         <v>5</v>
       </c>
-      <c r="L106" s="59" t="s">
+      <c r="L106" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M106" s="60">
-        <v>2</v>
-      </c>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="60">
+      <c r="M106" s="59">
+        <v>2</v>
+      </c>
+      <c r="N106" s="58"/>
+      <c r="O106" s="58"/>
+      <c r="P106" s="59">
         <v>298</v>
       </c>
-      <c r="Q106" s="60">
-        <v>17</v>
-      </c>
-      <c r="R106" s="60">
+      <c r="Q106" s="59">
+        <v>17</v>
+      </c>
+      <c r="R106" s="59">
         <v>76.5</v>
       </c>
-      <c r="S106" s="60"/>
-      <c r="T106" s="59" t="s">
+      <c r="S106" s="59"/>
+      <c r="T106" s="58" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" s="57">
+      <c r="A107" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="56">
         <v>4</v>
       </c>
-      <c r="C107" s="57"/>
-      <c r="D107" s="58">
+      <c r="C107" s="56"/>
+      <c r="D107" s="57">
         <v>43306</v>
       </c>
-      <c r="E107" s="59" t="s">
+      <c r="E107" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="F107" s="57" t="s">
+      <c r="F107" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G107" s="60">
+      <c r="G107" s="59">
         <v>7</v>
       </c>
-      <c r="H107" s="60">
-        <v>1</v>
-      </c>
-      <c r="I107" s="59" t="s">
+      <c r="H107" s="59">
+        <v>1</v>
+      </c>
+      <c r="I107" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J107" s="60">
+      <c r="J107" s="59">
         <v>5</v>
       </c>
-      <c r="K107" s="60">
+      <c r="K107" s="59">
         <v>23</v>
       </c>
-      <c r="L107" s="59" t="s">
+      <c r="L107" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M107" s="60">
-        <v>2</v>
-      </c>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="60">
+      <c r="M107" s="59">
+        <v>2</v>
+      </c>
+      <c r="N107" s="58"/>
+      <c r="O107" s="58"/>
+      <c r="P107" s="59">
         <v>298</v>
       </c>
-      <c r="Q107" s="60">
-        <v>17</v>
-      </c>
-      <c r="R107" s="60">
+      <c r="Q107" s="59">
+        <v>17</v>
+      </c>
+      <c r="R107" s="59">
         <v>76.5</v>
       </c>
-      <c r="S107" s="60"/>
-      <c r="T107" s="59" t="s">
+      <c r="S107" s="59"/>
+      <c r="T107" s="58" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108" s="57">
+      <c r="A108" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="56">
         <v>4</v>
       </c>
-      <c r="C108" s="57"/>
-      <c r="D108" s="58">
+      <c r="C108" s="56"/>
+      <c r="D108" s="57">
         <v>43311</v>
       </c>
-      <c r="E108" s="59" t="s">
+      <c r="E108" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F108" s="57" t="s">
+      <c r="F108" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G108" s="60">
+      <c r="G108" s="59">
         <v>10</v>
       </c>
-      <c r="H108" s="60">
-        <v>1</v>
-      </c>
-      <c r="I108" s="59" t="s">
+      <c r="H108" s="59">
+        <v>1</v>
+      </c>
+      <c r="I108" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="J108" s="60">
+      <c r="J108" s="59">
         <v>5</v>
       </c>
-      <c r="K108" s="60">
+      <c r="K108" s="59">
         <v>0</v>
       </c>
-      <c r="L108" s="59" t="s">
+      <c r="L108" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M108" s="60">
-        <v>2</v>
-      </c>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="60">
+      <c r="M108" s="59">
+        <v>2</v>
+      </c>
+      <c r="N108" s="58"/>
+      <c r="O108" s="58"/>
+      <c r="P108" s="59">
         <v>873</v>
       </c>
-      <c r="Q108" s="60">
-        <v>17</v>
-      </c>
-      <c r="R108" s="60">
+      <c r="Q108" s="59">
+        <v>17</v>
+      </c>
+      <c r="R108" s="59">
         <v>76.5</v>
       </c>
-      <c r="S108" s="60"/>
-      <c r="T108" s="59" t="s">
+      <c r="S108" s="59"/>
+      <c r="T108" s="58" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B109" s="57">
+      <c r="A109" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="56">
         <v>4</v>
       </c>
-      <c r="C109" s="57"/>
-      <c r="D109" s="58">
+      <c r="C109" s="56"/>
+      <c r="D109" s="57">
         <v>43311</v>
       </c>
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F109" s="57" t="s">
+      <c r="F109" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G109" s="60">
+      <c r="G109" s="59">
         <v>13</v>
       </c>
-      <c r="H109" s="60">
-        <v>1</v>
-      </c>
-      <c r="I109" s="59" t="s">
+      <c r="H109" s="59">
+        <v>1</v>
+      </c>
+      <c r="I109" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="J109" s="60">
+      <c r="J109" s="59">
         <v>5</v>
       </c>
-      <c r="K109" s="60">
+      <c r="K109" s="59">
         <v>5</v>
       </c>
-      <c r="L109" s="59" t="s">
+      <c r="L109" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M109" s="60">
-        <v>2</v>
-      </c>
-      <c r="N109" s="59"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="60">
+      <c r="M109" s="59">
+        <v>2</v>
+      </c>
+      <c r="N109" s="58"/>
+      <c r="O109" s="58"/>
+      <c r="P109" s="59">
         <v>873</v>
       </c>
-      <c r="Q109" s="60">
-        <v>17</v>
-      </c>
-      <c r="R109" s="60">
+      <c r="Q109" s="59">
+        <v>17</v>
+      </c>
+      <c r="R109" s="59">
         <v>76.5</v>
       </c>
-      <c r="S109" s="60"/>
-      <c r="T109" s="59" t="s">
+      <c r="S109" s="59"/>
+      <c r="T109" s="58" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B110" s="57">
+      <c r="A110" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="56">
         <v>4</v>
       </c>
-      <c r="C110" s="57"/>
-      <c r="D110" s="58">
+      <c r="C110" s="56"/>
+      <c r="D110" s="57">
         <v>43311</v>
       </c>
-      <c r="E110" s="59" t="s">
+      <c r="E110" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F110" s="57" t="s">
+      <c r="F110" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G110" s="60">
+      <c r="G110" s="59">
         <v>16</v>
       </c>
-      <c r="H110" s="60">
-        <v>1</v>
-      </c>
-      <c r="I110" s="59" t="s">
+      <c r="H110" s="59">
+        <v>1</v>
+      </c>
+      <c r="I110" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J110" s="60">
+      <c r="J110" s="59">
         <v>5</v>
       </c>
-      <c r="K110" s="60">
+      <c r="K110" s="59">
         <v>23</v>
       </c>
-      <c r="L110" s="59" t="s">
+      <c r="L110" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M110" s="60">
-        <v>2</v>
-      </c>
-      <c r="N110" s="59"/>
-      <c r="O110" s="59"/>
-      <c r="P110" s="60">
+      <c r="M110" s="59">
+        <v>2</v>
+      </c>
+      <c r="N110" s="58"/>
+      <c r="O110" s="58"/>
+      <c r="P110" s="59">
         <v>873</v>
       </c>
-      <c r="Q110" s="60">
-        <v>17</v>
-      </c>
-      <c r="R110" s="60">
+      <c r="Q110" s="59">
+        <v>17</v>
+      </c>
+      <c r="R110" s="59">
         <v>76.5</v>
       </c>
-      <c r="S110" s="60"/>
-      <c r="T110" s="59" t="s">
+      <c r="S110" s="59"/>
+      <c r="T110" s="58" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="57">
+      <c r="A111" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111" s="56">
         <v>4</v>
       </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="58">
+      <c r="C111" s="56"/>
+      <c r="D111" s="57">
         <v>43313</v>
       </c>
-      <c r="E111" s="59" t="s">
+      <c r="E111" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F111" s="57" t="s">
+      <c r="F111" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G111" s="60">
+      <c r="G111" s="59">
         <v>12</v>
       </c>
-      <c r="H111" s="60">
-        <v>1</v>
-      </c>
-      <c r="I111" s="59" t="s">
+      <c r="H111" s="59">
+        <v>1</v>
+      </c>
+      <c r="I111" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="J111" s="60">
-        <v>30</v>
-      </c>
-      <c r="K111" s="60">
+      <c r="J111" s="59">
+        <v>30</v>
+      </c>
+      <c r="K111" s="59">
         <v>0</v>
       </c>
-      <c r="L111" s="59" t="s">
+      <c r="L111" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M111" s="60">
-        <v>2</v>
-      </c>
-      <c r="N111" s="59"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="60">
+      <c r="M111" s="59">
+        <v>2</v>
+      </c>
+      <c r="N111" s="58"/>
+      <c r="O111" s="58"/>
+      <c r="P111" s="59">
         <v>873</v>
       </c>
-      <c r="Q111" s="60">
-        <v>17</v>
-      </c>
-      <c r="R111" s="60">
+      <c r="Q111" s="59">
+        <v>17</v>
+      </c>
+      <c r="R111" s="59">
         <v>76.5</v>
       </c>
-      <c r="S111" s="60"/>
-      <c r="T111" s="59" t="s">
+      <c r="S111" s="59"/>
+      <c r="T111" s="58" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="57">
+      <c r="A112" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112" s="56">
         <v>4</v>
       </c>
-      <c r="C112" s="57"/>
-      <c r="D112" s="58">
+      <c r="C112" s="56"/>
+      <c r="D112" s="57">
         <v>43314</v>
       </c>
-      <c r="E112" s="59" t="s">
+      <c r="E112" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="F112" s="57" t="s">
+      <c r="F112" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G112" s="60">
+      <c r="G112" s="59">
         <v>15</v>
       </c>
-      <c r="H112" s="60">
-        <v>1</v>
-      </c>
-      <c r="I112" s="59" t="s">
+      <c r="H112" s="59">
+        <v>1</v>
+      </c>
+      <c r="I112" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="J112" s="60">
-        <v>30</v>
-      </c>
-      <c r="K112" s="60">
+      <c r="J112" s="59">
+        <v>30</v>
+      </c>
+      <c r="K112" s="59">
         <v>5</v>
       </c>
-      <c r="L112" s="59" t="s">
+      <c r="L112" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M112" s="60">
-        <v>2</v>
-      </c>
-      <c r="N112" s="59"/>
-      <c r="O112" s="59"/>
-      <c r="P112" s="60">
+      <c r="M112" s="59">
+        <v>2</v>
+      </c>
+      <c r="N112" s="58"/>
+      <c r="O112" s="58"/>
+      <c r="P112" s="59">
         <v>873</v>
       </c>
-      <c r="Q112" s="60">
-        <v>17</v>
-      </c>
-      <c r="R112" s="60">
+      <c r="Q112" s="59">
+        <v>17</v>
+      </c>
+      <c r="R112" s="59">
         <v>76.5</v>
       </c>
-      <c r="S112" s="60"/>
-      <c r="T112" s="59" t="s">
+      <c r="S112" s="59"/>
+      <c r="T112" s="58" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="57">
+      <c r="A113" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113" s="56">
         <v>4</v>
       </c>
-      <c r="C113" s="57"/>
-      <c r="D113" s="58">
+      <c r="C113" s="56"/>
+      <c r="D113" s="57">
         <v>43314</v>
       </c>
-      <c r="E113" s="59" t="s">
+      <c r="E113" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F113" s="57" t="s">
+      <c r="F113" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="G113" s="60">
+      <c r="G113" s="59">
         <v>18</v>
       </c>
-      <c r="H113" s="60">
-        <v>1</v>
-      </c>
-      <c r="I113" s="59" t="s">
+      <c r="H113" s="59">
+        <v>1</v>
+      </c>
+      <c r="I113" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J113" s="60">
-        <v>30</v>
-      </c>
-      <c r="K113" s="60">
+      <c r="J113" s="59">
+        <v>30</v>
+      </c>
+      <c r="K113" s="59">
         <v>23</v>
       </c>
-      <c r="L113" s="59" t="s">
+      <c r="L113" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M113" s="60">
-        <v>2</v>
-      </c>
-      <c r="N113" s="59"/>
-      <c r="O113" s="59"/>
-      <c r="P113" s="60">
+      <c r="M113" s="59">
+        <v>2</v>
+      </c>
+      <c r="N113" s="58"/>
+      <c r="O113" s="58"/>
+      <c r="P113" s="59">
         <v>873</v>
       </c>
-      <c r="Q113" s="60">
-        <v>17</v>
-      </c>
-      <c r="R113" s="60">
+      <c r="Q113" s="59">
+        <v>17</v>
+      </c>
+      <c r="R113" s="59">
         <v>76.5</v>
       </c>
-      <c r="S113" s="60"/>
-      <c r="T113" s="59" t="s">
+      <c r="S113" s="59"/>
+      <c r="T113" s="58" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="K114" s="51"/>
-      <c r="M114" s="51"/>
-      <c r="P114" s="51"/>
-      <c r="Q114" s="51"/>
-      <c r="R114" s="51"/>
-      <c r="S114" s="51"/>
+      <c r="A114" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" s="60">
+        <v>4</v>
+      </c>
+      <c r="C114" s="60"/>
+      <c r="D114" s="61">
+        <v>43420</v>
+      </c>
+      <c r="E114" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="G114" s="63">
+        <v>1</v>
+      </c>
+      <c r="H114" s="63">
+        <v>1</v>
+      </c>
+      <c r="I114" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="J114" s="63">
+        <v>90</v>
+      </c>
+      <c r="K114" s="63">
+        <v>15</v>
+      </c>
+      <c r="L114" s="60"/>
+      <c r="M114" s="63"/>
+      <c r="N114" s="60"/>
+      <c r="O114" s="60"/>
+      <c r="P114" s="63">
+        <v>873</v>
+      </c>
+      <c r="Q114" s="63">
+        <v>17</v>
+      </c>
+      <c r="R114" s="63"/>
+      <c r="S114" s="63"/>
+      <c r="T114" s="62" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M115" s="51"/>
-      <c r="P115" s="51"/>
-      <c r="Q115" s="51"/>
-      <c r="R115" s="51"/>
-      <c r="S115" s="51"/>
+      <c r="A115" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="35">
+        <v>43493</v>
+      </c>
+      <c r="E115" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="F115" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" s="65">
+        <v>1</v>
+      </c>
+      <c r="H115" s="34"/>
+      <c r="I115" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J115" s="65">
+        <v>30</v>
+      </c>
+      <c r="K115" s="65">
+        <v>15</v>
+      </c>
+      <c r="L115" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M115" s="65">
+        <v>30</v>
+      </c>
+      <c r="N115" s="34"/>
+      <c r="O115" s="34"/>
+      <c r="P115" s="65">
+        <v>873</v>
+      </c>
+      <c r="Q115" s="65">
+        <v>17</v>
+      </c>
+      <c r="R115" s="65"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="34" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M116" s="51"/>
-      <c r="P116" s="51"/>
-      <c r="Q116" s="51"/>
-      <c r="R116" s="51"/>
-      <c r="S116" s="51"/>
+      <c r="A116" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="35">
+        <v>43493</v>
+      </c>
+      <c r="E116" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G116" s="65">
+        <v>2</v>
+      </c>
+      <c r="H116" s="34"/>
+      <c r="I116" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J116" s="65">
+        <v>30</v>
+      </c>
+      <c r="K116" s="65">
+        <v>15</v>
+      </c>
+      <c r="L116" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M116" s="65">
+        <v>30</v>
+      </c>
+      <c r="N116" s="34"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="65">
+        <v>873</v>
+      </c>
+      <c r="Q116" s="65">
+        <v>17</v>
+      </c>
+      <c r="R116" s="65"/>
+      <c r="S116" s="65"/>
+      <c r="T116" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35">
+        <v>43493</v>
+      </c>
+      <c r="E117" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="F117" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G117" s="65">
+        <v>3</v>
+      </c>
+      <c r="H117" s="34"/>
+      <c r="I117" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="J117" s="65">
+        <v>30</v>
+      </c>
+      <c r="K117" s="65">
+        <v>15</v>
+      </c>
+      <c r="L117" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M117" s="65">
+        <v>30</v>
+      </c>
+      <c r="N117" s="34"/>
+      <c r="O117" s="34"/>
+      <c r="P117" s="65">
+        <v>873</v>
+      </c>
+      <c r="Q117" s="65">
+        <v>17</v>
+      </c>
+      <c r="R117" s="65"/>
+      <c r="S117" s="65"/>
+      <c r="T117" s="34" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,7 +7459,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\emrl\Pool\Projekte\HGST-CERAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="249">
   <si>
     <t>wafer_number</t>
   </si>
@@ -643,9 +643,6 @@
     <t>JR576</t>
   </si>
   <si>
-    <t>Beamline 5 nm amorphous</t>
-  </si>
-  <si>
     <t>Beamline 10 nm amorphous (initally forgot Ta protection layer)</t>
   </si>
   <si>
@@ -698,12 +695,84 @@
   </si>
   <si>
     <t>Reh</t>
+  </si>
+  <si>
+    <t>AH1</t>
+  </si>
+  <si>
+    <t>Ahorn</t>
+  </si>
+  <si>
+    <t>NiO</t>
+  </si>
+  <si>
+    <t>NiO first test</t>
+  </si>
+  <si>
+    <t>Ahorn2</t>
+  </si>
+  <si>
+    <t>LAMA1</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>TE thickness variation</t>
+  </si>
+  <si>
+    <t>LAMA2</t>
+  </si>
+  <si>
+    <t>LAMA3</t>
+  </si>
+  <si>
+    <t>LAMA4</t>
+  </si>
+  <si>
+    <t>Beamline 5 nm amorphous, Pt added 2019-04-23</t>
+  </si>
+  <si>
+    <t>Beamline 5 nm crystalline, Pt added 2019-04-23</t>
+  </si>
+  <si>
+    <t>Pferd1</t>
+  </si>
+  <si>
+    <t>Pferd</t>
+  </si>
+  <si>
+    <t>Pferd2</t>
+  </si>
+  <si>
+    <t>amorphous</t>
+  </si>
+  <si>
+    <t>crystalline</t>
+  </si>
+  <si>
+    <t>Pferd3</t>
+  </si>
+  <si>
+    <t>crystalline w/ high O2</t>
+  </si>
+  <si>
+    <t>Dachs1</t>
+  </si>
+  <si>
+    <t>Dachs</t>
+  </si>
+  <si>
+    <t>contact test</t>
+  </si>
+  <si>
+    <t>TE thickness variation, additional 60nm Pt added 2019-04-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1325,7 +1394,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1400,50 +1469,57 @@
     <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1726,14 +1802,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T117"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -1787,7 +1863,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -6281,7 +6357,7 @@
       </c>
       <c r="S95" s="43"/>
       <c r="T95" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -6335,7 +6411,7 @@
       </c>
       <c r="S96" s="43"/>
       <c r="T96" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -6389,7 +6465,7 @@
       </c>
       <c r="S97" s="43"/>
       <c r="T97" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
@@ -6496,7 +6572,7 @@
       </c>
       <c r="S99" s="55"/>
       <c r="T99" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6549,7 +6625,7 @@
       </c>
       <c r="S100" s="55"/>
       <c r="T100" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6602,7 +6678,7 @@
       </c>
       <c r="S101" s="55"/>
       <c r="T101" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
@@ -6710,7 +6786,7 @@
       </c>
       <c r="S103" s="59"/>
       <c r="T103" s="58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
@@ -6818,7 +6894,7 @@
       </c>
       <c r="S105" s="59"/>
       <c r="T105" s="58" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
@@ -6872,7 +6948,7 @@
       </c>
       <c r="S106" s="59"/>
       <c r="T106" s="58" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
@@ -6926,7 +7002,7 @@
       </c>
       <c r="S107" s="59"/>
       <c r="T107" s="58" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
@@ -6941,7 +7017,7 @@
         <v>43311</v>
       </c>
       <c r="E108" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F108" s="56" t="s">
         <v>181</v>
@@ -6980,7 +7056,7 @@
       </c>
       <c r="S108" s="59"/>
       <c r="T108" s="58" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
@@ -6995,7 +7071,7 @@
         <v>43311</v>
       </c>
       <c r="E109" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F109" s="56" t="s">
         <v>181</v>
@@ -7034,7 +7110,7 @@
       </c>
       <c r="S109" s="59"/>
       <c r="T109" s="58" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
@@ -7049,7 +7125,7 @@
         <v>43311</v>
       </c>
       <c r="E110" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F110" s="56" t="s">
         <v>181</v>
@@ -7088,7 +7164,7 @@
       </c>
       <c r="S110" s="59"/>
       <c r="T110" s="58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
@@ -7103,7 +7179,7 @@
         <v>43313</v>
       </c>
       <c r="E111" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F111" s="56" t="s">
         <v>181</v>
@@ -7142,7 +7218,7 @@
       </c>
       <c r="S111" s="59"/>
       <c r="T111" s="58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
@@ -7157,7 +7233,7 @@
         <v>43314</v>
       </c>
       <c r="E112" s="58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F112" s="56" t="s">
         <v>181</v>
@@ -7196,7 +7272,7 @@
       </c>
       <c r="S112" s="59"/>
       <c r="T112" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
@@ -7211,7 +7287,7 @@
         <v>43314</v>
       </c>
       <c r="E113" s="58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F113" s="56" t="s">
         <v>181</v>
@@ -7250,7 +7326,7 @@
       </c>
       <c r="S113" s="59"/>
       <c r="T113" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
@@ -7265,10 +7341,10 @@
         <v>43420</v>
       </c>
       <c r="E114" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="F114" s="60" t="s">
         <v>218</v>
-      </c>
-      <c r="F114" s="60" t="s">
-        <v>219</v>
       </c>
       <c r="G114" s="63">
         <v>1</v>
@@ -7298,7 +7374,7 @@
       <c r="R114" s="63"/>
       <c r="S114" s="63"/>
       <c r="T114" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -7311,10 +7387,10 @@
         <v>43493</v>
       </c>
       <c r="E115" s="64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F115" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G115" s="65">
         <v>1</v>
@@ -7346,7 +7422,7 @@
       <c r="R115" s="65"/>
       <c r="S115" s="65"/>
       <c r="T115" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
@@ -7359,10 +7435,10 @@
         <v>43493</v>
       </c>
       <c r="E116" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F116" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G116" s="65">
         <v>2</v>
@@ -7394,7 +7470,7 @@
       <c r="R116" s="65"/>
       <c r="S116" s="65"/>
       <c r="T116" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
@@ -7407,10 +7483,10 @@
         <v>43493</v>
       </c>
       <c r="E117" s="64" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G117" s="65">
         <v>3</v>
@@ -7442,7 +7518,475 @@
       <c r="R117" s="65"/>
       <c r="S117" s="65"/>
       <c r="T117" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="66"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="67">
+        <v>43538</v>
+      </c>
+      <c r="E118" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="F118" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G118" s="69">
+        <v>1</v>
+      </c>
+      <c r="H118" s="66"/>
+      <c r="I118" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J118" s="69">
+        <v>30</v>
+      </c>
+      <c r="K118" s="66"/>
+      <c r="L118" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="M118" s="69">
+        <v>30</v>
+      </c>
+      <c r="N118" s="66"/>
+      <c r="O118" s="66"/>
+      <c r="P118" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="69">
+        <v>17</v>
+      </c>
+      <c r="R118" s="66"/>
+      <c r="S118" s="66"/>
+      <c r="T118" s="66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="67">
+        <v>43538</v>
+      </c>
+      <c r="E119" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="F119" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G119" s="69">
+        <v>2</v>
+      </c>
+      <c r="H119" s="66"/>
+      <c r="I119" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J119" s="69">
+        <v>10</v>
+      </c>
+      <c r="K119" s="66"/>
+      <c r="L119" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="M119" s="69">
+        <v>30</v>
+      </c>
+      <c r="N119" s="66"/>
+      <c r="O119" s="66"/>
+      <c r="P119" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="69">
+        <v>17</v>
+      </c>
+      <c r="R119" s="66"/>
+      <c r="S119" s="66"/>
+      <c r="T119" s="66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="41">
+        <v>43573</v>
+      </c>
+      <c r="E120" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G120" s="71">
+        <v>1</v>
+      </c>
+      <c r="H120" s="40"/>
+      <c r="I120" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J120" s="71">
+        <v>30</v>
+      </c>
+      <c r="K120" s="71">
+        <v>15</v>
+      </c>
+      <c r="L120" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M120" s="71">
+        <v>20</v>
+      </c>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q120" s="71">
+        <v>17</v>
+      </c>
+      <c r="R120" s="40"/>
+      <c r="S120" s="40"/>
+      <c r="T120" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="41">
+        <v>43573</v>
+      </c>
+      <c r="E121" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="F121" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G121" s="71">
+        <v>2</v>
+      </c>
+      <c r="H121" s="40"/>
+      <c r="I121" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J121" s="71">
+        <v>30</v>
+      </c>
+      <c r="K121" s="71">
+        <v>15</v>
+      </c>
+      <c r="L121" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M121" s="71">
+        <v>40</v>
+      </c>
+      <c r="N121" s="40"/>
+      <c r="O121" s="40"/>
+      <c r="P121" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q121" s="71">
+        <v>17</v>
+      </c>
+      <c r="R121" s="40"/>
+      <c r="S121" s="40"/>
+      <c r="T121" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="41">
+        <v>43573</v>
+      </c>
+      <c r="E122" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G122" s="71">
+        <v>3</v>
+      </c>
+      <c r="H122" s="40"/>
+      <c r="I122" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J122" s="71">
+        <v>30</v>
+      </c>
+      <c r="K122" s="71">
+        <v>15</v>
+      </c>
+      <c r="L122" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M122" s="71">
+        <v>90</v>
+      </c>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q122" s="71">
+        <v>17</v>
+      </c>
+      <c r="R122" s="40"/>
+      <c r="S122" s="40"/>
+      <c r="T122" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="41">
+        <v>43573</v>
+      </c>
+      <c r="E123" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F123" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G123" s="71">
+        <v>4</v>
+      </c>
+      <c r="H123" s="40"/>
+      <c r="I123" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J123" s="71">
+        <v>30</v>
+      </c>
+      <c r="K123" s="71">
+        <v>15</v>
+      </c>
+      <c r="L123" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M123" s="71">
+        <v>60</v>
+      </c>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q123" s="71">
+        <v>17</v>
+      </c>
+      <c r="R123" s="40"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="48">
+        <v>43580</v>
+      </c>
+      <c r="E124" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G124" s="50">
+        <v>1</v>
+      </c>
+      <c r="H124" s="47"/>
+      <c r="I124" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J124" s="50">
+        <v>5</v>
+      </c>
+      <c r="K124" s="50">
+        <v>15</v>
+      </c>
+      <c r="L124" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M124" s="50">
+        <v>30</v>
+      </c>
+      <c r="N124" s="47"/>
+      <c r="O124" s="47"/>
+      <c r="P124" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="50">
+        <v>17</v>
+      </c>
+      <c r="R124" s="47"/>
+      <c r="S124" s="47"/>
+      <c r="T124" s="47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="48">
+        <v>43580</v>
+      </c>
+      <c r="E125" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G125" s="50">
+        <v>2</v>
+      </c>
+      <c r="H125" s="47"/>
+      <c r="I125" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J125" s="50">
+        <v>5</v>
+      </c>
+      <c r="K125" s="50">
+        <v>15</v>
+      </c>
+      <c r="L125" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M125" s="50">
+        <v>30</v>
+      </c>
+      <c r="N125" s="47"/>
+      <c r="O125" s="47"/>
+      <c r="P125" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q125" s="50">
+        <v>17</v>
+      </c>
+      <c r="R125" s="47"/>
+      <c r="S125" s="47"/>
+      <c r="T125" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="48">
+        <v>43581</v>
+      </c>
+      <c r="E126" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="F126" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G126" s="50">
+        <v>3</v>
+      </c>
+      <c r="H126" s="47"/>
+      <c r="I126" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J126" s="50">
+        <v>5</v>
+      </c>
+      <c r="K126" s="50">
+        <v>15</v>
+      </c>
+      <c r="L126" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M126" s="50">
+        <v>30</v>
+      </c>
+      <c r="N126" s="47"/>
+      <c r="O126" s="47"/>
+      <c r="P126" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q126" s="50">
+        <v>17</v>
+      </c>
+      <c r="R126" s="47"/>
+      <c r="S126" s="47"/>
+      <c r="T126" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="60"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="61">
+        <v>43581</v>
+      </c>
+      <c r="E127" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F127" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G127" s="63">
+        <v>1</v>
+      </c>
+      <c r="H127" s="60"/>
+      <c r="I127" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J127" s="63">
+        <v>30</v>
+      </c>
+      <c r="K127" s="60"/>
+      <c r="L127" s="60"/>
+      <c r="M127" s="60"/>
+      <c r="N127" s="60"/>
+      <c r="O127" s="60"/>
+      <c r="P127" s="60"/>
+      <c r="Q127" s="63">
+        <v>17</v>
+      </c>
+      <c r="R127" s="60"/>
+      <c r="S127" s="60"/>
+      <c r="T127" s="60" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -7459,7 +8003,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="253">
   <si>
     <t>wafer_number</t>
   </si>
@@ -763,16 +763,28 @@
     <t>Dachs</t>
   </si>
   <si>
-    <t>contact test</t>
-  </si>
-  <si>
     <t>TE thickness variation, additional 60nm Pt added 2019-04-26</t>
+  </si>
+  <si>
+    <t>Dachs2</t>
+  </si>
+  <si>
+    <t>Dachs3</t>
+  </si>
+  <si>
+    <t>corner piece; contact test</t>
+  </si>
+  <si>
+    <t>corner piece; contact test, etched with option "reduce pump speed = yes"</t>
+  </si>
+  <si>
+    <t>corner piece; contact test, etched with option "reduce pump speed = no"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1478,48 +1490,48 @@
     <xf numFmtId="2" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1802,14 +1814,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M123" sqref="M123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M132" sqref="M132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -7754,7 +7766,7 @@
       <c r="R122" s="40"/>
       <c r="S122" s="40"/>
       <c r="T122" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
@@ -7986,7 +7998,87 @@
       <c r="R127" s="60"/>
       <c r="S127" s="60"/>
       <c r="T127" s="60" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="60"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="61">
+        <v>43608</v>
+      </c>
+      <c r="E128" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G128" s="63">
+        <v>2</v>
+      </c>
+      <c r="H128" s="60"/>
+      <c r="I128" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J128" s="63">
+        <v>30</v>
+      </c>
+      <c r="K128" s="60"/>
+      <c r="L128" s="60"/>
+      <c r="M128" s="60"/>
+      <c r="N128" s="60"/>
+      <c r="O128" s="60"/>
+      <c r="P128" s="60"/>
+      <c r="Q128" s="63">
+        <v>17</v>
+      </c>
+      <c r="R128" s="60"/>
+      <c r="S128" s="60"/>
+      <c r="T128" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="61">
+        <v>43609</v>
+      </c>
+      <c r="E129" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="F129" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G129" s="63">
+        <v>3</v>
+      </c>
+      <c r="H129" s="60"/>
+      <c r="I129" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" s="63">
+        <v>30</v>
+      </c>
+      <c r="K129" s="60"/>
+      <c r="L129" s="60"/>
+      <c r="M129" s="60"/>
+      <c r="N129" s="60"/>
+      <c r="O129" s="60"/>
+      <c r="P129" s="60"/>
+      <c r="Q129" s="63">
+        <v>17</v>
+      </c>
+      <c r="R129" s="60"/>
+      <c r="S129" s="60"/>
+      <c r="T129" s="60" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -8003,7 +8095,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\emrl\Pool\Projekte\HGST-CERAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\t\py-ivtools\ivtools\sampledata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="263">
   <si>
     <t>wafer_number</t>
   </si>
@@ -779,12 +779,42 @@
   </si>
   <si>
     <t>corner piece; contact test, etched with option "reduce pump speed = no"</t>
+  </si>
+  <si>
+    <t>Ahorn3</t>
+  </si>
+  <si>
+    <t>NiO more gas flow</t>
+  </si>
+  <si>
+    <t>MFC1</t>
+  </si>
+  <si>
+    <t>MFC2</t>
+  </si>
+  <si>
+    <t>MFC1_gas</t>
+  </si>
+  <si>
+    <t>MFC2_gas</t>
+  </si>
+  <si>
+    <t>dep_pressure</t>
+  </si>
+  <si>
+    <t>dep_power</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>1%O2/99%Ar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1490,48 +1520,48 @@
     <xf numFmtId="2" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1814,14 +1844,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M132" sqref="M132"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V119" sqref="V119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
@@ -1839,46 +1869,46 @@
     <col min="16" max="16" width="22.7109375" customWidth="1"/>
     <col min="17" max="17" width="15.42578125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="103.5703125" customWidth="1"/>
+    <col min="19" max="25" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="103.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1894,11 +1924,11 @@
       <c r="P8" t="s">
         <v>91</v>
       </c>
-      <c r="T8" t="s">
+      <c r="Z8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>82</v>
       </c>
@@ -1957,10 +1987,28 @@
         <v>154</v>
       </c>
       <c r="T9" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1991,8 +2039,14 @@
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -2038,11 +2092,17 @@
         <v>94.5</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -2088,11 +2148,17 @@
         <v>76.5</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
@@ -2138,11 +2204,17 @@
         <v>58.5</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -2188,11 +2260,17 @@
         <v>40.5</v>
       </c>
       <c r="S14" s="2"/>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -2244,11 +2322,17 @@
         <v>76.5</v>
       </c>
       <c r="S15" s="1"/>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -2300,11 +2384,17 @@
         <v>76.5</v>
       </c>
       <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -2356,11 +2446,17 @@
         <v>76.5</v>
       </c>
       <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -2412,11 +2508,17 @@
         <v>76.5</v>
       </c>
       <c r="S18" s="1"/>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2468,11 +2570,17 @@
         <v>76.5</v>
       </c>
       <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2524,11 +2632,17 @@
         <v>76.5</v>
       </c>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
@@ -2580,11 +2694,17 @@
         <v>76.5</v>
       </c>
       <c r="S21" s="16"/>
-      <c r="T21" s="16" t="s">
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>83</v>
       </c>
@@ -2636,11 +2756,17 @@
         <v>76.5</v>
       </c>
       <c r="S22" s="16"/>
-      <c r="T22" s="16" t="s">
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>83</v>
       </c>
@@ -2692,11 +2818,17 @@
         <v>76.5</v>
       </c>
       <c r="S23" s="16"/>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>83</v>
       </c>
@@ -2748,11 +2880,17 @@
         <v>76.5</v>
       </c>
       <c r="S24" s="16"/>
-      <c r="T24" s="16" t="s">
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>83</v>
       </c>
@@ -2804,11 +2942,17 @@
         <v>76.5</v>
       </c>
       <c r="S25" s="16"/>
-      <c r="T25" s="16" t="s">
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>83</v>
       </c>
@@ -2860,11 +3004,17 @@
         <v>76.5</v>
       </c>
       <c r="S26" s="16"/>
-      <c r="T26" s="16" t="s">
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -2910,11 +3060,17 @@
         <v>76.5</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>83</v>
       </c>
@@ -2966,11 +3122,17 @@
         <v>76.5</v>
       </c>
       <c r="S28" s="8"/>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3014,11 +3176,17 @@
         <v>76.5</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="6" t="s">
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -3064,11 +3232,17 @@
         <v>0</v>
       </c>
       <c r="S30" s="2"/>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
@@ -3120,11 +3294,17 @@
         <v>76.5</v>
       </c>
       <c r="S31" s="14"/>
-      <c r="T31" s="14" t="s">
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -3176,11 +3356,17 @@
         <v>76.5</v>
       </c>
       <c r="S32" s="14"/>
-      <c r="T32" s="14" t="s">
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
@@ -3232,11 +3418,17 @@
         <v>76.5</v>
       </c>
       <c r="S33" s="14"/>
-      <c r="T33" s="14" t="s">
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -3288,11 +3480,17 @@
         <v>76.5</v>
       </c>
       <c r="S34" s="14"/>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -3344,11 +3542,17 @@
         <v>76.5</v>
       </c>
       <c r="S35" s="14"/>
-      <c r="T35" s="14" t="s">
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -3400,11 +3604,17 @@
         <v>76.5</v>
       </c>
       <c r="S36" s="14"/>
-      <c r="T36" s="14" t="s">
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>83</v>
       </c>
@@ -3456,11 +3666,17 @@
         <v>76.5</v>
       </c>
       <c r="S37" s="18"/>
-      <c r="T37" s="18" t="s">
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>83</v>
       </c>
@@ -3512,11 +3728,17 @@
         <v>76.5</v>
       </c>
       <c r="S38" s="18"/>
-      <c r="T38" s="18" t="s">
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>83</v>
       </c>
@@ -3568,11 +3790,17 @@
         <v>76.5</v>
       </c>
       <c r="S39" s="18"/>
-      <c r="T39" s="18" t="s">
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>83</v>
       </c>
@@ -3624,11 +3852,17 @@
         <v>76.5</v>
       </c>
       <c r="S40" s="18"/>
-      <c r="T40" s="18" t="s">
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>83</v>
       </c>
@@ -3680,11 +3914,17 @@
         <v>76.5</v>
       </c>
       <c r="S41" s="18"/>
-      <c r="T41" s="18" t="s">
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>83</v>
       </c>
@@ -3736,11 +3976,17 @@
         <v>76.5</v>
       </c>
       <c r="S42" s="18"/>
-      <c r="T42" s="18" t="s">
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
@@ -3780,11 +4026,17 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="T43" s="1" t="s">
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
@@ -3824,11 +4076,17 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1" t="s">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -3868,11 +4126,17 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1" t="s">
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -3912,11 +4176,17 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="T46" s="1" t="s">
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
@@ -3956,11 +4226,17 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="T47" s="1" t="s">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -4000,11 +4276,17 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="1" t="s">
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>83</v>
       </c>
@@ -4056,11 +4338,17 @@
       <c r="S49" s="20">
         <v>500</v>
       </c>
-      <c r="T49" s="20" t="s">
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>83</v>
       </c>
@@ -4112,11 +4400,17 @@
       <c r="S50" s="20">
         <v>500</v>
       </c>
-      <c r="T50" s="20" t="s">
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
@@ -4168,11 +4462,17 @@
       <c r="S51" s="20">
         <v>500</v>
       </c>
-      <c r="T51" s="20" t="s">
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>83</v>
       </c>
@@ -4224,11 +4524,17 @@
       <c r="S52" s="20">
         <v>500</v>
       </c>
-      <c r="T52" s="20" t="s">
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>83</v>
       </c>
@@ -4280,11 +4586,17 @@
       <c r="S53" s="20">
         <v>500</v>
       </c>
-      <c r="T53" s="20" t="s">
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>83</v>
       </c>
@@ -4336,11 +4648,17 @@
       <c r="S54" s="20">
         <v>500</v>
       </c>
-      <c r="T54" s="20" t="s">
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>83</v>
       </c>
@@ -4386,11 +4704,17 @@
         <v>76.5</v>
       </c>
       <c r="S55" s="22"/>
-      <c r="T55" s="22" t="s">
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>83</v>
       </c>
@@ -4440,11 +4764,17 @@
         <v>76.5</v>
       </c>
       <c r="S56" s="22"/>
-      <c r="T56" s="22" t="s">
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -4484,11 +4814,17 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="1" t="s">
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
@@ -4528,11 +4864,17 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1" t="s">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -4572,11 +4914,17 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1" t="s">
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -4616,11 +4964,17 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1" t="s">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
@@ -4660,11 +5014,17 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1" t="s">
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
@@ -4704,11 +5064,17 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1" t="s">
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -4742,11 +5108,17 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="1" t="s">
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>83</v>
       </c>
@@ -4796,11 +5168,17 @@
       <c r="S64" s="20">
         <v>500</v>
       </c>
-      <c r="T64" s="20" t="s">
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>83</v>
       </c>
@@ -4850,11 +5228,17 @@
       <c r="S65" s="20">
         <v>500</v>
       </c>
-      <c r="T65" s="20" t="s">
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>83</v>
       </c>
@@ -4904,11 +5288,17 @@
       <c r="S66" s="20">
         <v>500</v>
       </c>
-      <c r="T66" s="20" t="s">
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>83</v>
       </c>
@@ -4958,11 +5348,17 @@
       <c r="S67" s="20">
         <v>500</v>
       </c>
-      <c r="T67" s="20" t="s">
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>83</v>
       </c>
@@ -5012,11 +5408,17 @@
       <c r="S68" s="20">
         <v>500</v>
       </c>
-      <c r="T68" s="20" t="s">
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>83</v>
       </c>
@@ -5066,11 +5468,17 @@
       <c r="S69" s="20">
         <v>500</v>
       </c>
-      <c r="T69" s="20" t="s">
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>124</v>
       </c>
@@ -5106,11 +5514,17 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
-      <c r="T70" s="24" t="s">
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>124</v>
       </c>
@@ -5152,11 +5566,17 @@
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
       <c r="S71" s="24"/>
-      <c r="T71" s="24" t="s">
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>124</v>
       </c>
@@ -5198,11 +5618,17 @@
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
-      <c r="T72" s="24" t="s">
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>124</v>
       </c>
@@ -5244,11 +5670,17 @@
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
-      <c r="T73" s="24" t="s">
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>83</v>
       </c>
@@ -5280,11 +5712,17 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
-      <c r="T74" s="24" t="s">
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>83</v>
       </c>
@@ -5328,11 +5766,17 @@
       <c r="S75" s="26">
         <v>750</v>
       </c>
-      <c r="T75" s="26" t="s">
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="26"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>83</v>
       </c>
@@ -5376,11 +5820,17 @@
       <c r="S76" s="26">
         <v>750</v>
       </c>
-      <c r="T76" s="26" t="s">
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="26"/>
+      <c r="W76" s="26"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>139</v>
       </c>
@@ -5418,11 +5868,17 @@
       <c r="S77" s="26">
         <v>750</v>
       </c>
-      <c r="T77" s="26" t="s">
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="26"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>139</v>
       </c>
@@ -5460,11 +5916,17 @@
       <c r="S78" s="26">
         <v>750</v>
       </c>
-      <c r="T78" s="26" t="s">
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="26"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="26"/>
+      <c r="Z78" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>83</v>
       </c>
@@ -5514,11 +5976,17 @@
         <v>76.5</v>
       </c>
       <c r="S79" s="30"/>
-      <c r="T79" s="30" t="s">
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
+      <c r="V79" s="30"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>83</v>
       </c>
@@ -5564,11 +6032,17 @@
       <c r="S80" s="32">
         <v>500</v>
       </c>
-      <c r="T80" s="32" t="s">
+      <c r="T80" s="32"/>
+      <c r="U80" s="32"/>
+      <c r="V80" s="32"/>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
         <v>83</v>
       </c>
@@ -5621,8 +6095,14 @@
       </c>
       <c r="S81" s="34"/>
       <c r="T81" s="34"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
         <v>83</v>
       </c>
@@ -5675,8 +6155,14 @@
       </c>
       <c r="S82" s="34"/>
       <c r="T82" s="34"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="34"/>
+      <c r="V82" s="34"/>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>83</v>
       </c>
@@ -5729,8 +6215,14 @@
       </c>
       <c r="S83" s="34"/>
       <c r="T83" s="34"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="34"/>
+      <c r="V83" s="34"/>
+      <c r="W83" s="34"/>
+      <c r="X83" s="34"/>
+      <c r="Y83" s="34"/>
+      <c r="Z83" s="34"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>83</v>
       </c>
@@ -5782,11 +6274,17 @@
         <v>76.5</v>
       </c>
       <c r="S84" s="37"/>
-      <c r="T84" s="37" t="s">
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>83</v>
       </c>
@@ -5838,11 +6336,17 @@
         <v>76.5</v>
       </c>
       <c r="S85" s="37"/>
-      <c r="T85" s="37" t="s">
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="37" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>83</v>
       </c>
@@ -5894,11 +6398,17 @@
         <v>76.5</v>
       </c>
       <c r="S86" s="37"/>
-      <c r="T86" s="37" t="s">
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>83</v>
       </c>
@@ -5950,11 +6460,17 @@
         <v>76.5</v>
       </c>
       <c r="S87" s="37"/>
-      <c r="T87" s="37" t="s">
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
+      <c r="Z87" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>83</v>
       </c>
@@ -6006,11 +6522,17 @@
         <v>76.5</v>
       </c>
       <c r="S88" s="37"/>
-      <c r="T88" s="37" t="s">
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>83</v>
       </c>
@@ -6062,11 +6584,17 @@
         <v>76.5</v>
       </c>
       <c r="S89" s="37"/>
-      <c r="T89" s="37" t="s">
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>83</v>
       </c>
@@ -6118,11 +6646,17 @@
         <v>76.5</v>
       </c>
       <c r="S90" s="40"/>
-      <c r="T90" s="40" t="s">
+      <c r="T90" s="40"/>
+      <c r="U90" s="40"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="40"/>
+      <c r="X90" s="40"/>
+      <c r="Y90" s="40"/>
+      <c r="Z90" s="40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>83</v>
       </c>
@@ -6170,11 +6704,17 @@
         <v>76.5</v>
       </c>
       <c r="S91" s="49"/>
-      <c r="T91" s="45" t="s">
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
+      <c r="V91" s="49"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
+      <c r="Y91" s="49"/>
+      <c r="Z91" s="45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
         <v>83</v>
       </c>
@@ -6222,11 +6762,17 @@
         <v>76.5</v>
       </c>
       <c r="S92" s="49"/>
-      <c r="T92" s="45" t="s">
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="49"/>
+      <c r="W92" s="49"/>
+      <c r="X92" s="49"/>
+      <c r="Y92" s="49"/>
+      <c r="Z92" s="45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>83</v>
       </c>
@@ -6268,11 +6814,17 @@
         <v>0</v>
       </c>
       <c r="S93" s="50"/>
-      <c r="T93" s="47" t="s">
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
+      <c r="V93" s="50"/>
+      <c r="W93" s="50"/>
+      <c r="X93" s="50"/>
+      <c r="Y93" s="50"/>
+      <c r="Z93" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>83</v>
       </c>
@@ -6314,11 +6866,17 @@
         <v>0</v>
       </c>
       <c r="S94" s="50"/>
-      <c r="T94" s="47" t="s">
+      <c r="T94" s="50"/>
+      <c r="U94" s="50"/>
+      <c r="V94" s="50"/>
+      <c r="W94" s="50"/>
+      <c r="X94" s="50"/>
+      <c r="Y94" s="50"/>
+      <c r="Z94" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
         <v>83</v>
       </c>
@@ -6368,11 +6926,17 @@
         <v>76.5</v>
       </c>
       <c r="S95" s="43"/>
-      <c r="T95" s="43" t="s">
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="43"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="43"/>
+      <c r="Z95" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
         <v>83</v>
       </c>
@@ -6422,11 +6986,17 @@
         <v>76.5</v>
       </c>
       <c r="S96" s="43"/>
-      <c r="T96" s="43" t="s">
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+      <c r="V96" s="43"/>
+      <c r="W96" s="43"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="43"/>
+      <c r="Z96" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="43" t="s">
         <v>83</v>
       </c>
@@ -6476,11 +7046,17 @@
         <v>76.5</v>
       </c>
       <c r="S97" s="43"/>
-      <c r="T97" s="43" t="s">
+      <c r="T97" s="43"/>
+      <c r="U97" s="43"/>
+      <c r="V97" s="43"/>
+      <c r="W97" s="43"/>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="43"/>
+      <c r="Z97" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
         <v>83</v>
       </c>
@@ -6530,11 +7106,17 @@
         <v>76.5</v>
       </c>
       <c r="S98" s="51"/>
-      <c r="T98" s="43" t="s">
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="51"/>
+      <c r="W98" s="51"/>
+      <c r="X98" s="51"/>
+      <c r="Y98" s="51"/>
+      <c r="Z98" s="43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
         <v>83</v>
       </c>
@@ -6583,11 +7165,17 @@
         <v>76.5</v>
       </c>
       <c r="S99" s="55"/>
-      <c r="T99" s="54" t="s">
+      <c r="T99" s="55"/>
+      <c r="U99" s="55"/>
+      <c r="V99" s="55"/>
+      <c r="W99" s="55"/>
+      <c r="X99" s="55"/>
+      <c r="Y99" s="55"/>
+      <c r="Z99" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
         <v>83</v>
       </c>
@@ -6636,11 +7224,17 @@
         <v>76.5</v>
       </c>
       <c r="S100" s="55"/>
-      <c r="T100" s="54" t="s">
+      <c r="T100" s="55"/>
+      <c r="U100" s="55"/>
+      <c r="V100" s="55"/>
+      <c r="W100" s="55"/>
+      <c r="X100" s="55"/>
+      <c r="Y100" s="55"/>
+      <c r="Z100" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
         <v>83</v>
       </c>
@@ -6689,11 +7283,17 @@
         <v>76.5</v>
       </c>
       <c r="S101" s="55"/>
-      <c r="T101" s="54" t="s">
+      <c r="T101" s="55"/>
+      <c r="U101" s="55"/>
+      <c r="V101" s="55"/>
+      <c r="W101" s="55"/>
+      <c r="X101" s="55"/>
+      <c r="Y101" s="55"/>
+      <c r="Z101" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="56" t="s">
         <v>83</v>
       </c>
@@ -6743,11 +7343,17 @@
         <v>76.5</v>
       </c>
       <c r="S102" s="59"/>
-      <c r="T102" s="58" t="s">
+      <c r="T102" s="59"/>
+      <c r="U102" s="59"/>
+      <c r="V102" s="59"/>
+      <c r="W102" s="59"/>
+      <c r="X102" s="59"/>
+      <c r="Y102" s="59"/>
+      <c r="Z102" s="58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="56" t="s">
         <v>83</v>
       </c>
@@ -6797,11 +7403,17 @@
         <v>76.5</v>
       </c>
       <c r="S103" s="59"/>
-      <c r="T103" s="58" t="s">
+      <c r="T103" s="59"/>
+      <c r="U103" s="59"/>
+      <c r="V103" s="59"/>
+      <c r="W103" s="59"/>
+      <c r="X103" s="59"/>
+      <c r="Y103" s="59"/>
+      <c r="Z103" s="58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="56" t="s">
         <v>83</v>
       </c>
@@ -6851,11 +7463,17 @@
         <v>76.5</v>
       </c>
       <c r="S104" s="59"/>
-      <c r="T104" s="58" t="s">
+      <c r="T104" s="59"/>
+      <c r="U104" s="59"/>
+      <c r="V104" s="59"/>
+      <c r="W104" s="59"/>
+      <c r="X104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="56" t="s">
         <v>83</v>
       </c>
@@ -6905,11 +7523,17 @@
         <v>76.5</v>
       </c>
       <c r="S105" s="59"/>
-      <c r="T105" s="58" t="s">
+      <c r="T105" s="59"/>
+      <c r="U105" s="59"/>
+      <c r="V105" s="59"/>
+      <c r="W105" s="59"/>
+      <c r="X105" s="59"/>
+      <c r="Y105" s="59"/>
+      <c r="Z105" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="56" t="s">
         <v>83</v>
       </c>
@@ -6959,11 +7583,17 @@
         <v>76.5</v>
       </c>
       <c r="S106" s="59"/>
-      <c r="T106" s="58" t="s">
+      <c r="T106" s="59"/>
+      <c r="U106" s="59"/>
+      <c r="V106" s="59"/>
+      <c r="W106" s="59"/>
+      <c r="X106" s="59"/>
+      <c r="Y106" s="59"/>
+      <c r="Z106" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="56" t="s">
         <v>83</v>
       </c>
@@ -7013,11 +7643,17 @@
         <v>76.5</v>
       </c>
       <c r="S107" s="59"/>
-      <c r="T107" s="58" t="s">
+      <c r="T107" s="59"/>
+      <c r="U107" s="59"/>
+      <c r="V107" s="59"/>
+      <c r="W107" s="59"/>
+      <c r="X107" s="59"/>
+      <c r="Y107" s="59"/>
+      <c r="Z107" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="56" t="s">
         <v>83</v>
       </c>
@@ -7067,11 +7703,17 @@
         <v>76.5</v>
       </c>
       <c r="S108" s="59"/>
-      <c r="T108" s="58" t="s">
+      <c r="T108" s="59"/>
+      <c r="U108" s="59"/>
+      <c r="V108" s="59"/>
+      <c r="W108" s="59"/>
+      <c r="X108" s="59"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="58" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="56" t="s">
         <v>83</v>
       </c>
@@ -7121,11 +7763,17 @@
         <v>76.5</v>
       </c>
       <c r="S109" s="59"/>
-      <c r="T109" s="58" t="s">
+      <c r="T109" s="59"/>
+      <c r="U109" s="59"/>
+      <c r="V109" s="59"/>
+      <c r="W109" s="59"/>
+      <c r="X109" s="59"/>
+      <c r="Y109" s="59"/>
+      <c r="Z109" s="58" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="56" t="s">
         <v>83</v>
       </c>
@@ -7175,11 +7823,17 @@
         <v>76.5</v>
       </c>
       <c r="S110" s="59"/>
-      <c r="T110" s="58" t="s">
+      <c r="T110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="V110" s="59"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="58" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="56" t="s">
         <v>83</v>
       </c>
@@ -7229,11 +7883,17 @@
         <v>76.5</v>
       </c>
       <c r="S111" s="59"/>
-      <c r="T111" s="58" t="s">
+      <c r="T111" s="59"/>
+      <c r="U111" s="59"/>
+      <c r="V111" s="59"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="58" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="56" t="s">
         <v>83</v>
       </c>
@@ -7283,11 +7943,17 @@
         <v>76.5</v>
       </c>
       <c r="S112" s="59"/>
-      <c r="T112" s="58" t="s">
+      <c r="T112" s="59"/>
+      <c r="U112" s="59"/>
+      <c r="V112" s="59"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="56" t="s">
         <v>83</v>
       </c>
@@ -7337,11 +8003,17 @@
         <v>76.5</v>
       </c>
       <c r="S113" s="59"/>
-      <c r="T113" s="58" t="s">
+      <c r="T113" s="59"/>
+      <c r="U113" s="59"/>
+      <c r="V113" s="59"/>
+      <c r="W113" s="59"/>
+      <c r="X113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="60" t="s">
         <v>83</v>
       </c>
@@ -7383,13 +8055,21 @@
       <c r="Q114" s="63">
         <v>17</v>
       </c>
-      <c r="R114" s="63"/>
+      <c r="R114" s="63">
+        <v>76.5</v>
+      </c>
       <c r="S114" s="63"/>
-      <c r="T114" s="62" t="s">
+      <c r="T114" s="63"/>
+      <c r="U114" s="63"/>
+      <c r="V114" s="63"/>
+      <c r="W114" s="63"/>
+      <c r="X114" s="63"/>
+      <c r="Y114" s="63"/>
+      <c r="Z114" s="62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
         <v>83</v>
       </c>
@@ -7431,13 +8111,21 @@
       <c r="Q115" s="65">
         <v>17</v>
       </c>
-      <c r="R115" s="65"/>
+      <c r="R115" s="65">
+        <v>76.5</v>
+      </c>
       <c r="S115" s="65"/>
-      <c r="T115" s="34" t="s">
+      <c r="T115" s="65"/>
+      <c r="U115" s="65"/>
+      <c r="V115" s="65"/>
+      <c r="W115" s="65"/>
+      <c r="X115" s="65"/>
+      <c r="Y115" s="65"/>
+      <c r="Z115" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
         <v>83</v>
       </c>
@@ -7479,13 +8167,21 @@
       <c r="Q116" s="65">
         <v>17</v>
       </c>
-      <c r="R116" s="65"/>
+      <c r="R116" s="65">
+        <v>76.5</v>
+      </c>
       <c r="S116" s="65"/>
-      <c r="T116" s="34" t="s">
+      <c r="T116" s="65"/>
+      <c r="U116" s="65"/>
+      <c r="V116" s="65"/>
+      <c r="W116" s="65"/>
+      <c r="X116" s="65"/>
+      <c r="Y116" s="65"/>
+      <c r="Z116" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="34" t="s">
         <v>83</v>
       </c>
@@ -7527,13 +8223,21 @@
       <c r="Q117" s="65">
         <v>17</v>
       </c>
-      <c r="R117" s="65"/>
+      <c r="R117" s="65">
+        <v>76.5</v>
+      </c>
       <c r="S117" s="65"/>
-      <c r="T117" s="34" t="s">
+      <c r="T117" s="65"/>
+      <c r="U117" s="65"/>
+      <c r="V117" s="65"/>
+      <c r="W117" s="65"/>
+      <c r="X117" s="65"/>
+      <c r="Y117" s="65"/>
+      <c r="Z117" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="66" t="s">
         <v>83</v>
       </c>
@@ -7568,18 +8272,36 @@
       <c r="N118" s="66"/>
       <c r="O118" s="66"/>
       <c r="P118" s="69">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="Q118" s="69">
         <v>17</v>
       </c>
-      <c r="R118" s="66"/>
+      <c r="R118" s="66">
+        <v>76.5</v>
+      </c>
       <c r="S118" s="66"/>
       <c r="T118" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="U118" s="66">
+        <v>15</v>
+      </c>
+      <c r="V118" s="66"/>
+      <c r="W118" s="66">
+        <v>0</v>
+      </c>
+      <c r="X118" s="66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y118" s="66">
+        <v>50</v>
+      </c>
+      <c r="Z118" s="66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="66" t="s">
         <v>83</v>
       </c>
@@ -7614,66 +8336,102 @@
       <c r="N119" s="66"/>
       <c r="O119" s="66"/>
       <c r="P119" s="69">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="Q119" s="69">
         <v>17</v>
       </c>
-      <c r="R119" s="66"/>
+      <c r="R119" s="66">
+        <v>76.5</v>
+      </c>
       <c r="S119" s="66"/>
       <c r="T119" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="U119" s="66">
+        <v>15</v>
+      </c>
+      <c r="V119" s="66"/>
+      <c r="W119" s="66">
+        <v>0</v>
+      </c>
+      <c r="X119" s="66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y119" s="66">
+        <v>50</v>
+      </c>
+      <c r="Z119" s="66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" s="40"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="41">
-        <v>43573</v>
-      </c>
-      <c r="E120" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="F120" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="G120" s="71">
-        <v>1</v>
-      </c>
-      <c r="H120" s="40"/>
-      <c r="I120" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="J120" s="71">
-        <v>30</v>
-      </c>
-      <c r="K120" s="71">
-        <v>15</v>
-      </c>
-      <c r="L120" s="70" t="s">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A120" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="66"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="67">
+        <v>43570</v>
+      </c>
+      <c r="E120" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F120" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G120" s="69">
+        <v>3</v>
+      </c>
+      <c r="H120" s="66"/>
+      <c r="I120" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="J120" s="69">
+        <v>30</v>
+      </c>
+      <c r="K120" s="66"/>
+      <c r="L120" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M120" s="71">
-        <v>20</v>
-      </c>
-      <c r="N120" s="40"/>
-      <c r="O120" s="40"/>
-      <c r="P120" s="71">
-        <v>873</v>
-      </c>
-      <c r="Q120" s="71">
-        <v>17</v>
-      </c>
-      <c r="R120" s="40"/>
-      <c r="S120" s="40"/>
-      <c r="T120" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M120" s="69">
+        <v>30</v>
+      </c>
+      <c r="N120" s="66"/>
+      <c r="O120" s="66"/>
+      <c r="P120" s="69">
+        <v>298</v>
+      </c>
+      <c r="Q120" s="69">
+        <v>17</v>
+      </c>
+      <c r="R120" s="66">
+        <v>76.5</v>
+      </c>
+      <c r="S120" s="66"/>
+      <c r="T120" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="U120" s="66">
+        <v>90</v>
+      </c>
+      <c r="V120" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="W120" s="66">
+        <v>10</v>
+      </c>
+      <c r="X120" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="Y120" s="66">
+        <v>50</v>
+      </c>
+      <c r="Z120" s="66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
         <v>83</v>
       </c>
@@ -7683,13 +8441,13 @@
         <v>43573</v>
       </c>
       <c r="E121" s="70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F121" s="40" t="s">
         <v>231</v>
       </c>
       <c r="G121" s="71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" s="40"/>
       <c r="I121" s="70" t="s">
@@ -7705,7 +8463,7 @@
         <v>9</v>
       </c>
       <c r="M121" s="71">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N121" s="40"/>
       <c r="O121" s="40"/>
@@ -7715,13 +8473,21 @@
       <c r="Q121" s="71">
         <v>17</v>
       </c>
-      <c r="R121" s="40"/>
+      <c r="R121" s="40">
+        <v>76.5</v>
+      </c>
       <c r="S121" s="40"/>
-      <c r="T121" s="40" t="s">
+      <c r="T121" s="40"/>
+      <c r="U121" s="40"/>
+      <c r="V121" s="40"/>
+      <c r="W121" s="40"/>
+      <c r="X121" s="40"/>
+      <c r="Y121" s="40"/>
+      <c r="Z121" s="40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
         <v>83</v>
       </c>
@@ -7731,13 +8497,13 @@
         <v>43573</v>
       </c>
       <c r="E122" s="70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F122" s="40" t="s">
         <v>231</v>
       </c>
       <c r="G122" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H122" s="40"/>
       <c r="I122" s="70" t="s">
@@ -7753,7 +8519,7 @@
         <v>9</v>
       </c>
       <c r="M122" s="71">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N122" s="40"/>
       <c r="O122" s="40"/>
@@ -7763,13 +8529,21 @@
       <c r="Q122" s="71">
         <v>17</v>
       </c>
-      <c r="R122" s="40"/>
+      <c r="R122" s="40">
+        <v>76.5</v>
+      </c>
       <c r="S122" s="40"/>
-      <c r="T122" s="40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="40"/>
+      <c r="W122" s="40"/>
+      <c r="X122" s="40"/>
+      <c r="Y122" s="40"/>
+      <c r="Z122" s="40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
         <v>83</v>
       </c>
@@ -7779,13 +8553,13 @@
         <v>43573</v>
       </c>
       <c r="E123" s="70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F123" s="40" t="s">
         <v>231</v>
       </c>
       <c r="G123" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H123" s="40"/>
       <c r="I123" s="70" t="s">
@@ -7801,7 +8575,7 @@
         <v>9</v>
       </c>
       <c r="M123" s="71">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N123" s="40"/>
       <c r="O123" s="40"/>
@@ -7811,61 +8585,77 @@
       <c r="Q123" s="71">
         <v>17</v>
       </c>
-      <c r="R123" s="40"/>
+      <c r="R123" s="40">
+        <v>76.5</v>
+      </c>
       <c r="S123" s="40"/>
-      <c r="T123" s="40" t="s">
+      <c r="T123" s="40"/>
+      <c r="U123" s="40"/>
+      <c r="V123" s="40"/>
+      <c r="W123" s="40"/>
+      <c r="X123" s="40"/>
+      <c r="Y123" s="40"/>
+      <c r="Z123" s="40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A124" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="41">
+        <v>43573</v>
+      </c>
+      <c r="E124" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F124" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G124" s="71">
+        <v>4</v>
+      </c>
+      <c r="H124" s="40"/>
+      <c r="I124" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J124" s="71">
+        <v>30</v>
+      </c>
+      <c r="K124" s="71">
+        <v>15</v>
+      </c>
+      <c r="L124" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M124" s="71">
+        <v>60</v>
+      </c>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
+      <c r="P124" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q124" s="71">
+        <v>17</v>
+      </c>
+      <c r="R124" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S124" s="40"/>
+      <c r="T124" s="40"/>
+      <c r="U124" s="40"/>
+      <c r="V124" s="40"/>
+      <c r="W124" s="40"/>
+      <c r="X124" s="40"/>
+      <c r="Y124" s="40"/>
+      <c r="Z124" s="40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="48">
-        <v>43580</v>
-      </c>
-      <c r="E124" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="F124" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="G124" s="50">
-        <v>1</v>
-      </c>
-      <c r="H124" s="47"/>
-      <c r="I124" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J124" s="50">
-        <v>5</v>
-      </c>
-      <c r="K124" s="50">
-        <v>15</v>
-      </c>
-      <c r="L124" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="M124" s="50">
-        <v>30</v>
-      </c>
-      <c r="N124" s="47"/>
-      <c r="O124" s="47"/>
-      <c r="P124" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="50">
-        <v>17</v>
-      </c>
-      <c r="R124" s="47"/>
-      <c r="S124" s="47"/>
-      <c r="T124" s="47" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>83</v>
       </c>
@@ -7875,13 +8665,13 @@
         <v>43580</v>
       </c>
       <c r="E125" s="72" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F125" s="47" t="s">
         <v>239</v>
       </c>
       <c r="G125" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" s="47"/>
       <c r="I125" s="72" t="s">
@@ -7902,34 +8692,42 @@
       <c r="N125" s="47"/>
       <c r="O125" s="47"/>
       <c r="P125" s="50">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="50">
         <v>17</v>
       </c>
-      <c r="R125" s="47"/>
+      <c r="R125" s="47">
+        <v>76.5</v>
+      </c>
       <c r="S125" s="47"/>
-      <c r="T125" s="47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T125" s="47"/>
+      <c r="U125" s="47"/>
+      <c r="V125" s="47"/>
+      <c r="W125" s="47"/>
+      <c r="X125" s="47"/>
+      <c r="Y125" s="47"/>
+      <c r="Z125" s="47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
       <c r="D126" s="48">
-        <v>43581</v>
+        <v>43580</v>
       </c>
       <c r="E126" s="72" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F126" s="47" t="s">
         <v>239</v>
       </c>
       <c r="G126" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" s="47"/>
       <c r="I126" s="72" t="s">
@@ -7955,69 +8753,93 @@
       <c r="Q126" s="50">
         <v>17</v>
       </c>
-      <c r="R126" s="47"/>
+      <c r="R126" s="47">
+        <v>76.5</v>
+      </c>
       <c r="S126" s="47"/>
-      <c r="T126" s="47" t="s">
+      <c r="T126" s="47"/>
+      <c r="U126" s="47"/>
+      <c r="V126" s="47"/>
+      <c r="W126" s="47"/>
+      <c r="X126" s="47"/>
+      <c r="Y126" s="47"/>
+      <c r="Z126" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A127" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="48">
+        <v>43581</v>
+      </c>
+      <c r="E127" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="F127" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="50">
+        <v>3</v>
+      </c>
+      <c r="H127" s="47"/>
+      <c r="I127" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J127" s="50">
+        <v>5</v>
+      </c>
+      <c r="K127" s="50">
+        <v>15</v>
+      </c>
+      <c r="L127" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M127" s="50">
+        <v>30</v>
+      </c>
+      <c r="N127" s="47"/>
+      <c r="O127" s="47"/>
+      <c r="P127" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q127" s="50">
+        <v>17</v>
+      </c>
+      <c r="R127" s="47">
+        <v>76.5</v>
+      </c>
+      <c r="S127" s="47"/>
+      <c r="T127" s="47"/>
+      <c r="U127" s="47"/>
+      <c r="V127" s="47"/>
+      <c r="W127" s="47"/>
+      <c r="X127" s="47"/>
+      <c r="Y127" s="47"/>
+      <c r="Z127" s="47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60"/>
-      <c r="D127" s="61">
-        <v>43581</v>
-      </c>
-      <c r="E127" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="F127" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="G127" s="63">
-        <v>1</v>
-      </c>
-      <c r="H127" s="60"/>
-      <c r="I127" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="J127" s="63">
-        <v>30</v>
-      </c>
-      <c r="K127" s="60"/>
-      <c r="L127" s="60"/>
-      <c r="M127" s="60"/>
-      <c r="N127" s="60"/>
-      <c r="O127" s="60"/>
-      <c r="P127" s="60"/>
-      <c r="Q127" s="63">
-        <v>17</v>
-      </c>
-      <c r="R127" s="60"/>
-      <c r="S127" s="60"/>
-      <c r="T127" s="60" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B128" s="60"/>
       <c r="C128" s="60"/>
       <c r="D128" s="61">
-        <v>43608</v>
+        <v>43581</v>
       </c>
       <c r="E128" s="62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F128" s="60" t="s">
         <v>246</v>
       </c>
       <c r="G128" s="63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" s="60"/>
       <c r="I128" s="62" t="s">
@@ -8035,29 +8857,37 @@
       <c r="Q128" s="63">
         <v>17</v>
       </c>
-      <c r="R128" s="60"/>
+      <c r="R128" s="60">
+        <v>76.5</v>
+      </c>
       <c r="S128" s="60"/>
-      <c r="T128" s="60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T128" s="60"/>
+      <c r="U128" s="60"/>
+      <c r="V128" s="60"/>
+      <c r="W128" s="60"/>
+      <c r="X128" s="60"/>
+      <c r="Y128" s="60"/>
+      <c r="Z128" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B129" s="60"/>
       <c r="C129" s="60"/>
       <c r="D129" s="61">
-        <v>43609</v>
+        <v>43608</v>
       </c>
       <c r="E129" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F129" s="60" t="s">
         <v>246</v>
       </c>
       <c r="G129" s="63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H129" s="60"/>
       <c r="I129" s="62" t="s">
@@ -8075,9 +8905,65 @@
       <c r="Q129" s="63">
         <v>17</v>
       </c>
-      <c r="R129" s="60"/>
+      <c r="R129" s="60">
+        <v>76.5</v>
+      </c>
       <c r="S129" s="60"/>
-      <c r="T129" s="60" t="s">
+      <c r="T129" s="60"/>
+      <c r="U129" s="60"/>
+      <c r="V129" s="60"/>
+      <c r="W129" s="60"/>
+      <c r="X129" s="60"/>
+      <c r="Y129" s="60"/>
+      <c r="Z129" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A130" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="61">
+        <v>43609</v>
+      </c>
+      <c r="E130" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="F130" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="G130" s="63">
+        <v>3</v>
+      </c>
+      <c r="H130" s="60"/>
+      <c r="I130" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J130" s="63">
+        <v>30</v>
+      </c>
+      <c r="K130" s="60"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="60"/>
+      <c r="N130" s="60"/>
+      <c r="O130" s="60"/>
+      <c r="P130" s="60"/>
+      <c r="Q130" s="63">
+        <v>17</v>
+      </c>
+      <c r="R130" s="60">
+        <v>76.5</v>
+      </c>
+      <c r="S130" s="60"/>
+      <c r="T130" s="60"/>
+      <c r="U130" s="60"/>
+      <c r="V130" s="60"/>
+      <c r="W130" s="60"/>
+      <c r="X130" s="60"/>
+      <c r="Y130" s="60"/>
+      <c r="Z130" s="60" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8095,7 +8981,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\t\py-ivtools\ivtools\sampledata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\emrl\Pool\Projekte\HGST-CERAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="271">
   <si>
     <t>wafer_number</t>
   </si>
@@ -809,12 +809,36 @@
   </si>
   <si>
     <t>1%O2/99%Ar</t>
+  </si>
+  <si>
+    <t>Hund1</t>
+  </si>
+  <si>
+    <t>NVM303_0262</t>
+  </si>
+  <si>
+    <t>DomeB</t>
+  </si>
+  <si>
+    <t>Hund</t>
+  </si>
+  <si>
+    <t>NVM303_0091</t>
+  </si>
+  <si>
+    <t>Hund2</t>
+  </si>
+  <si>
+    <t>first test of new wafers, 30nm amorphous (VCr15)2O3 nominal on 50nm TaN wafer</t>
+  </si>
+  <si>
+    <t>second test of new wafers, 30nm amorphous (VCr15)2O3 nominal on 25 nm TiN wafer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,7 +981,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1299,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1436,7 +1466,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1518,50 +1548,54 @@
     <xf numFmtId="2" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1844,18 +1878,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z130"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V119" sqref="V119"/>
+      <pane ySplit="9" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z133" sqref="Z133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
@@ -8967,6 +9001,130 @@
         <v>252</v>
       </c>
     </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A131" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="73"/>
+      <c r="D131" s="74">
+        <v>43713</v>
+      </c>
+      <c r="E131" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="F131" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="G131" s="76">
+        <v>1</v>
+      </c>
+      <c r="H131" s="73"/>
+      <c r="I131" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J131" s="76">
+        <v>30</v>
+      </c>
+      <c r="K131" s="73">
+        <v>15</v>
+      </c>
+      <c r="L131" s="73"/>
+      <c r="M131" s="73"/>
+      <c r="N131" s="73"/>
+      <c r="O131" s="73"/>
+      <c r="P131" s="76">
+        <v>298</v>
+      </c>
+      <c r="Q131" s="76"/>
+      <c r="R131" s="73"/>
+      <c r="S131" s="73"/>
+      <c r="T131" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="U131" s="73">
+        <v>98</v>
+      </c>
+      <c r="V131" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="W131" s="73">
+        <v>6</v>
+      </c>
+      <c r="X131" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="Y131" s="73">
+        <v>50</v>
+      </c>
+      <c r="Z131" s="73" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A132" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132" s="73"/>
+      <c r="D132" s="74">
+        <v>43713</v>
+      </c>
+      <c r="E132" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F132" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="G132" s="76">
+        <v>2</v>
+      </c>
+      <c r="H132" s="73"/>
+      <c r="I132" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="J132" s="76">
+        <v>30</v>
+      </c>
+      <c r="K132" s="73">
+        <v>15</v>
+      </c>
+      <c r="L132" s="73"/>
+      <c r="M132" s="73"/>
+      <c r="N132" s="73"/>
+      <c r="O132" s="73"/>
+      <c r="P132" s="76">
+        <v>298</v>
+      </c>
+      <c r="Q132" s="76"/>
+      <c r="R132" s="73"/>
+      <c r="S132" s="73"/>
+      <c r="T132" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="U132" s="73">
+        <v>98</v>
+      </c>
+      <c r="V132" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="W132" s="73">
+        <v>6</v>
+      </c>
+      <c r="X132" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="Y132" s="73">
+        <v>50</v>
+      </c>
+      <c r="Z132" s="73" t="s">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8981,7 +9139,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="280">
   <si>
     <t>wafer_number</t>
   </si>
@@ -833,12 +833,39 @@
   </si>
   <si>
     <t>second test of new wafers, 30nm amorphous (VCr15)2O3 nominal on 25 nm TiN wafer</t>
+  </si>
+  <si>
+    <t>Hund3</t>
+  </si>
+  <si>
+    <t>30nm V2O3 nominal, seems to be VO2; film thickness could be off</t>
+  </si>
+  <si>
+    <t>Esel1</t>
+  </si>
+  <si>
+    <t>Esel</t>
+  </si>
+  <si>
+    <t>Esel5</t>
+  </si>
+  <si>
+    <t>Esel4</t>
+  </si>
+  <si>
+    <t>Esel3</t>
+  </si>
+  <si>
+    <t>Esel2</t>
+  </si>
+  <si>
+    <t>new (VCr15)2O3 thickness series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +1008,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,6 +1332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1466,7 +1499,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1552,50 +1585,54 @@
     <xf numFmtId="14" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1878,14 +1915,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z132"/>
+  <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z133" sqref="Z133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -9045,7 +9082,7 @@
         <v>261</v>
       </c>
       <c r="U131" s="73">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="V131" s="73" t="s">
         <v>262</v>
@@ -9107,7 +9144,7 @@
         <v>261</v>
       </c>
       <c r="U132" s="73">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="V132" s="73" t="s">
         <v>262</v>
@@ -9123,6 +9160,424 @@
       </c>
       <c r="Z132" s="73" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A133" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C133" s="73"/>
+      <c r="D133" s="74">
+        <v>43726</v>
+      </c>
+      <c r="E133" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="F133" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="G133" s="76">
+        <v>3</v>
+      </c>
+      <c r="H133" s="73"/>
+      <c r="I133" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="J133" s="76">
+        <v>30</v>
+      </c>
+      <c r="K133" s="73"/>
+      <c r="L133" s="73"/>
+      <c r="M133" s="73"/>
+      <c r="N133" s="73"/>
+      <c r="O133" s="73"/>
+      <c r="P133" s="76">
+        <v>298</v>
+      </c>
+      <c r="Q133" s="76"/>
+      <c r="R133" s="73"/>
+      <c r="S133" s="73">
+        <v>1073</v>
+      </c>
+      <c r="T133" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="U133" s="73">
+        <v>94</v>
+      </c>
+      <c r="V133" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="W133" s="73">
+        <v>6</v>
+      </c>
+      <c r="X133" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="Y133" s="73">
+        <v>50</v>
+      </c>
+      <c r="Z133" s="73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A134" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C134" s="77">
+        <v>2</v>
+      </c>
+      <c r="D134" s="78">
+        <v>43739</v>
+      </c>
+      <c r="E134" s="79" t="s">
+        <v>273</v>
+      </c>
+      <c r="F134" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G134" s="80">
+        <v>1</v>
+      </c>
+      <c r="H134" s="77"/>
+      <c r="I134" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J134" s="80">
+        <v>10</v>
+      </c>
+      <c r="K134" s="77">
+        <v>15</v>
+      </c>
+      <c r="L134" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M134" s="77">
+        <v>30</v>
+      </c>
+      <c r="N134" s="77"/>
+      <c r="O134" s="77"/>
+      <c r="P134" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q134" s="80">
+        <v>17</v>
+      </c>
+      <c r="R134" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S134" s="77"/>
+      <c r="T134" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U134" s="77">
+        <v>94</v>
+      </c>
+      <c r="V134" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W134" s="77">
+        <v>6</v>
+      </c>
+      <c r="X134" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y134" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z134" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A135" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C135" s="77">
+        <v>4</v>
+      </c>
+      <c r="D135" s="78">
+        <v>43739</v>
+      </c>
+      <c r="E135" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F135" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135" s="80">
+        <v>2</v>
+      </c>
+      <c r="H135" s="77"/>
+      <c r="I135" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J135" s="80">
+        <v>5</v>
+      </c>
+      <c r="K135" s="77">
+        <v>15</v>
+      </c>
+      <c r="L135" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M135" s="77">
+        <v>30</v>
+      </c>
+      <c r="N135" s="77"/>
+      <c r="O135" s="77"/>
+      <c r="P135" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q135" s="80">
+        <v>17</v>
+      </c>
+      <c r="R135" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S135" s="77"/>
+      <c r="T135" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U135" s="77">
+        <v>94</v>
+      </c>
+      <c r="V135" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W135" s="77">
+        <v>6</v>
+      </c>
+      <c r="X135" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y135" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z135" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A136" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C136" s="77">
+        <v>3</v>
+      </c>
+      <c r="D136" s="78">
+        <v>43739</v>
+      </c>
+      <c r="E136" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="F136" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G136" s="80">
+        <v>3</v>
+      </c>
+      <c r="H136" s="77"/>
+      <c r="I136" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J136" s="80">
+        <v>30</v>
+      </c>
+      <c r="K136" s="77">
+        <v>15</v>
+      </c>
+      <c r="L136" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M136" s="77">
+        <v>30</v>
+      </c>
+      <c r="N136" s="77"/>
+      <c r="O136" s="77"/>
+      <c r="P136" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q136" s="80">
+        <v>17</v>
+      </c>
+      <c r="R136" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S136" s="77"/>
+      <c r="T136" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U136" s="77">
+        <v>94</v>
+      </c>
+      <c r="V136" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W136" s="77">
+        <v>6</v>
+      </c>
+      <c r="X136" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y136" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z136" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A137" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C137" s="77">
+        <v>5</v>
+      </c>
+      <c r="D137" s="78">
+        <v>43739</v>
+      </c>
+      <c r="E137" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="F137" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" s="80">
+        <v>4</v>
+      </c>
+      <c r="H137" s="77"/>
+      <c r="I137" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J137" s="80">
+        <v>20</v>
+      </c>
+      <c r="K137" s="77">
+        <v>15</v>
+      </c>
+      <c r="L137" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M137" s="77">
+        <v>30</v>
+      </c>
+      <c r="N137" s="77"/>
+      <c r="O137" s="77"/>
+      <c r="P137" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q137" s="80">
+        <v>17</v>
+      </c>
+      <c r="R137" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S137" s="77"/>
+      <c r="T137" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U137" s="77">
+        <v>94</v>
+      </c>
+      <c r="V137" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W137" s="77">
+        <v>6</v>
+      </c>
+      <c r="X137" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y137" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z137" s="77" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A138" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C138" s="77">
+        <v>1</v>
+      </c>
+      <c r="D138" s="78">
+        <v>43739</v>
+      </c>
+      <c r="E138" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="F138" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" s="80">
+        <v>5</v>
+      </c>
+      <c r="H138" s="77"/>
+      <c r="I138" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J138" s="80">
+        <v>30</v>
+      </c>
+      <c r="K138" s="77">
+        <v>15</v>
+      </c>
+      <c r="L138" s="77"/>
+      <c r="M138" s="77"/>
+      <c r="N138" s="77"/>
+      <c r="O138" s="77"/>
+      <c r="P138" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q138" s="80">
+        <v>17</v>
+      </c>
+      <c r="R138" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S138" s="77"/>
+      <c r="T138" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U138" s="77">
+        <v>94</v>
+      </c>
+      <c r="V138" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W138" s="77">
+        <v>6</v>
+      </c>
+      <c r="X138" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y138" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z138" s="77" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9139,7 +9594,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="291">
   <si>
     <t>wafer_number</t>
   </si>
@@ -860,12 +860,45 @@
   </si>
   <si>
     <t>new (VCr15)2O3 thickness series</t>
+  </si>
+  <si>
+    <t>Esel8</t>
+  </si>
+  <si>
+    <t>Esel7</t>
+  </si>
+  <si>
+    <t>Esel6</t>
+  </si>
+  <si>
+    <t>old wafer</t>
+  </si>
+  <si>
+    <t>new wafer</t>
+  </si>
+  <si>
+    <t>new wafer, pt only, center piece</t>
+  </si>
+  <si>
+    <t>Maultier1</t>
+  </si>
+  <si>
+    <t>Maultier2</t>
+  </si>
+  <si>
+    <t>Maultier</t>
+  </si>
+  <si>
+    <t>used lower ignition power (30W), was etched</t>
+  </si>
+  <si>
+    <t>used lower ignition power (30W), was not etched</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,7 +1041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,6 +1371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1499,7 +1538,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1589,50 +1628,54 @@
     <xf numFmtId="14" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1915,14 +1958,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z138"/>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -9541,43 +9584,309 @@
       <c r="J138" s="80">
         <v>30</v>
       </c>
-      <c r="K138" s="77">
-        <v>15</v>
-      </c>
+      <c r="K138" s="77"/>
       <c r="L138" s="77"/>
       <c r="M138" s="77"/>
       <c r="N138" s="77"/>
       <c r="O138" s="77"/>
-      <c r="P138" s="80">
-        <v>873</v>
-      </c>
-      <c r="Q138" s="80">
-        <v>17</v>
-      </c>
-      <c r="R138" s="77">
-        <v>76.5</v>
-      </c>
+      <c r="P138" s="80"/>
+      <c r="Q138" s="80"/>
+      <c r="R138" s="77"/>
       <c r="S138" s="77"/>
-      <c r="T138" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="U138" s="77">
-        <v>94</v>
-      </c>
-      <c r="V138" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="W138" s="77">
-        <v>6</v>
-      </c>
-      <c r="X138" s="77">
-        <v>0.01</v>
-      </c>
-      <c r="Y138" s="77">
-        <v>50</v>
-      </c>
+      <c r="T138" s="77"/>
+      <c r="U138" s="77"/>
+      <c r="V138" s="77"/>
+      <c r="W138" s="77"/>
+      <c r="X138" s="77"/>
+      <c r="Y138" s="77"/>
       <c r="Z138" s="77" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A139" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" s="77">
+        <v>5</v>
+      </c>
+      <c r="C139" s="77"/>
+      <c r="D139" s="78">
+        <v>43747</v>
+      </c>
+      <c r="E139" s="79" t="s">
+        <v>282</v>
+      </c>
+      <c r="F139" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G139" s="80">
+        <v>6</v>
+      </c>
+      <c r="H139" s="77"/>
+      <c r="I139" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J139" s="80">
+        <v>30</v>
+      </c>
+      <c r="K139" s="77">
+        <v>15</v>
+      </c>
+      <c r="L139" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M139" s="77">
+        <v>30</v>
+      </c>
+      <c r="N139" s="77"/>
+      <c r="O139" s="77"/>
+      <c r="P139" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q139" s="80">
+        <v>17</v>
+      </c>
+      <c r="R139" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S139" s="77"/>
+      <c r="T139" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U139" s="77">
+        <v>94</v>
+      </c>
+      <c r="V139" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W139" s="77">
+        <v>6</v>
+      </c>
+      <c r="X139" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y139" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z139" s="77" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A140" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C140" s="77">
+        <v>6</v>
+      </c>
+      <c r="D140" s="78">
+        <v>43747</v>
+      </c>
+      <c r="E140" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="F140" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G140" s="80">
+        <v>7</v>
+      </c>
+      <c r="H140" s="77"/>
+      <c r="I140" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J140" s="80">
+        <v>30</v>
+      </c>
+      <c r="K140" s="77">
+        <v>15</v>
+      </c>
+      <c r="L140" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M140" s="77">
+        <v>30</v>
+      </c>
+      <c r="N140" s="77"/>
+      <c r="O140" s="77"/>
+      <c r="P140" s="80">
+        <v>873</v>
+      </c>
+      <c r="Q140" s="80">
+        <v>17</v>
+      </c>
+      <c r="R140" s="77">
+        <v>76.5</v>
+      </c>
+      <c r="S140" s="77"/>
+      <c r="T140" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="U140" s="77">
+        <v>94</v>
+      </c>
+      <c r="V140" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="W140" s="77">
+        <v>6</v>
+      </c>
+      <c r="X140" s="77">
+        <v>0.01</v>
+      </c>
+      <c r="Y140" s="77">
+        <v>50</v>
+      </c>
+      <c r="Z140" s="77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A141" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" s="77">
+        <v>21519</v>
+      </c>
+      <c r="C141" s="77">
+        <v>12</v>
+      </c>
+      <c r="D141" s="78">
+        <v>43747</v>
+      </c>
+      <c r="E141" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="G141" s="80">
+        <v>8</v>
+      </c>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="J141" s="80">
+        <v>30</v>
+      </c>
+      <c r="K141" s="77"/>
+      <c r="L141" s="77"/>
+      <c r="M141" s="77"/>
+      <c r="N141" s="77"/>
+      <c r="O141" s="77"/>
+      <c r="P141" s="77"/>
+      <c r="Q141" s="77"/>
+      <c r="R141" s="77"/>
+      <c r="S141" s="77"/>
+      <c r="T141" s="77"/>
+      <c r="U141" s="77"/>
+      <c r="V141" s="77"/>
+      <c r="W141" s="77"/>
+      <c r="X141" s="77"/>
+      <c r="Y141" s="77"/>
+      <c r="Z141" s="77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A142" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B142" s="81">
+        <v>21519</v>
+      </c>
+      <c r="C142" s="81">
+        <v>11</v>
+      </c>
+      <c r="D142" s="82">
+        <v>43748</v>
+      </c>
+      <c r="E142" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="F142" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="G142" s="84">
+        <v>1</v>
+      </c>
+      <c r="H142" s="81"/>
+      <c r="I142" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J142" s="84">
+        <v>30</v>
+      </c>
+      <c r="K142" s="81"/>
+      <c r="L142" s="81"/>
+      <c r="M142" s="81"/>
+      <c r="N142" s="81"/>
+      <c r="O142" s="81"/>
+      <c r="P142" s="81"/>
+      <c r="Q142" s="81"/>
+      <c r="R142" s="81"/>
+      <c r="S142" s="81"/>
+      <c r="T142" s="81"/>
+      <c r="U142" s="81"/>
+      <c r="V142" s="81"/>
+      <c r="W142" s="81"/>
+      <c r="X142" s="81"/>
+      <c r="Y142" s="81"/>
+      <c r="Z142" s="81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A143" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B143" s="81">
+        <v>21519</v>
+      </c>
+      <c r="C143" s="81">
+        <v>13</v>
+      </c>
+      <c r="D143" s="82">
+        <v>43748</v>
+      </c>
+      <c r="E143" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F143" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143" s="84">
+        <v>2</v>
+      </c>
+      <c r="H143" s="81"/>
+      <c r="I143" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="J143" s="84">
+        <v>30</v>
+      </c>
+      <c r="K143" s="81"/>
+      <c r="L143" s="81"/>
+      <c r="M143" s="81"/>
+      <c r="N143" s="81"/>
+      <c r="O143" s="81"/>
+      <c r="P143" s="81"/>
+      <c r="Q143" s="81"/>
+      <c r="R143" s="81"/>
+      <c r="S143" s="81"/>
+      <c r="T143" s="81"/>
+      <c r="U143" s="81"/>
+      <c r="V143" s="81"/>
+      <c r="W143" s="81"/>
+      <c r="X143" s="81"/>
+      <c r="Y143" s="81"/>
+      <c r="Z143" s="81" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -9594,7 +9903,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="294">
   <si>
     <t>wafer_number</t>
   </si>
@@ -893,6 +893,15 @@
   </si>
   <si>
     <t>used lower ignition power (30W), was not etched</t>
+  </si>
+  <si>
+    <t>Maulesel1</t>
+  </si>
+  <si>
+    <t>Maulesel</t>
+  </si>
+  <si>
+    <t>was etched</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1547,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1632,6 +1641,8 @@
     <xf numFmtId="14" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1958,11 +1969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z143"/>
+  <dimension ref="A1:Z144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
+      <selection pane="bottomLeft" activeCell="Z134" sqref="Z134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9889,6 +9900,54 @@
         <v>290</v>
       </c>
     </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B144" s="22">
+        <v>21519</v>
+      </c>
+      <c r="C144" s="22">
+        <v>14</v>
+      </c>
+      <c r="D144" s="23">
+        <v>43748</v>
+      </c>
+      <c r="E144" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="F144" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G144" s="86">
+        <v>1</v>
+      </c>
+      <c r="H144" s="22"/>
+      <c r="I144" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J144" s="86">
+        <v>30</v>
+      </c>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="22"/>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="22"/>
+      <c r="S144" s="22"/>
+      <c r="T144" s="22"/>
+      <c r="U144" s="22"/>
+      <c r="V144" s="22"/>
+      <c r="W144" s="22"/>
+      <c r="X144" s="22"/>
+      <c r="Y144" s="22"/>
+      <c r="Z144" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="295">
   <si>
     <t>wafer_number</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>was etched</t>
+  </si>
+  <si>
+    <t>Maulesel2</t>
   </si>
 </sst>
 </file>
@@ -1969,11 +1972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z144"/>
+  <dimension ref="A1:Z145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z134" sqref="Z134"/>
+      <selection pane="bottomLeft" activeCell="AA145" sqref="AA145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9948,6 +9951,54 @@
         <v>293</v>
       </c>
     </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A145" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B145" s="22">
+        <v>21519</v>
+      </c>
+      <c r="C145" s="22">
+        <v>15</v>
+      </c>
+      <c r="D145" s="23">
+        <v>43748</v>
+      </c>
+      <c r="E145" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="F145" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G145" s="86">
+        <v>2</v>
+      </c>
+      <c r="H145" s="22"/>
+      <c r="I145" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J145" s="86">
+        <v>30</v>
+      </c>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="22"/>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="22"/>
+      <c r="S145" s="22"/>
+      <c r="T145" s="22"/>
+      <c r="U145" s="22"/>
+      <c r="V145" s="22"/>
+      <c r="W145" s="22"/>
+      <c r="X145" s="22"/>
+      <c r="Y145" s="22"/>
+      <c r="Z145" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="298">
   <si>
     <t>wafer_number</t>
   </si>
@@ -901,10 +901,19 @@
     <t>Maulesel</t>
   </si>
   <si>
-    <t>was etched</t>
-  </si>
-  <si>
     <t>Maulesel2</t>
+  </si>
+  <si>
+    <t>Troubleshooting O2 contamination.  Flushed the CT1000</t>
+  </si>
+  <si>
+    <t>Troubleshooting O2 contamination.  Flushed the etch tool.</t>
+  </si>
+  <si>
+    <t>Maulesel3</t>
+  </si>
+  <si>
+    <t>Troubleshooting O2 contamination.  Flushed everything some more.</t>
   </si>
 </sst>
 </file>
@@ -1972,11 +1981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z145"/>
+  <dimension ref="A1:Z146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA145" sqref="AA145"/>
+      <selection pane="bottomLeft" activeCell="Z147" sqref="Z147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9842,7 +9851,9 @@
       <c r="N142" s="81"/>
       <c r="O142" s="81"/>
       <c r="P142" s="81"/>
-      <c r="Q142" s="81"/>
+      <c r="Q142" s="81">
+        <v>17</v>
+      </c>
       <c r="R142" s="81"/>
       <c r="S142" s="81"/>
       <c r="T142" s="81"/>
@@ -9890,7 +9901,9 @@
       <c r="N143" s="81"/>
       <c r="O143" s="81"/>
       <c r="P143" s="81"/>
-      <c r="Q143" s="81"/>
+      <c r="Q143" s="81">
+        <v>0</v>
+      </c>
       <c r="R143" s="81"/>
       <c r="S143" s="81"/>
       <c r="T143" s="81"/>
@@ -9938,7 +9951,9 @@
       <c r="N144" s="22"/>
       <c r="O144" s="22"/>
       <c r="P144" s="22"/>
-      <c r="Q144" s="22"/>
+      <c r="Q144" s="22">
+        <v>17</v>
+      </c>
       <c r="R144" s="22"/>
       <c r="S144" s="22"/>
       <c r="T144" s="22"/>
@@ -9948,7 +9963,7 @@
       <c r="X144" s="22"/>
       <c r="Y144" s="22"/>
       <c r="Z144" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
@@ -9965,7 +9980,7 @@
         <v>43748</v>
       </c>
       <c r="E145" s="85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F145" s="85" t="s">
         <v>292</v>
@@ -9986,7 +10001,9 @@
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
-      <c r="Q145" s="22"/>
+      <c r="Q145" s="22">
+        <v>17</v>
+      </c>
       <c r="R145" s="22"/>
       <c r="S145" s="22"/>
       <c r="T145" s="22"/>
@@ -9996,7 +10013,57 @@
       <c r="X145" s="22"/>
       <c r="Y145" s="22"/>
       <c r="Z145" s="22" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B146" s="22">
+        <v>21519</v>
+      </c>
+      <c r="C146" s="22">
+        <v>10</v>
+      </c>
+      <c r="D146" s="23">
+        <v>43748</v>
+      </c>
+      <c r="E146" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="F146" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G146" s="86">
+        <v>3</v>
+      </c>
+      <c r="H146" s="22"/>
+      <c r="I146" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J146" s="86">
+        <v>30</v>
+      </c>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
+      <c r="Q146" s="22">
+        <v>17</v>
+      </c>
+      <c r="R146" s="22"/>
+      <c r="S146" s="22"/>
+      <c r="T146" s="22"/>
+      <c r="U146" s="22"/>
+      <c r="V146" s="22"/>
+      <c r="W146" s="22"/>
+      <c r="X146" s="22"/>
+      <c r="Y146" s="22"/>
+      <c r="Z146" s="22" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="300">
   <si>
     <t>wafer_number</t>
   </si>
@@ -914,6 +914,12 @@
   </si>
   <si>
     <t>Troubleshooting O2 contamination.  Flushed everything some more.</t>
+  </si>
+  <si>
+    <t>Maulesel4</t>
+  </si>
+  <si>
+    <t>Troubleshooting O2 contamination.  Did Ar flush before Pt deposition.</t>
   </si>
 </sst>
 </file>
@@ -1981,11 +1987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z146"/>
+  <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z147" sqref="Z147"/>
+      <selection pane="bottomLeft" activeCell="Z148" sqref="Z148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10066,6 +10072,56 @@
         <v>297</v>
       </c>
     </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B147" s="22">
+        <v>21519</v>
+      </c>
+      <c r="C147" s="22">
+        <v>7</v>
+      </c>
+      <c r="D147" s="23">
+        <v>43748</v>
+      </c>
+      <c r="E147" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="F147" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G147" s="86">
+        <v>4</v>
+      </c>
+      <c r="H147" s="22"/>
+      <c r="I147" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" s="86">
+        <v>30</v>
+      </c>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="22"/>
+      <c r="Q147" s="22">
+        <v>17</v>
+      </c>
+      <c r="R147" s="22"/>
+      <c r="S147" s="22"/>
+      <c r="T147" s="22"/>
+      <c r="U147" s="22"/>
+      <c r="V147" s="22"/>
+      <c r="W147" s="22"/>
+      <c r="X147" s="22"/>
+      <c r="Y147" s="22"/>
+      <c r="Z147" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="304">
   <si>
     <t>wafer_number</t>
   </si>
@@ -920,6 +920,18 @@
   </si>
   <si>
     <t>Troubleshooting O2 contamination.  Did Ar flush before Pt deposition.</t>
+  </si>
+  <si>
+    <t>19-11-15</t>
+  </si>
+  <si>
+    <t>contact test on new wafer</t>
+  </si>
+  <si>
+    <t>Murmeltier</t>
+  </si>
+  <si>
+    <t>Murmeltier1</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1577,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1661,6 +1673,8 @@
     <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1987,11 +2001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z148" sqref="Z148"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10122,6 +10136,52 @@
         <v>299</v>
       </c>
     </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A148" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="45"/>
+      <c r="D148" s="46">
+        <v>43784</v>
+      </c>
+      <c r="E148" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="F148" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G148" s="49">
+        <v>1</v>
+      </c>
+      <c r="H148" s="45"/>
+      <c r="I148" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J148" s="49">
+        <v>30</v>
+      </c>
+      <c r="K148" s="45"/>
+      <c r="L148" s="45"/>
+      <c r="M148" s="45"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="45"/>
+      <c r="P148" s="45"/>
+      <c r="Q148" s="45"/>
+      <c r="R148" s="45"/>
+      <c r="S148" s="45"/>
+      <c r="T148" s="45"/>
+      <c r="U148" s="45"/>
+      <c r="V148" s="45"/>
+      <c r="W148" s="45"/>
+      <c r="X148" s="45"/>
+      <c r="Y148" s="45"/>
+      <c r="Z148" s="45" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="306">
   <si>
     <t>wafer_number</t>
   </si>
@@ -932,12 +932,18 @@
   </si>
   <si>
     <t>Murmeltier1</t>
+  </si>
+  <si>
+    <t>Murmeltier2</t>
+  </si>
+  <si>
+    <t>contact test on new wafer with Pt from CS500 deposition tool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1677,48 +1683,48 @@
     <xf numFmtId="2" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2001,14 +2007,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z148"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -10182,6 +10188,52 @@
         <v>301</v>
       </c>
     </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A149" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="45"/>
+      <c r="D149" s="46">
+        <v>43784</v>
+      </c>
+      <c r="E149" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="F149" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G149" s="49">
+        <v>2</v>
+      </c>
+      <c r="H149" s="45"/>
+      <c r="I149" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J149" s="49">
+        <v>30</v>
+      </c>
+      <c r="K149" s="45"/>
+      <c r="L149" s="45"/>
+      <c r="M149" s="45"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="45"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="45"/>
+      <c r="S149" s="45"/>
+      <c r="T149" s="45"/>
+      <c r="U149" s="45"/>
+      <c r="V149" s="45"/>
+      <c r="W149" s="45"/>
+      <c r="X149" s="45"/>
+      <c r="Y149" s="45"/>
+      <c r="Z149" s="45" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10196,7 +10248,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="314">
   <si>
     <t>wafer_number</t>
   </si>
@@ -938,6 +938,30 @@
   </si>
   <si>
     <t>contact test on new wafer with Pt from CS500 deposition tool</t>
+  </si>
+  <si>
+    <t>Murmeltier3</t>
+  </si>
+  <si>
+    <t>contact test on new wafer with Pt from CS500 deposition tool, sample taken out of vacuum for ~10 minutes</t>
+  </si>
+  <si>
+    <t>Zebra1</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>first deposition on Au domeB; lift-of bad</t>
+  </si>
+  <si>
+    <t>Zebra2</t>
+  </si>
+  <si>
+    <t>first deposition on Au domeB; lift-of OK</t>
+  </si>
+  <si>
+    <t>W0044</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1607,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1681,6 +1705,9 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2007,11 +2034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F149" sqref="F149"/>
+      <pane ySplit="9" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10234,6 +10261,148 @@
         <v>305</v>
       </c>
     </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A150" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="45"/>
+      <c r="D150" s="46">
+        <v>43794</v>
+      </c>
+      <c r="E150" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F150" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G150" s="49">
+        <v>3</v>
+      </c>
+      <c r="H150" s="45"/>
+      <c r="I150" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="J150" s="49">
+        <v>30</v>
+      </c>
+      <c r="K150" s="45"/>
+      <c r="L150" s="45"/>
+      <c r="M150" s="45"/>
+      <c r="N150" s="45"/>
+      <c r="O150" s="45"/>
+      <c r="P150" s="45"/>
+      <c r="Q150" s="45"/>
+      <c r="R150" s="45"/>
+      <c r="S150" s="45"/>
+      <c r="T150" s="45"/>
+      <c r="U150" s="45"/>
+      <c r="V150" s="45"/>
+      <c r="W150" s="45"/>
+      <c r="X150" s="45"/>
+      <c r="Y150" s="45"/>
+      <c r="Z150" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="17">
+        <v>43795</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G151" s="90">
+        <v>1</v>
+      </c>
+      <c r="H151" s="16"/>
+      <c r="I151" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" s="90">
+        <v>30</v>
+      </c>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="16"/>
+      <c r="P151" s="16">
+        <v>298</v>
+      </c>
+      <c r="Q151" s="16"/>
+      <c r="R151" s="16"/>
+      <c r="S151" s="16"/>
+      <c r="T151" s="16"/>
+      <c r="U151" s="16"/>
+      <c r="V151" s="16"/>
+      <c r="W151" s="16"/>
+      <c r="X151" s="16"/>
+      <c r="Y151" s="16"/>
+      <c r="Z151" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A152" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B152" s="89" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="17">
+        <v>43796</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="G152" s="90">
+        <v>2</v>
+      </c>
+      <c r="H152" s="16"/>
+      <c r="I152" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" s="90">
+        <v>30</v>
+      </c>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="16"/>
+      <c r="P152" s="16">
+        <v>298</v>
+      </c>
+      <c r="Q152" s="16"/>
+      <c r="R152" s="16"/>
+      <c r="S152" s="16"/>
+      <c r="T152" s="16"/>
+      <c r="U152" s="16"/>
+      <c r="V152" s="16"/>
+      <c r="W152" s="16"/>
+      <c r="X152" s="16"/>
+      <c r="Y152" s="16"/>
+      <c r="Z152" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="317">
   <si>
     <t>wafer_number</t>
   </si>
@@ -962,12 +962,21 @@
   </si>
   <si>
     <t>W0044</t>
+  </si>
+  <si>
+    <t>Lachs1</t>
+  </si>
+  <si>
+    <t>Lachs</t>
+  </si>
+  <si>
+    <t>contact test, etched with option "reduce pump speed = yes", exposed to air for ~10 min, then deposited Pt in CS500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1607,7 +1616,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1708,50 +1717,52 @@
     <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2034,14 +2045,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z152"/>
+  <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z146" sqref="Z146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -10403,6 +10414,56 @@
         <v>312</v>
       </c>
     </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A153" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" s="43">
+        <v>41</v>
+      </c>
+      <c r="D153" s="44">
+        <v>43860</v>
+      </c>
+      <c r="E153" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G153" s="51">
+        <v>1</v>
+      </c>
+      <c r="H153" s="43"/>
+      <c r="I153" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J153" s="51">
+        <v>30</v>
+      </c>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43">
+        <v>17</v>
+      </c>
+      <c r="R153" s="43"/>
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="43"/>
+      <c r="V153" s="43"/>
+      <c r="W153" s="43"/>
+      <c r="X153" s="43"/>
+      <c r="Y153" s="43"/>
+      <c r="Z153" s="43" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10417,7 +10478,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="319">
   <si>
     <t>wafer_number</t>
   </si>
@@ -971,6 +971,12 @@
   </si>
   <si>
     <t>contact test, etched with option "reduce pump speed = yes", exposed to air for ~10 min, then deposited Pt in CS500</t>
+  </si>
+  <si>
+    <t>Lachs2</t>
+  </si>
+  <si>
+    <t>contact test, etched with option "reduce pump speed = yes", transferred to CT1k in ca. 7min, deposited Pt</t>
   </si>
 </sst>
 </file>
@@ -2045,11 +2051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z153"/>
+  <dimension ref="A1:Z154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z146" sqref="Z146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z155" sqref="Z155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10464,6 +10470,56 @@
         <v>316</v>
       </c>
     </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A154" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="43">
+        <v>9</v>
+      </c>
+      <c r="D154" s="44">
+        <v>43860</v>
+      </c>
+      <c r="E154" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F154" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G154" s="51">
+        <v>2</v>
+      </c>
+      <c r="H154" s="43"/>
+      <c r="I154" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J154" s="51">
+        <v>30</v>
+      </c>
+      <c r="K154" s="43"/>
+      <c r="L154" s="43"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="43"/>
+      <c r="O154" s="43"/>
+      <c r="P154" s="43"/>
+      <c r="Q154" s="43">
+        <v>17</v>
+      </c>
+      <c r="R154" s="43"/>
+      <c r="S154" s="43"/>
+      <c r="T154" s="43"/>
+      <c r="U154" s="43"/>
+      <c r="V154" s="43"/>
+      <c r="W154" s="43"/>
+      <c r="X154" s="43"/>
+      <c r="Y154" s="43"/>
+      <c r="Z154" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="325">
   <si>
     <t>wafer_number</t>
   </si>
@@ -977,6 +977,24 @@
   </si>
   <si>
     <t>contact test, etched with option "reduce pump speed = yes", transferred to CT1k in ca. 7min, deposited Pt</t>
+  </si>
+  <si>
+    <t>Dorsch1</t>
+  </si>
+  <si>
+    <t>Dorsch</t>
+  </si>
+  <si>
+    <t>Dorsch4</t>
+  </si>
+  <si>
+    <t>Dorsch3</t>
+  </si>
+  <si>
+    <t>Dorsch2</t>
+  </si>
+  <si>
+    <t>new attempt at the thickness series (Esel), etched with option "reduce pump speed = yes"</t>
   </si>
 </sst>
 </file>
@@ -2051,11 +2069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z154"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z155" sqref="Z155"/>
+      <pane ySplit="9" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10520,6 +10538,294 @@
         <v>318</v>
       </c>
     </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A155" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" s="47">
+        <v>21519</v>
+      </c>
+      <c r="C155" s="47">
+        <v>43</v>
+      </c>
+      <c r="D155" s="48">
+        <v>43500</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F155" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G155" s="47">
+        <v>1</v>
+      </c>
+      <c r="H155" s="47"/>
+      <c r="I155" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J155" s="47">
+        <v>10</v>
+      </c>
+      <c r="K155" s="47">
+        <v>15</v>
+      </c>
+      <c r="L155" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M155" s="47">
+        <v>30</v>
+      </c>
+      <c r="N155" s="47"/>
+      <c r="O155" s="47"/>
+      <c r="P155" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q155" s="50">
+        <v>17</v>
+      </c>
+      <c r="R155" s="47">
+        <v>76.5</v>
+      </c>
+      <c r="S155" s="47"/>
+      <c r="T155" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="U155" s="47">
+        <v>94</v>
+      </c>
+      <c r="V155" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="W155" s="47">
+        <v>6</v>
+      </c>
+      <c r="X155" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="Y155" s="47">
+        <v>50</v>
+      </c>
+      <c r="Z155" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A156" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B156" s="47">
+        <v>21519</v>
+      </c>
+      <c r="C156" s="47">
+        <v>44</v>
+      </c>
+      <c r="D156" s="48">
+        <v>43500</v>
+      </c>
+      <c r="E156" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="F156" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G156" s="47">
+        <v>2</v>
+      </c>
+      <c r="H156" s="47"/>
+      <c r="I156" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J156" s="47">
+        <v>5</v>
+      </c>
+      <c r="K156" s="47">
+        <v>15</v>
+      </c>
+      <c r="L156" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M156" s="47">
+        <v>30</v>
+      </c>
+      <c r="N156" s="47"/>
+      <c r="O156" s="47"/>
+      <c r="P156" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q156" s="50">
+        <v>17</v>
+      </c>
+      <c r="R156" s="47">
+        <v>76.5</v>
+      </c>
+      <c r="S156" s="47"/>
+      <c r="T156" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="U156" s="47">
+        <v>94</v>
+      </c>
+      <c r="V156" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="W156" s="47">
+        <v>6</v>
+      </c>
+      <c r="X156" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="Y156" s="47">
+        <v>50</v>
+      </c>
+      <c r="Z156" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A157" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" s="47">
+        <v>21519</v>
+      </c>
+      <c r="C157" s="47">
+        <v>45</v>
+      </c>
+      <c r="D157" s="48">
+        <v>43500</v>
+      </c>
+      <c r="E157" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="F157" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G157" s="47">
+        <v>3</v>
+      </c>
+      <c r="H157" s="47"/>
+      <c r="I157" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J157" s="47">
+        <v>30</v>
+      </c>
+      <c r="K157" s="47">
+        <v>15</v>
+      </c>
+      <c r="L157" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M157" s="47">
+        <v>30</v>
+      </c>
+      <c r="N157" s="47"/>
+      <c r="O157" s="47"/>
+      <c r="P157" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q157" s="50">
+        <v>17</v>
+      </c>
+      <c r="R157" s="47">
+        <v>76.5</v>
+      </c>
+      <c r="S157" s="47"/>
+      <c r="T157" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="U157" s="47">
+        <v>94</v>
+      </c>
+      <c r="V157" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="W157" s="47">
+        <v>6</v>
+      </c>
+      <c r="X157" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="Y157" s="47">
+        <v>50</v>
+      </c>
+      <c r="Z157" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A158" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B158" s="47">
+        <v>21519</v>
+      </c>
+      <c r="C158" s="47">
+        <v>46</v>
+      </c>
+      <c r="D158" s="48">
+        <v>43500</v>
+      </c>
+      <c r="E158" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="F158" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G158" s="47">
+        <v>4</v>
+      </c>
+      <c r="H158" s="47"/>
+      <c r="I158" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="J158" s="47">
+        <v>20</v>
+      </c>
+      <c r="K158" s="47">
+        <v>15</v>
+      </c>
+      <c r="L158" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="M158" s="47">
+        <v>30</v>
+      </c>
+      <c r="N158" s="47"/>
+      <c r="O158" s="47"/>
+      <c r="P158" s="50">
+        <v>873</v>
+      </c>
+      <c r="Q158" s="50">
+        <v>17</v>
+      </c>
+      <c r="R158" s="47">
+        <v>76.5</v>
+      </c>
+      <c r="S158" s="47"/>
+      <c r="T158" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="U158" s="47">
+        <v>94</v>
+      </c>
+      <c r="V158" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="W158" s="47">
+        <v>6</v>
+      </c>
+      <c r="X158" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="Y158" s="47">
+        <v>50</v>
+      </c>
+      <c r="Z158" s="47" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\emrl\Pool\Projekte\HGST-CERAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="354">
   <si>
     <t>wafer_number</t>
   </si>
@@ -995,6 +995,93 @@
   </si>
   <si>
     <t>new attempt at the thickness series (Esel), etched with option "reduce pump speed = yes"</t>
+  </si>
+  <si>
+    <t>(VCr2)2O3</t>
+  </si>
+  <si>
+    <t>(VCr4)2O3</t>
+  </si>
+  <si>
+    <t>(VCr8)2O3</t>
+  </si>
+  <si>
+    <t>(VCr10)2O3</t>
+  </si>
+  <si>
+    <t>(VCr12)2O3</t>
+  </si>
+  <si>
+    <t>Thunfisch</t>
+  </si>
+  <si>
+    <t>Companion samples for the TDTR depositions, Evochem targets, have Ti contamination (except undoped)</t>
+  </si>
+  <si>
+    <t>V2O3_cond_1</t>
+  </si>
+  <si>
+    <t>V2O3_cond_2</t>
+  </si>
+  <si>
+    <t>V2O3_cond_4</t>
+  </si>
+  <si>
+    <t>V2O3_cond_3</t>
+  </si>
+  <si>
+    <t>V2O3_cond_9</t>
+  </si>
+  <si>
+    <t>V2O3_cond_10</t>
+  </si>
+  <si>
+    <t>V2O3_cond_11</t>
+  </si>
+  <si>
+    <t>V2O3_cond_12</t>
+  </si>
+  <si>
+    <t>V2O3_cond_7</t>
+  </si>
+  <si>
+    <t>V2O3_cond_8</t>
+  </si>
+  <si>
+    <t>V2O3_cond_5</t>
+  </si>
+  <si>
+    <t>V2O3_cond_6</t>
+  </si>
+  <si>
+    <t>Birke</t>
+  </si>
+  <si>
+    <t>NiO_sw_17</t>
+  </si>
+  <si>
+    <t>NiO_sw_18</t>
+  </si>
+  <si>
+    <t>NiO_sw_19</t>
+  </si>
+  <si>
+    <t>NiO_sw_20</t>
+  </si>
+  <si>
+    <t>NiO_sw_21</t>
+  </si>
+  <si>
+    <t>NiO_sw_22</t>
+  </si>
+  <si>
+    <t>NiO_sw_23</t>
+  </si>
+  <si>
+    <t>NiO_sw_24</t>
+  </si>
+  <si>
+    <t>undoped NiO</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1727,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1743,6 +1830,7 @@
     <xf numFmtId="2" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1807,7 +1895,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2069,11 +2157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
+      <pane ySplit="9" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D176" sqref="D176:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,6 +10914,1302 @@
         <v>324</v>
       </c>
     </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A159" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B159" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C159" s="40">
+        <v>36</v>
+      </c>
+      <c r="D159" s="41">
+        <v>44109</v>
+      </c>
+      <c r="E159" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F159" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G159" s="40">
+        <v>1</v>
+      </c>
+      <c r="H159" s="40"/>
+      <c r="I159" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J159" s="40">
+        <v>30</v>
+      </c>
+      <c r="K159" s="40">
+        <v>0</v>
+      </c>
+      <c r="L159" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M159" s="40">
+        <v>30</v>
+      </c>
+      <c r="N159" s="40"/>
+      <c r="O159" s="40"/>
+      <c r="P159" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="71">
+        <v>17</v>
+      </c>
+      <c r="R159" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S159" s="40"/>
+      <c r="T159" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U159" s="40">
+        <v>94</v>
+      </c>
+      <c r="V159" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W159" s="40">
+        <v>6</v>
+      </c>
+      <c r="X159" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y159" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z159" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A160" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C160" s="40">
+        <v>35</v>
+      </c>
+      <c r="D160" s="41">
+        <v>44109</v>
+      </c>
+      <c r="E160" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F160" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G160" s="40">
+        <v>2</v>
+      </c>
+      <c r="H160" s="40"/>
+      <c r="I160" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J160" s="40">
+        <v>30</v>
+      </c>
+      <c r="K160" s="40">
+        <v>2</v>
+      </c>
+      <c r="L160" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M160" s="40">
+        <v>30</v>
+      </c>
+      <c r="N160" s="40"/>
+      <c r="O160" s="40"/>
+      <c r="P160" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="71">
+        <v>17</v>
+      </c>
+      <c r="R160" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S160" s="40"/>
+      <c r="T160" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U160" s="40">
+        <v>94</v>
+      </c>
+      <c r="V160" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W160" s="40">
+        <v>6</v>
+      </c>
+      <c r="X160" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y160" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z160" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A161" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C161" s="40">
+        <v>34</v>
+      </c>
+      <c r="D161" s="41">
+        <v>44109</v>
+      </c>
+      <c r="E161" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="F161" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G161" s="40">
+        <v>4</v>
+      </c>
+      <c r="H161" s="40"/>
+      <c r="I161" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="J161" s="40">
+        <v>30</v>
+      </c>
+      <c r="K161" s="40">
+        <v>2</v>
+      </c>
+      <c r="L161" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M161" s="40">
+        <v>30</v>
+      </c>
+      <c r="N161" s="40"/>
+      <c r="O161" s="40"/>
+      <c r="P161" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q161" s="71">
+        <v>17</v>
+      </c>
+      <c r="R161" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S161" s="40"/>
+      <c r="T161" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U161" s="40">
+        <v>94</v>
+      </c>
+      <c r="V161" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W161" s="40">
+        <v>6</v>
+      </c>
+      <c r="X161" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y161" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z161" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A162" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C162" s="40">
+        <v>33</v>
+      </c>
+      <c r="D162" s="41">
+        <v>44109</v>
+      </c>
+      <c r="E162" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F162" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G162" s="40">
+        <v>3</v>
+      </c>
+      <c r="H162" s="40"/>
+      <c r="I162" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="J162" s="40">
+        <v>30</v>
+      </c>
+      <c r="K162" s="40">
+        <v>0</v>
+      </c>
+      <c r="L162" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M162" s="40">
+        <v>30</v>
+      </c>
+      <c r="N162" s="40"/>
+      <c r="O162" s="40"/>
+      <c r="P162" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q162" s="71">
+        <v>17</v>
+      </c>
+      <c r="R162" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S162" s="40"/>
+      <c r="T162" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U162" s="40">
+        <v>94</v>
+      </c>
+      <c r="V162" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W162" s="40">
+        <v>6</v>
+      </c>
+      <c r="X162" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y162" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z162" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A163" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C163" s="40"/>
+      <c r="D163" s="41">
+        <v>44228</v>
+      </c>
+      <c r="E163" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="F163" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G163" s="40">
+        <v>9</v>
+      </c>
+      <c r="H163" s="40"/>
+      <c r="I163" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J163" s="40">
+        <v>30</v>
+      </c>
+      <c r="K163" s="40">
+        <v>4</v>
+      </c>
+      <c r="L163" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M163" s="40">
+        <v>30</v>
+      </c>
+      <c r="N163" s="40"/>
+      <c r="O163" s="40"/>
+      <c r="P163" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q163" s="71">
+        <v>17</v>
+      </c>
+      <c r="R163" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S163" s="40"/>
+      <c r="T163" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U163" s="40">
+        <v>94</v>
+      </c>
+      <c r="V163" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W163" s="40">
+        <v>6</v>
+      </c>
+      <c r="X163" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y163" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z163" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A164" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B164" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C164" s="40"/>
+      <c r="D164" s="41">
+        <v>44228</v>
+      </c>
+      <c r="E164" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="F164" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G164" s="40">
+        <v>10</v>
+      </c>
+      <c r="H164" s="40"/>
+      <c r="I164" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J164" s="40">
+        <v>30</v>
+      </c>
+      <c r="K164" s="40">
+        <v>4</v>
+      </c>
+      <c r="L164" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M164" s="40">
+        <v>30</v>
+      </c>
+      <c r="N164" s="40"/>
+      <c r="O164" s="40"/>
+      <c r="P164" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="71">
+        <v>17</v>
+      </c>
+      <c r="R164" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S164" s="40"/>
+      <c r="T164" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U164" s="40">
+        <v>94</v>
+      </c>
+      <c r="V164" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W164" s="40">
+        <v>6</v>
+      </c>
+      <c r="X164" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y164" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z164" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A165" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C165" s="40"/>
+      <c r="D165" s="41">
+        <v>44232</v>
+      </c>
+      <c r="E165" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="F165" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G165" s="40">
+        <v>11</v>
+      </c>
+      <c r="H165" s="40"/>
+      <c r="I165" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J165" s="40">
+        <v>30</v>
+      </c>
+      <c r="K165" s="40">
+        <v>8</v>
+      </c>
+      <c r="L165" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M165" s="40">
+        <v>30</v>
+      </c>
+      <c r="N165" s="40"/>
+      <c r="O165" s="40"/>
+      <c r="P165" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q165" s="71">
+        <v>17</v>
+      </c>
+      <c r="R165" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S165" s="40"/>
+      <c r="T165" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U165" s="40">
+        <v>94</v>
+      </c>
+      <c r="V165" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W165" s="40">
+        <v>6</v>
+      </c>
+      <c r="X165" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y165" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z165" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A166" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B166" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C166" s="40"/>
+      <c r="D166" s="41">
+        <v>44232</v>
+      </c>
+      <c r="E166" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="F166" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G166" s="40">
+        <v>12</v>
+      </c>
+      <c r="H166" s="40"/>
+      <c r="I166" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="J166" s="40">
+        <v>30</v>
+      </c>
+      <c r="K166" s="40">
+        <v>8</v>
+      </c>
+      <c r="L166" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M166" s="40">
+        <v>30</v>
+      </c>
+      <c r="N166" s="40"/>
+      <c r="O166" s="40"/>
+      <c r="P166" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="71">
+        <v>17</v>
+      </c>
+      <c r="R166" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S166" s="40"/>
+      <c r="T166" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U166" s="40">
+        <v>94</v>
+      </c>
+      <c r="V166" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W166" s="40">
+        <v>6</v>
+      </c>
+      <c r="X166" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y166" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z166" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C167" s="40"/>
+      <c r="D167" s="41">
+        <v>44222</v>
+      </c>
+      <c r="E167" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="F167" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G167" s="40">
+        <v>7</v>
+      </c>
+      <c r="H167" s="40"/>
+      <c r="I167" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J167" s="40">
+        <v>30</v>
+      </c>
+      <c r="K167" s="40">
+        <v>10</v>
+      </c>
+      <c r="L167" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M167" s="40">
+        <v>30</v>
+      </c>
+      <c r="N167" s="40"/>
+      <c r="O167" s="40"/>
+      <c r="P167" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q167" s="71">
+        <v>17</v>
+      </c>
+      <c r="R167" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S167" s="40"/>
+      <c r="T167" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U167" s="40">
+        <v>94</v>
+      </c>
+      <c r="V167" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W167" s="40">
+        <v>6</v>
+      </c>
+      <c r="X167" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y167" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z167" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A168" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C168" s="40"/>
+      <c r="D168" s="41">
+        <v>44222</v>
+      </c>
+      <c r="E168" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="F168" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G168" s="40">
+        <v>8</v>
+      </c>
+      <c r="H168" s="40"/>
+      <c r="I168" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J168" s="40">
+        <v>30</v>
+      </c>
+      <c r="K168" s="40">
+        <v>10</v>
+      </c>
+      <c r="L168" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M168" s="40">
+        <v>30</v>
+      </c>
+      <c r="N168" s="40"/>
+      <c r="O168" s="40"/>
+      <c r="P168" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="71">
+        <v>17</v>
+      </c>
+      <c r="R168" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S168" s="40"/>
+      <c r="T168" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U168" s="40">
+        <v>94</v>
+      </c>
+      <c r="V168" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W168" s="40">
+        <v>6</v>
+      </c>
+      <c r="X168" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y168" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z168" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B169" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C169" s="40"/>
+      <c r="D169" s="41">
+        <v>43853</v>
+      </c>
+      <c r="E169" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F169" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G169" s="40">
+        <v>5</v>
+      </c>
+      <c r="H169" s="40"/>
+      <c r="I169" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J169" s="40">
+        <v>30</v>
+      </c>
+      <c r="K169" s="40">
+        <v>12</v>
+      </c>
+      <c r="L169" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M169" s="40">
+        <v>30</v>
+      </c>
+      <c r="N169" s="40"/>
+      <c r="O169" s="40"/>
+      <c r="P169" s="71">
+        <v>873</v>
+      </c>
+      <c r="Q169" s="71">
+        <v>17</v>
+      </c>
+      <c r="R169" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S169" s="40"/>
+      <c r="T169" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U169" s="40">
+        <v>94</v>
+      </c>
+      <c r="V169" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W169" s="40">
+        <v>6</v>
+      </c>
+      <c r="X169" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y169" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z169" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A170" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170" s="40">
+        <v>21519</v>
+      </c>
+      <c r="C170" s="40"/>
+      <c r="D170" s="41">
+        <v>43853</v>
+      </c>
+      <c r="E170" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="F170" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G170" s="40">
+        <v>6</v>
+      </c>
+      <c r="H170" s="40"/>
+      <c r="I170" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J170" s="40">
+        <v>30</v>
+      </c>
+      <c r="K170" s="40">
+        <v>12</v>
+      </c>
+      <c r="L170" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M170" s="40">
+        <v>30</v>
+      </c>
+      <c r="N170" s="40"/>
+      <c r="O170" s="40"/>
+      <c r="P170" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="71">
+        <v>17</v>
+      </c>
+      <c r="R170" s="40">
+        <v>76.5</v>
+      </c>
+      <c r="S170" s="40"/>
+      <c r="T170" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="U170" s="40">
+        <v>94</v>
+      </c>
+      <c r="V170" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="W170" s="40">
+        <v>6</v>
+      </c>
+      <c r="X170" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Y170" s="40">
+        <v>50</v>
+      </c>
+      <c r="Z170" s="40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A171" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="38">
+        <v>44091</v>
+      </c>
+      <c r="E171" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="F171" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G171" s="37">
+        <v>1</v>
+      </c>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J171" s="37">
+        <v>30</v>
+      </c>
+      <c r="K171" s="37"/>
+      <c r="L171" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M171" s="37">
+        <v>30</v>
+      </c>
+      <c r="N171" s="37"/>
+      <c r="O171" s="37"/>
+      <c r="P171" s="37">
+        <v>673</v>
+      </c>
+      <c r="Q171" s="94">
+        <v>17</v>
+      </c>
+      <c r="R171" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S171" s="94">
+        <v>873</v>
+      </c>
+      <c r="T171" s="37"/>
+      <c r="U171" s="37"/>
+      <c r="V171" s="37"/>
+      <c r="W171" s="37"/>
+      <c r="X171" s="37"/>
+      <c r="Y171" s="37"/>
+      <c r="Z171" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A172" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="37"/>
+      <c r="C172" s="37"/>
+      <c r="D172" s="38">
+        <v>44106</v>
+      </c>
+      <c r="E172" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="F172" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G172" s="37">
+        <v>2</v>
+      </c>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J172" s="37">
+        <v>30</v>
+      </c>
+      <c r="K172" s="37"/>
+      <c r="L172" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M172" s="37">
+        <v>30</v>
+      </c>
+      <c r="N172" s="37"/>
+      <c r="O172" s="37"/>
+      <c r="P172" s="37">
+        <v>673</v>
+      </c>
+      <c r="Q172" s="94">
+        <v>17</v>
+      </c>
+      <c r="R172" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S172" s="94">
+        <v>873</v>
+      </c>
+      <c r="T172" s="37"/>
+      <c r="U172" s="37"/>
+      <c r="V172" s="37"/>
+      <c r="W172" s="37"/>
+      <c r="X172" s="37"/>
+      <c r="Y172" s="37"/>
+      <c r="Z172" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A173" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="37"/>
+      <c r="C173" s="37"/>
+      <c r="D173" s="38">
+        <v>44106</v>
+      </c>
+      <c r="E173" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="F173" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G173" s="37">
+        <v>3</v>
+      </c>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J173" s="37">
+        <v>30</v>
+      </c>
+      <c r="K173" s="37"/>
+      <c r="L173" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M173" s="37">
+        <v>30</v>
+      </c>
+      <c r="N173" s="37"/>
+      <c r="O173" s="37"/>
+      <c r="P173" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="94">
+        <v>17</v>
+      </c>
+      <c r="R173" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S173" s="94">
+        <v>873</v>
+      </c>
+      <c r="T173" s="37"/>
+      <c r="U173" s="37"/>
+      <c r="V173" s="37"/>
+      <c r="W173" s="37"/>
+      <c r="X173" s="37"/>
+      <c r="Y173" s="37"/>
+      <c r="Z173" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A174" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B174" s="37"/>
+      <c r="C174" s="37"/>
+      <c r="D174" s="38">
+        <v>44091</v>
+      </c>
+      <c r="E174" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="F174" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G174" s="37">
+        <v>4</v>
+      </c>
+      <c r="H174" s="37"/>
+      <c r="I174" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J174" s="37">
+        <v>30</v>
+      </c>
+      <c r="K174" s="37"/>
+      <c r="L174" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M174" s="37">
+        <v>30</v>
+      </c>
+      <c r="N174" s="37"/>
+      <c r="O174" s="37"/>
+      <c r="P174" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="94">
+        <v>17</v>
+      </c>
+      <c r="R174" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S174" s="94">
+        <v>873</v>
+      </c>
+      <c r="T174" s="37"/>
+      <c r="U174" s="37"/>
+      <c r="V174" s="37"/>
+      <c r="W174" s="37"/>
+      <c r="X174" s="37"/>
+      <c r="Y174" s="37"/>
+      <c r="Z174" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A175" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B175" s="37"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="38">
+        <v>44091</v>
+      </c>
+      <c r="E175" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="F175" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G175" s="37">
+        <v>5</v>
+      </c>
+      <c r="H175" s="37"/>
+      <c r="I175" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J175" s="37">
+        <v>30</v>
+      </c>
+      <c r="K175" s="37"/>
+      <c r="L175" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M175" s="37">
+        <v>30</v>
+      </c>
+      <c r="N175" s="37"/>
+      <c r="O175" s="37"/>
+      <c r="P175" s="37">
+        <v>673</v>
+      </c>
+      <c r="Q175" s="94">
+        <v>17</v>
+      </c>
+      <c r="R175" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S175" s="94">
+        <v>0</v>
+      </c>
+      <c r="T175" s="37"/>
+      <c r="U175" s="37"/>
+      <c r="V175" s="37"/>
+      <c r="W175" s="37"/>
+      <c r="X175" s="37"/>
+      <c r="Y175" s="37"/>
+      <c r="Z175" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A176" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B176" s="37"/>
+      <c r="C176" s="37"/>
+      <c r="D176" s="38">
+        <v>44106</v>
+      </c>
+      <c r="E176" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F176" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G176" s="37">
+        <v>6</v>
+      </c>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J176" s="37">
+        <v>30</v>
+      </c>
+      <c r="K176" s="37"/>
+      <c r="L176" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M176" s="37">
+        <v>30</v>
+      </c>
+      <c r="N176" s="37"/>
+      <c r="O176" s="37"/>
+      <c r="P176" s="37">
+        <v>673</v>
+      </c>
+      <c r="Q176" s="94">
+        <v>17</v>
+      </c>
+      <c r="R176" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S176" s="94">
+        <v>0</v>
+      </c>
+      <c r="T176" s="37"/>
+      <c r="U176" s="37"/>
+      <c r="V176" s="37"/>
+      <c r="W176" s="37"/>
+      <c r="X176" s="37"/>
+      <c r="Y176" s="37"/>
+      <c r="Z176" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A177" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177" s="37"/>
+      <c r="C177" s="37"/>
+      <c r="D177" s="38">
+        <v>44106</v>
+      </c>
+      <c r="E177" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="F177" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G177" s="37">
+        <v>7</v>
+      </c>
+      <c r="H177" s="37"/>
+      <c r="I177" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J177" s="37">
+        <v>30</v>
+      </c>
+      <c r="K177" s="37"/>
+      <c r="L177" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M177" s="37">
+        <v>30</v>
+      </c>
+      <c r="N177" s="37"/>
+      <c r="O177" s="37"/>
+      <c r="P177" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="94">
+        <v>17</v>
+      </c>
+      <c r="R177" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S177" s="94">
+        <v>0</v>
+      </c>
+      <c r="T177" s="37"/>
+      <c r="U177" s="37"/>
+      <c r="V177" s="37"/>
+      <c r="W177" s="37"/>
+      <c r="X177" s="37"/>
+      <c r="Y177" s="37"/>
+      <c r="Z177" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A178" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" s="37"/>
+      <c r="C178" s="37"/>
+      <c r="D178" s="38">
+        <v>44091</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G178" s="37">
+        <v>8</v>
+      </c>
+      <c r="H178" s="37"/>
+      <c r="I178" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="J178" s="37">
+        <v>30</v>
+      </c>
+      <c r="K178" s="37"/>
+      <c r="L178" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M178" s="37">
+        <v>30</v>
+      </c>
+      <c r="N178" s="37"/>
+      <c r="O178" s="37"/>
+      <c r="P178" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="94">
+        <v>17</v>
+      </c>
+      <c r="R178" s="37">
+        <v>76.5</v>
+      </c>
+      <c r="S178" s="94">
+        <v>0</v>
+      </c>
+      <c r="T178" s="37"/>
+      <c r="U178" s="37"/>
+      <c r="V178" s="37"/>
+      <c r="W178" s="37"/>
+      <c r="X178" s="37"/>
+      <c r="Y178" s="37"/>
+      <c r="Z178" s="37" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\emrl\Pool\Projekte\HGST-CERAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohr\py-ivtools\ivtools\sampledata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="358">
   <si>
     <t>wafer_number</t>
   </si>
@@ -1082,6 +1082,18 @@
   </si>
   <si>
     <t>undoped NiO</t>
+  </si>
+  <si>
+    <t>NiO_CO2_lassen_1</t>
+  </si>
+  <si>
+    <t>NiO_CO2_lassen_2</t>
+  </si>
+  <si>
+    <t>Christdorn</t>
+  </si>
+  <si>
+    <t>NiO deposited with CO2 (20%)</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="59">
+  <fills count="60">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1566,6 +1578,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1727,7 +1745,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1831,50 +1849,53 @@
     <xf numFmtId="49" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1895,7 +1916,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2157,14 +2178,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z178"/>
+  <dimension ref="A1:Z180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176:D177"/>
+      <pane ySplit="9" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -12210,6 +12231,114 @@
         <v>353</v>
       </c>
     </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A179" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179" s="95"/>
+      <c r="C179" s="95"/>
+      <c r="D179" s="96">
+        <v>44686</v>
+      </c>
+      <c r="E179" s="95" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" s="95" t="s">
+        <v>356</v>
+      </c>
+      <c r="G179" s="95">
+        <v>1</v>
+      </c>
+      <c r="H179" s="95"/>
+      <c r="I179" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="J179" s="95">
+        <v>10</v>
+      </c>
+      <c r="K179" s="95"/>
+      <c r="L179" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="M179" s="95">
+        <v>10</v>
+      </c>
+      <c r="N179" s="95"/>
+      <c r="O179" s="95"/>
+      <c r="P179" s="95">
+        <v>673</v>
+      </c>
+      <c r="Q179" s="97">
+        <v>17</v>
+      </c>
+      <c r="R179" s="95">
+        <v>76.5</v>
+      </c>
+      <c r="S179" s="95"/>
+      <c r="T179" s="95"/>
+      <c r="U179" s="95"/>
+      <c r="V179" s="95"/>
+      <c r="W179" s="95"/>
+      <c r="X179" s="95"/>
+      <c r="Y179" s="95"/>
+      <c r="Z179" s="95" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A180" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B180" s="95"/>
+      <c r="C180" s="95"/>
+      <c r="D180" s="96">
+        <v>44686</v>
+      </c>
+      <c r="E180" s="95" t="s">
+        <v>355</v>
+      </c>
+      <c r="F180" s="95" t="s">
+        <v>356</v>
+      </c>
+      <c r="G180" s="95">
+        <v>2</v>
+      </c>
+      <c r="H180" s="95"/>
+      <c r="I180" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="J180" s="95">
+        <v>10</v>
+      </c>
+      <c r="K180" s="95"/>
+      <c r="L180" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="M180" s="95">
+        <v>10</v>
+      </c>
+      <c r="N180" s="95"/>
+      <c r="O180" s="95"/>
+      <c r="P180" s="95">
+        <v>673</v>
+      </c>
+      <c r="Q180" s="97">
+        <v>17</v>
+      </c>
+      <c r="R180" s="95">
+        <v>76.5</v>
+      </c>
+      <c r="S180" s="95"/>
+      <c r="T180" s="95"/>
+      <c r="U180" s="95"/>
+      <c r="V180" s="95"/>
+      <c r="W180" s="95"/>
+      <c r="X180" s="95"/>
+      <c r="Y180" s="95"/>
+      <c r="Z180" s="95" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12224,7 +12353,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/ivtools/sampledata/CeRAM_Depositions.xlsx
+++ b/ivtools/sampledata/CeRAM_Depositions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="deposition_plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="365">
   <si>
     <t>wafer_number</t>
   </si>
@@ -1082,6 +1082,39 @@
   </si>
   <si>
     <t>undoped NiO</t>
+  </si>
+  <si>
+    <t>NiO_multi_1</t>
+  </si>
+  <si>
+    <t>NiO_multi_2</t>
+  </si>
+  <si>
+    <t>NiO_multi_3</t>
+  </si>
+  <si>
+    <t>NiO_multi_4</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>layer_4</t>
+  </si>
+  <si>
+    <t>thickness_4</t>
+  </si>
+  <si>
+    <t>layer_5</t>
+  </si>
+  <si>
+    <t>thickness_5</t>
+  </si>
+  <si>
+    <t>Drachenbaum</t>
+  </si>
+  <si>
+    <t>NiO multilayers</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1760,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1831,50 +1864,51 @@
     <xf numFmtId="49" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1895,7 +1929,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2157,14 +2191,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z178"/>
+  <dimension ref="A1:AD182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176:D177"/>
+      <pane ySplit="9" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2178,50 +2212,50 @@
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="25" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="103.5703125" customWidth="1"/>
+    <col min="13" max="19" width="14.85546875" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="30" width="103.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2234,14 +2268,14 @@
       <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="P8" t="s">
+      <c r="T8" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AD8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>82</v>
       </c>
@@ -2288,40 +2322,52 @@
         <v>106</v>
       </c>
       <c r="P9" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="U9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="V9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="W9" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="X9" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="Y9" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="Z9" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="AA9" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="AB9" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="Z9" s="13" t="s">
+      <c r="AD9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2341,25 +2387,29 @@
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="V10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -2395,27 +2445,31 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
         <v>298</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="U11" s="2">
         <v>21</v>
       </c>
-      <c r="R11" s="2">
+      <c r="V11" s="2">
         <v>94.5</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -2451,27 +2505,31 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
         <v>298</v>
       </c>
-      <c r="Q12" s="2">
-        <v>17</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
+        <v>17</v>
+      </c>
+      <c r="V12" s="2">
         <v>76.5</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
@@ -2507,27 +2565,31 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
         <v>298</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="U13" s="2">
         <v>13</v>
       </c>
-      <c r="R13" s="2">
+      <c r="V13" s="2">
         <v>58.5</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -2563,27 +2625,31 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
         <v>298</v>
       </c>
-      <c r="Q14" s="2">
-        <v>9</v>
-      </c>
-      <c r="R14" s="2">
+      <c r="U14" s="2">
+        <v>9</v>
+      </c>
+      <c r="V14" s="2">
         <v>40.5</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -2625,27 +2691,31 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
         <v>298</v>
       </c>
-      <c r="Q15" s="1">
-        <v>17</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="U15" s="1">
+        <v>17</v>
+      </c>
+      <c r="V15" s="1">
         <v>76.5</v>
       </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -2687,27 +2757,31 @@
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
         <v>298</v>
       </c>
-      <c r="Q16" s="1">
-        <v>17</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="U16" s="1">
+        <v>17</v>
+      </c>
+      <c r="V16" s="1">
         <v>76.5</v>
       </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -2749,27 +2823,31 @@
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
         <v>298</v>
       </c>
-      <c r="Q17" s="1">
-        <v>17</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="U17" s="1">
+        <v>17</v>
+      </c>
+      <c r="V17" s="1">
         <v>76.5</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>83</v>
       </c>
@@ -2811,27 +2889,31 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
         <v>298</v>
       </c>
-      <c r="Q18" s="1">
-        <v>17</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="U18" s="1">
+        <v>17</v>
+      </c>
+      <c r="V18" s="1">
         <v>76.5</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2873,27 +2955,31 @@
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
         <v>298</v>
       </c>
-      <c r="Q19" s="1">
-        <v>17</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="U19" s="1">
+        <v>17</v>
+      </c>
+      <c r="V19" s="1">
         <v>76.5</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -2935,27 +3021,31 @@
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
         <v>298</v>
       </c>
-      <c r="Q20" s="1">
-        <v>17</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="U20" s="1">
+        <v>17</v>
+      </c>
+      <c r="V20" s="1">
         <v>76.5</v>
       </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
@@ -2997,27 +3087,31 @@
       </c>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
-      <c r="P21" s="16">
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16">
         <v>298</v>
       </c>
-      <c r="Q21" s="16">
-        <v>17</v>
-      </c>
-      <c r="R21" s="16">
+      <c r="U21" s="16">
+        <v>17</v>
+      </c>
+      <c r="V21" s="16">
         <v>76.5</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
-      <c r="Z21" s="16" t="s">
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>83</v>
       </c>
@@ -3059,27 +3153,31 @@
       </c>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="16">
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16">
         <v>298</v>
       </c>
-      <c r="Q22" s="16">
-        <v>17</v>
-      </c>
-      <c r="R22" s="16">
+      <c r="U22" s="16">
+        <v>17</v>
+      </c>
+      <c r="V22" s="16">
         <v>76.5</v>
       </c>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
-      <c r="Z22" s="16" t="s">
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>83</v>
       </c>
@@ -3121,27 +3219,31 @@
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
-      <c r="P23" s="16">
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16">
         <v>298</v>
       </c>
-      <c r="Q23" s="16">
-        <v>17</v>
-      </c>
-      <c r="R23" s="16">
+      <c r="U23" s="16">
+        <v>17</v>
+      </c>
+      <c r="V23" s="16">
         <v>76.5</v>
       </c>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
-      <c r="Z23" s="16" t="s">
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>83</v>
       </c>
@@ -3183,27 +3285,31 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
-      <c r="P24" s="16">
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16">
         <v>298</v>
       </c>
-      <c r="Q24" s="16">
-        <v>17</v>
-      </c>
-      <c r="R24" s="16">
+      <c r="U24" s="16">
+        <v>17</v>
+      </c>
+      <c r="V24" s="16">
         <v>76.5</v>
       </c>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>83</v>
       </c>
@@ -3245,27 +3351,31 @@
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
-      <c r="P25" s="16">
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16">
         <v>298</v>
       </c>
-      <c r="Q25" s="16">
-        <v>17</v>
-      </c>
-      <c r="R25" s="16">
+      <c r="U25" s="16">
+        <v>17</v>
+      </c>
+      <c r="V25" s="16">
         <v>76.5</v>
       </c>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
-      <c r="Z25" s="16" t="s">
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>83</v>
       </c>
@@ -3307,27 +3417,31 @@
       </c>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="16">
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16">
         <v>298</v>
       </c>
-      <c r="Q26" s="16">
-        <v>17</v>
-      </c>
-      <c r="R26" s="16">
+      <c r="U26" s="16">
+        <v>17</v>
+      </c>
+      <c r="V26" s="16">
         <v>76.5</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
-      <c r="Z26" s="16" t="s">
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>83</v>
       </c>
@@ -3363,27 +3477,31 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
-      <c r="P27" s="9">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="9">
         <v>873</v>
       </c>
-      <c r="Q27" s="9">
-        <v>17</v>
-      </c>
-      <c r="R27" s="11">
+      <c r="U27" s="9">
+        <v>17</v>
+      </c>
+      <c r="V27" s="11">
         <v>76.5</v>
       </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>83</v>
       </c>
@@ -3425,27 +3543,31 @@
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
-      <c r="P28" s="9">
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="9">
         <v>873</v>
       </c>
-      <c r="Q28" s="9">
-        <v>17</v>
-      </c>
-      <c r="R28" s="8">
+      <c r="U28" s="9">
+        <v>17</v>
+      </c>
+      <c r="V28" s="8">
         <v>76.5</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
-      <c r="Z28" s="8" t="s">
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3479,27 +3601,31 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="7">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="7">
         <v>298</v>
       </c>
-      <c r="Q29" s="7">
-        <v>17</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="U29" s="7">
+        <v>17</v>
+      </c>
+      <c r="V29" s="6">
         <v>76.5</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
-      <c r="Z29" s="6" t="s">
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -3535,27 +3661,31 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
         <v>298</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="R30" s="2">
+      <c r="V30" s="2">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>83</v>
       </c>
@@ -3597,27 +3727,31 @@
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14">
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14">
         <v>873</v>
       </c>
-      <c r="Q31" s="14">
-        <v>17</v>
-      </c>
-      <c r="R31" s="14">
+      <c r="U31" s="14">
+        <v>17</v>
+      </c>
+      <c r="V31" s="14">
         <v>76.5</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="14" t="s">
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>83</v>
       </c>
@@ -3659,27 +3793,31 @@
       </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="14">
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14">
         <v>873</v>
       </c>
-      <c r="Q32" s="14">
-        <v>17</v>
-      </c>
-      <c r="R32" s="14">
+      <c r="U32" s="14">
+        <v>17</v>
+      </c>
+      <c r="V32" s="14">
         <v>76.5</v>
       </c>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
-      <c r="Z32" s="14" t="s">
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>83</v>
       </c>
@@ -3721,27 +3859,31 @@
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="14">
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14">
         <v>873</v>
       </c>
-      <c r="Q33" s="14">
-        <v>17</v>
-      </c>
-      <c r="R33" s="14">
+      <c r="U33" s="14">
+        <v>17</v>
+      </c>
+      <c r="V33" s="14">
         <v>76.5</v>
       </c>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
-      <c r="Z33" s="14" t="s">
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
@@ -3783,27 +3925,31 @@
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-      <c r="P34" s="14">
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14">
         <v>873</v>
       </c>
-      <c r="Q34" s="14">
-        <v>17</v>
-      </c>
-      <c r="R34" s="14">
+      <c r="U34" s="14">
+        <v>17</v>
+      </c>
+      <c r="V34" s="14">
         <v>76.5</v>
       </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
-      <c r="Z34" s="14" t="s">
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>83</v>
       </c>
@@ -3845,27 +3991,31 @@
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
-      <c r="P35" s="14">
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14">
         <v>873</v>
       </c>
-      <c r="Q35" s="14">
-        <v>17</v>
-      </c>
-      <c r="R35" s="14">
+      <c r="U35" s="14">
+        <v>17</v>
+      </c>
+      <c r="V35" s="14">
         <v>76.5</v>
       </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
-      <c r="Z35" s="14" t="s">
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>83</v>
       </c>
@@ -3907,27 +4057,31 @@
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="14">
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14">
         <v>873</v>
       </c>
-      <c r="Q36" s="14">
-        <v>17</v>
-      </c>
-      <c r="R36" s="14">
+      <c r="U36" s="14">
+        <v>17</v>
+      </c>
+      <c r="V36" s="14">
         <v>76.5</v>
       </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
-      <c r="Z36" s="14" t="s">
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>83</v>
       </c>
@@ -3969,27 +4123,31 @@
       </c>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
-      <c r="P37" s="18">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18">
         <v>873</v>
       </c>
-      <c r="Q37" s="18">
-        <v>17</v>
-      </c>
-      <c r="R37" s="18">
+      <c r="U37" s="18">
+        <v>17</v>
+      </c>
+      <c r="V37" s="18">
         <v>76.5</v>
       </c>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
       <c r="W37" s="18"/>
       <c r="X37" s="18"/>
       <c r="Y37" s="18"/>
-      <c r="Z37" s="18" t="s">
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>83</v>
       </c>
@@ -4031,27 +4189,31 @@
       </c>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
-      <c r="P38" s="18">
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18">
         <v>873</v>
       </c>
-      <c r="Q38" s="18">
-        <v>17</v>
-      </c>
-      <c r="R38" s="18">
+      <c r="U38" s="18">
+        <v>17</v>
+      </c>
+      <c r="V38" s="18">
         <v>76.5</v>
       </c>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
       <c r="W38" s="18"/>
       <c r="X38" s="18"/>
       <c r="Y38" s="18"/>
-      <c r="Z38" s="18" t="s">
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>83</v>
       </c>
@@ -4093,27 +4255,31 @@
       </c>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
-      <c r="P39" s="18">
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18">
         <v>873</v>
       </c>
-      <c r="Q39" s="18">
-        <v>17</v>
-      </c>
-      <c r="R39" s="18">
+      <c r="U39" s="18">
+        <v>17</v>
+      </c>
+      <c r="V39" s="18">
         <v>76.5</v>
       </c>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
       <c r="W39" s="18"/>
       <c r="X39" s="18"/>
       <c r="Y39" s="18"/>
-      <c r="Z39" s="18" t="s">
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>83</v>
       </c>
@@ -4155,27 +4321,31 @@
       </c>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
-      <c r="P40" s="18">
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18">
         <v>873</v>
       </c>
-      <c r="Q40" s="18">
-        <v>17</v>
-      </c>
-      <c r="R40" s="18">
+      <c r="U40" s="18">
+        <v>17</v>
+      </c>
+      <c r="V40" s="18">
         <v>76.5</v>
       </c>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
       <c r="W40" s="18"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="18"/>
-      <c r="Z40" s="18" t="s">
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>83</v>
       </c>
@@ -4217,27 +4387,31 @@
       </c>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
-      <c r="P41" s="18">
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18">
         <v>873</v>
       </c>
-      <c r="Q41" s="18">
-        <v>17</v>
-      </c>
-      <c r="R41" s="18">
+      <c r="U41" s="18">
+        <v>17</v>
+      </c>
+      <c r="V41" s="18">
         <v>76.5</v>
       </c>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
       <c r="W41" s="18"/>
       <c r="X41" s="18"/>
       <c r="Y41" s="18"/>
-      <c r="Z41" s="18" t="s">
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>83</v>
       </c>
@@ -4279,27 +4453,31 @@
       </c>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
-      <c r="P42" s="18">
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18">
         <v>873</v>
       </c>
-      <c r="Q42" s="18">
-        <v>17</v>
-      </c>
-      <c r="R42" s="18">
+      <c r="U42" s="18">
+        <v>17</v>
+      </c>
+      <c r="V42" s="18">
         <v>76.5</v>
       </c>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
       <c r="W42" s="18"/>
       <c r="X42" s="18"/>
       <c r="Y42" s="18"/>
-      <c r="Z42" s="18" t="s">
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
@@ -4345,11 +4523,15 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="1" t="s">
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
@@ -4395,11 +4577,15 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="1" t="s">
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -4445,11 +4631,15 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -4495,11 +4685,15 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1" t="s">
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>100</v>
       </c>
@@ -4545,11 +4739,15 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="1" t="s">
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
@@ -4595,11 +4793,15 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="1" t="s">
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>83</v>
       </c>
@@ -4639,29 +4841,33 @@
       </c>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
-      <c r="P49" s="20">
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20">
         <v>773</v>
       </c>
-      <c r="Q49" s="20">
-        <v>17</v>
-      </c>
-      <c r="R49" s="20">
+      <c r="U49" s="20">
+        <v>17</v>
+      </c>
+      <c r="V49" s="20">
         <v>76.5</v>
       </c>
-      <c r="S49" s="20">
+      <c r="W49" s="20">
         <v>500</v>
       </c>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
-      <c r="Z49" s="20" t="s">
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>83</v>
       </c>
@@ -4701,29 +4907,33 @@
       </c>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
-      <c r="P50" s="20">
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20">
         <v>773</v>
       </c>
-      <c r="Q50" s="20">
-        <v>17</v>
-      </c>
-      <c r="R50" s="20">
+      <c r="U50" s="20">
+        <v>17</v>
+      </c>
+      <c r="V50" s="20">
         <v>76.5</v>
       </c>
-      <c r="S50" s="20">
+      <c r="W50" s="20">
         <v>500</v>
       </c>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
-      <c r="Z50" s="20" t="s">
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
@@ -4763,29 +4973,33 @@
       </c>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
-      <c r="P51" s="20">
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20">
         <v>773</v>
       </c>
-      <c r="Q51" s="20">
-        <v>17</v>
-      </c>
-      <c r="R51" s="20">
+      <c r="U51" s="20">
+        <v>17</v>
+      </c>
+      <c r="V51" s="20">
         <v>76.5</v>
       </c>
-      <c r="S51" s="20">
+      <c r="W51" s="20">
         <v>500</v>
       </c>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
-      <c r="Z51" s="20" t="s">
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>83</v>
       </c>
@@ -4825,29 +5039,33 @@
       </c>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
-      <c r="P52" s="20">
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20">
         <v>773</v>
       </c>
-      <c r="Q52" s="20">
-        <v>17</v>
-      </c>
-      <c r="R52" s="20">
+      <c r="U52" s="20">
+        <v>17</v>
+      </c>
+      <c r="V52" s="20">
         <v>76.5</v>
       </c>
-      <c r="S52" s="20">
+      <c r="W52" s="20">
         <v>500</v>
       </c>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
-      <c r="Z52" s="20" t="s">
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>83</v>
       </c>
@@ -4887,29 +5105,33 @@
       </c>
       <c r="N53" s="20"/>
       <c r="O53" s="20"/>
-      <c r="P53" s="20">
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20">
         <v>773</v>
       </c>
-      <c r="Q53" s="20">
-        <v>17</v>
-      </c>
-      <c r="R53" s="20">
+      <c r="U53" s="20">
+        <v>17</v>
+      </c>
+      <c r="V53" s="20">
         <v>76.5</v>
       </c>
-      <c r="S53" s="20">
+      <c r="W53" s="20">
         <v>500</v>
       </c>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
-      <c r="Z53" s="20" t="s">
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>83</v>
       </c>
@@ -4949,29 +5171,33 @@
       </c>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
-      <c r="P54" s="20">
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20">
         <v>773</v>
       </c>
-      <c r="Q54" s="20">
-        <v>17</v>
-      </c>
-      <c r="R54" s="20">
+      <c r="U54" s="20">
+        <v>17</v>
+      </c>
+      <c r="V54" s="20">
         <v>76.5</v>
       </c>
-      <c r="S54" s="20">
+      <c r="W54" s="20">
         <v>500</v>
       </c>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
-      <c r="Z54" s="20" t="s">
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>83</v>
       </c>
@@ -5010,24 +5236,28 @@
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
-      <c r="Q55" s="22">
-        <v>17</v>
-      </c>
-      <c r="R55" s="22">
-        <v>76.5</v>
-      </c>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
+      <c r="U55" s="22">
+        <v>17</v>
+      </c>
+      <c r="V55" s="22">
+        <v>76.5</v>
+      </c>
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
       <c r="Y55" s="22"/>
-      <c r="Z55" s="22" t="s">
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>83</v>
       </c>
@@ -5070,24 +5300,28 @@
         <v>30</v>
       </c>
       <c r="P56" s="22"/>
-      <c r="Q56" s="22">
-        <v>17</v>
-      </c>
-      <c r="R56" s="22">
-        <v>76.5</v>
-      </c>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
+      <c r="U56" s="22">
+        <v>17</v>
+      </c>
+      <c r="V56" s="22">
+        <v>76.5</v>
+      </c>
       <c r="W56" s="22"/>
       <c r="X56" s="22"/>
       <c r="Y56" s="22"/>
-      <c r="Z56" s="22" t="s">
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -5133,11 +5367,15 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="1" t="s">
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>100</v>
       </c>
@@ -5183,11 +5421,15 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="Z58" s="1" t="s">
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -5233,11 +5475,15 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="1" t="s">
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -5283,11 +5529,15 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="Z60" s="1" t="s">
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>100</v>
       </c>
@@ -5333,11 +5583,15 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-      <c r="Z61" s="1" t="s">
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
@@ -5383,11 +5637,15 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="1" t="s">
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -5427,11 +5685,15 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-      <c r="Z63" s="1" t="s">
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>83</v>
       </c>
@@ -5469,29 +5731,33 @@
       </c>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
-      <c r="P64" s="20">
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20">
         <v>773</v>
       </c>
-      <c r="Q64" s="20">
-        <v>17</v>
-      </c>
-      <c r="R64" s="20">
+      <c r="U64" s="20">
+        <v>17</v>
+      </c>
+      <c r="V64" s="20">
         <v>76.5</v>
       </c>
-      <c r="S64" s="20">
+      <c r="W64" s="20">
         <v>500</v>
       </c>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
-      <c r="Z64" s="20" t="s">
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>83</v>
       </c>
@@ -5529,29 +5795,33 @@
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
-      <c r="P65" s="20">
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20">
         <v>773</v>
       </c>
-      <c r="Q65" s="20">
-        <v>17</v>
-      </c>
-      <c r="R65" s="20">
+      <c r="U65" s="20">
+        <v>17</v>
+      </c>
+      <c r="V65" s="20">
         <v>76.5</v>
       </c>
-      <c r="S65" s="20">
+      <c r="W65" s="20">
         <v>500</v>
       </c>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
-      <c r="Z65" s="20" t="s">
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>83</v>
       </c>
@@ -5589,29 +5859,33 @@
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
-      <c r="P66" s="20">
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20">
         <v>773</v>
       </c>
-      <c r="Q66" s="20">
-        <v>17</v>
-      </c>
-      <c r="R66" s="20">
+      <c r="U66" s="20">
+        <v>17</v>
+      </c>
+      <c r="V66" s="20">
         <v>76.5</v>
       </c>
-      <c r="S66" s="20">
+      <c r="W66" s="20">
         <v>500</v>
       </c>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
-      <c r="Z66" s="20" t="s">
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>83</v>
       </c>
@@ -5649,29 +5923,33 @@
       </c>
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
-      <c r="P67" s="20">
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20">
         <v>773</v>
       </c>
-      <c r="Q67" s="20">
-        <v>17</v>
-      </c>
-      <c r="R67" s="20">
+      <c r="U67" s="20">
+        <v>17</v>
+      </c>
+      <c r="V67" s="20">
         <v>76.5</v>
       </c>
-      <c r="S67" s="20">
+      <c r="W67" s="20">
         <v>500</v>
       </c>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
-      <c r="Z67" s="20" t="s">
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>83</v>
       </c>
@@ -5709,29 +5987,33 @@
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
-      <c r="P68" s="20">
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20">
         <v>773</v>
       </c>
-      <c r="Q68" s="20">
-        <v>17</v>
-      </c>
-      <c r="R68" s="20">
+      <c r="U68" s="20">
+        <v>17</v>
+      </c>
+      <c r="V68" s="20">
         <v>76.5</v>
       </c>
-      <c r="S68" s="20">
+      <c r="W68" s="20">
         <v>500</v>
       </c>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
-      <c r="Z68" s="20" t="s">
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>83</v>
       </c>
@@ -5769,29 +6051,33 @@
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="20"/>
-      <c r="P69" s="20">
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20">
         <v>773</v>
       </c>
-      <c r="Q69" s="20">
-        <v>17</v>
-      </c>
-      <c r="R69" s="20">
+      <c r="U69" s="20">
+        <v>17</v>
+      </c>
+      <c r="V69" s="20">
         <v>76.5</v>
       </c>
-      <c r="S69" s="20">
+      <c r="W69" s="20">
         <v>500</v>
       </c>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
-      <c r="Z69" s="20" t="s">
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>124</v>
       </c>
@@ -5821,23 +6107,27 @@
       <c r="M70" s="24"/>
       <c r="N70" s="24"/>
       <c r="O70" s="24"/>
-      <c r="P70" s="24">
-        <v>298</v>
-      </c>
+      <c r="P70" s="24"/>
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="T70" s="24">
+        <v>298</v>
+      </c>
       <c r="U70" s="24"/>
       <c r="V70" s="24"/>
       <c r="W70" s="24"/>
       <c r="X70" s="24"/>
       <c r="Y70" s="24"/>
-      <c r="Z70" s="24" t="s">
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>124</v>
       </c>
@@ -5873,23 +6163,27 @@
       </c>
       <c r="N71" s="24"/>
       <c r="O71" s="24"/>
-      <c r="P71" s="24">
-        <v>873</v>
-      </c>
+      <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
       <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
+      <c r="T71" s="24">
+        <v>873</v>
+      </c>
       <c r="U71" s="24"/>
       <c r="V71" s="24"/>
       <c r="W71" s="24"/>
       <c r="X71" s="24"/>
       <c r="Y71" s="24"/>
-      <c r="Z71" s="24" t="s">
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>124</v>
       </c>
@@ -5925,23 +6219,27 @@
       </c>
       <c r="N72" s="24"/>
       <c r="O72" s="24"/>
-      <c r="P72" s="24">
-        <v>873</v>
-      </c>
+      <c r="P72" s="24"/>
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
+      <c r="T72" s="24">
+        <v>873</v>
+      </c>
       <c r="U72" s="24"/>
       <c r="V72" s="24"/>
       <c r="W72" s="24"/>
       <c r="X72" s="24"/>
       <c r="Y72" s="24"/>
-      <c r="Z72" s="24" t="s">
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>124</v>
       </c>
@@ -5977,23 +6275,27 @@
       </c>
       <c r="N73" s="24"/>
       <c r="O73" s="24"/>
-      <c r="P73" s="24">
-        <v>873</v>
-      </c>
+      <c r="P73" s="24"/>
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
+      <c r="T73" s="24">
+        <v>873</v>
+      </c>
       <c r="U73" s="24"/>
       <c r="V73" s="24"/>
       <c r="W73" s="24"/>
       <c r="X73" s="24"/>
       <c r="Y73" s="24"/>
-      <c r="Z73" s="24" t="s">
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>83</v>
       </c>
@@ -6031,11 +6333,15 @@
       <c r="W74" s="24"/>
       <c r="X74" s="24"/>
       <c r="Y74" s="24"/>
-      <c r="Z74" s="24" t="s">
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
         <v>83</v>
       </c>
@@ -6071,25 +6377,29 @@
       <c r="M75" s="26"/>
       <c r="N75" s="26"/>
       <c r="O75" s="26"/>
-      <c r="P75" s="26">
-        <v>423</v>
-      </c>
+      <c r="P75" s="26"/>
       <c r="Q75" s="26"/>
       <c r="R75" s="26"/>
-      <c r="S75" s="26">
-        <v>750</v>
-      </c>
-      <c r="T75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26">
+        <v>423</v>
+      </c>
       <c r="U75" s="26"/>
       <c r="V75" s="26"/>
-      <c r="W75" s="26"/>
+      <c r="W75" s="26">
+        <v>750</v>
+      </c>
       <c r="X75" s="26"/>
       <c r="Y75" s="26"/>
-      <c r="Z75" s="26" t="s">
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>83</v>
       </c>
@@ -6125,25 +6435,29 @@
       <c r="M76" s="26"/>
       <c r="N76" s="26"/>
       <c r="O76" s="26"/>
-      <c r="P76" s="26">
-        <v>673</v>
-      </c>
+      <c r="P76" s="26"/>
       <c r="Q76" s="26"/>
       <c r="R76" s="26"/>
-      <c r="S76" s="26">
-        <v>750</v>
-      </c>
-      <c r="T76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26">
+        <v>673</v>
+      </c>
       <c r="U76" s="26"/>
       <c r="V76" s="26"/>
-      <c r="W76" s="26"/>
+      <c r="W76" s="26">
+        <v>750</v>
+      </c>
       <c r="X76" s="26"/>
       <c r="Y76" s="26"/>
-      <c r="Z76" s="26" t="s">
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="26"/>
+      <c r="AC76" s="26"/>
+      <c r="AD76" s="26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
         <v>139</v>
       </c>
@@ -6173,25 +6487,29 @@
       <c r="M77" s="26"/>
       <c r="N77" s="26"/>
       <c r="O77" s="26"/>
-      <c r="P77" s="26">
-        <v>423</v>
-      </c>
+      <c r="P77" s="26"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="26"/>
-      <c r="S77" s="26">
-        <v>750</v>
-      </c>
-      <c r="T77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26">
+        <v>423</v>
+      </c>
       <c r="U77" s="26"/>
       <c r="V77" s="26"/>
-      <c r="W77" s="26"/>
+      <c r="W77" s="26">
+        <v>750</v>
+      </c>
       <c r="X77" s="26"/>
       <c r="Y77" s="26"/>
-      <c r="Z77" s="26" t="s">
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="26"/>
+      <c r="AC77" s="26"/>
+      <c r="AD77" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
         <v>139</v>
       </c>
@@ -6221,25 +6539,29 @@
       <c r="M78" s="26"/>
       <c r="N78" s="26"/>
       <c r="O78" s="26"/>
-      <c r="P78" s="26">
-        <v>673</v>
-      </c>
+      <c r="P78" s="26"/>
       <c r="Q78" s="26"/>
       <c r="R78" s="26"/>
-      <c r="S78" s="26">
-        <v>750</v>
-      </c>
-      <c r="T78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26">
+        <v>673</v>
+      </c>
       <c r="U78" s="26"/>
       <c r="V78" s="26"/>
-      <c r="W78" s="26"/>
+      <c r="W78" s="26">
+        <v>750</v>
+      </c>
       <c r="X78" s="26"/>
       <c r="Y78" s="26"/>
-      <c r="Z78" s="26" t="s">
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="26"/>
+      <c r="AB78" s="26"/>
+      <c r="AC78" s="26"/>
+      <c r="AD78" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>83</v>
       </c>
@@ -6282,24 +6604,28 @@
         <v>30</v>
       </c>
       <c r="P79" s="30"/>
-      <c r="Q79" s="30">
-        <v>17</v>
-      </c>
-      <c r="R79" s="30">
-        <v>76.5</v>
-      </c>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
       <c r="S79" s="30"/>
       <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="30"/>
+      <c r="U79" s="30">
+        <v>17</v>
+      </c>
+      <c r="V79" s="30">
+        <v>76.5</v>
+      </c>
       <c r="W79" s="30"/>
       <c r="X79" s="30"/>
       <c r="Y79" s="30"/>
-      <c r="Z79" s="30" t="s">
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>83</v>
       </c>
@@ -6337,25 +6663,29 @@
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
       <c r="O80" s="32"/>
-      <c r="P80" s="32">
-        <v>298</v>
-      </c>
+      <c r="P80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="R80" s="32"/>
-      <c r="S80" s="32">
-        <v>500</v>
-      </c>
-      <c r="T80" s="32"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32">
+        <v>298</v>
+      </c>
       <c r="U80" s="32"/>
       <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
+      <c r="W80" s="32">
+        <v>500</v>
+      </c>
       <c r="X80" s="32"/>
       <c r="Y80" s="32"/>
-      <c r="Z80" s="32" t="s">
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
+      <c r="AD80" s="32" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="34" t="s">
         <v>83</v>
       </c>
@@ -6397,25 +6727,29 @@
       </c>
       <c r="N81" s="34"/>
       <c r="O81" s="34"/>
-      <c r="P81" s="34">
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34">
         <v>873</v>
       </c>
-      <c r="Q81" s="34">
-        <v>17</v>
-      </c>
-      <c r="R81" s="34">
+      <c r="U81" s="34">
+        <v>17</v>
+      </c>
+      <c r="V81" s="34">
         <v>76.5</v>
       </c>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="34"/>
       <c r="W81" s="34"/>
       <c r="X81" s="34"/>
       <c r="Y81" s="34"/>
       <c r="Z81" s="34"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="34"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="34"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
         <v>83</v>
       </c>
@@ -6457,25 +6791,29 @@
       </c>
       <c r="N82" s="34"/>
       <c r="O82" s="34"/>
-      <c r="P82" s="34">
+      <c r="P82" s="34"/>
+      <c r="Q82" s="34"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="34"/>
+      <c r="T82" s="34">
         <v>873</v>
       </c>
-      <c r="Q82" s="34">
-        <v>17</v>
-      </c>
-      <c r="R82" s="34">
+      <c r="U82" s="34">
+        <v>17</v>
+      </c>
+      <c r="V82" s="34">
         <v>76.5</v>
       </c>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="34"/>
       <c r="W82" s="34"/>
       <c r="X82" s="34"/>
       <c r="Y82" s="34"/>
       <c r="Z82" s="34"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
         <v>83</v>
       </c>
@@ -6517,25 +6855,29 @@
       </c>
       <c r="N83" s="34"/>
       <c r="O83" s="34"/>
-      <c r="P83" s="34">
+      <c r="P83" s="34"/>
+      <c r="Q83" s="34"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="34"/>
+      <c r="T83" s="34">
         <v>873</v>
       </c>
-      <c r="Q83" s="34">
-        <v>17</v>
-      </c>
-      <c r="R83" s="34">
+      <c r="U83" s="34">
+        <v>17</v>
+      </c>
+      <c r="V83" s="34">
         <v>76.5</v>
       </c>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="34"/>
       <c r="W83" s="34"/>
       <c r="X83" s="34"/>
       <c r="Y83" s="34"/>
       <c r="Z83" s="34"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA83" s="34"/>
+      <c r="AB83" s="34"/>
+      <c r="AC83" s="34"/>
+      <c r="AD83" s="34"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>83</v>
       </c>
@@ -6577,27 +6919,31 @@
       </c>
       <c r="N84" s="37"/>
       <c r="O84" s="37"/>
-      <c r="P84" s="37">
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37">
         <v>873</v>
       </c>
-      <c r="Q84" s="37">
-        <v>17</v>
-      </c>
-      <c r="R84" s="37">
+      <c r="U84" s="37">
+        <v>17</v>
+      </c>
+      <c r="V84" s="37">
         <v>76.5</v>
       </c>
-      <c r="S84" s="37"/>
-      <c r="T84" s="37"/>
-      <c r="U84" s="37"/>
-      <c r="V84" s="37"/>
       <c r="W84" s="37"/>
       <c r="X84" s="37"/>
       <c r="Y84" s="37"/>
-      <c r="Z84" s="37" t="s">
+      <c r="Z84" s="37"/>
+      <c r="AA84" s="37"/>
+      <c r="AB84" s="37"/>
+      <c r="AC84" s="37"/>
+      <c r="AD84" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>83</v>
       </c>
@@ -6639,27 +6985,31 @@
       </c>
       <c r="N85" s="37"/>
       <c r="O85" s="37"/>
-      <c r="P85" s="37">
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37">
         <v>873</v>
       </c>
-      <c r="Q85" s="37">
-        <v>17</v>
-      </c>
-      <c r="R85" s="37">
+      <c r="U85" s="37">
+        <v>17</v>
+      </c>
+      <c r="V85" s="37">
         <v>76.5</v>
       </c>
-      <c r="S85" s="37"/>
-      <c r="T85" s="37"/>
-      <c r="U85" s="37"/>
-      <c r="V85" s="37"/>
       <c r="W85" s="37"/>
       <c r="X85" s="37"/>
       <c r="Y85" s="37"/>
-      <c r="Z85" s="37" t="s">
+      <c r="Z85" s="37"/>
+      <c r="AA85" s="37"/>
+      <c r="AB85" s="37"/>
+      <c r="AC85" s="37"/>
+      <c r="AD85" s="37" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>83</v>
       </c>
@@ -6701,27 +7051,31 @@
       </c>
       <c r="N86" s="37"/>
       <c r="O86" s="37"/>
-      <c r="P86" s="37">
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37">
         <v>873</v>
       </c>
-      <c r="Q86" s="37">
-        <v>17</v>
-      </c>
-      <c r="R86" s="37">
+      <c r="U86" s="37">
+        <v>17</v>
+      </c>
+      <c r="V86" s="37">
         <v>76.5</v>
       </c>
-      <c r="S86" s="37"/>
-      <c r="T86" s="37"/>
-      <c r="U86" s="37"/>
-      <c r="V86" s="37"/>
       <c r="W86" s="37"/>
       <c r="X86" s="37"/>
       <c r="Y86" s="37"/>
-      <c r="Z86" s="37" t="s">
+      <c r="Z86" s="37"/>
+      <c r="AA86" s="37"/>
+      <c r="AB86" s="37"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="37" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>83</v>
       </c>
@@ -6763,27 +7117,31 @@
       </c>
       <c r="N87" s="37"/>
       <c r="O87" s="37"/>
-      <c r="P87" s="37">
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37">
         <v>873</v>
       </c>
-      <c r="Q87" s="37">
-        <v>17</v>
-      </c>
-      <c r="R87" s="37">
+      <c r="U87" s="37">
+        <v>17</v>
+      </c>
+      <c r="V87" s="37">
         <v>76.5</v>
       </c>
-      <c r="S87" s="37"/>
-      <c r="T87" s="37"/>
-      <c r="U87" s="37"/>
-      <c r="V87" s="37"/>
       <c r="W87" s="37"/>
       <c r="X87" s="37"/>
       <c r="Y87" s="37"/>
-      <c r="Z87" s="37" t="s">
+      <c r="Z87" s="37"/>
+      <c r="AA87" s="37"/>
+      <c r="AB87" s="37"/>
+      <c r="AC87" s="37"/>
+      <c r="AD87" s="37" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>83</v>
       </c>
@@ -6825,27 +7183,31 @@
       </c>
       <c r="N88" s="37"/>
       <c r="O88" s="37"/>
-      <c r="P88" s="37">
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37">
         <v>873</v>
       </c>
-      <c r="Q88" s="37">
-        <v>17</v>
-      </c>
-      <c r="R88" s="37">
+      <c r="U88" s="37">
+        <v>17</v>
+      </c>
+      <c r="V88" s="37">
         <v>76.5</v>
       </c>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
       <c r="W88" s="37"/>
       <c r="X88" s="37"/>
       <c r="Y88" s="37"/>
-      <c r="Z88" s="37" t="s">
+      <c r="Z88" s="37"/>
+      <c r="AA88" s="37"/>
+      <c r="AB88" s="37"/>
+      <c r="AC88" s="37"/>
+      <c r="AD88" s="37" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>83</v>
       </c>
@@ -6887,27 +7249,31 @@
       </c>
       <c r="N89" s="37"/>
       <c r="O89" s="37"/>
-      <c r="P89" s="37">
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37">
         <v>873</v>
       </c>
-      <c r="Q89" s="37">
-        <v>17</v>
-      </c>
-      <c r="R89" s="37">
+      <c r="U89" s="37">
+        <v>17</v>
+      </c>
+      <c r="V89" s="37">
         <v>76.5</v>
       </c>
-      <c r="S89" s="37"/>
-      <c r="T89" s="37"/>
-      <c r="U89" s="37"/>
-      <c r="V89" s="37"/>
       <c r="W89" s="37"/>
       <c r="X89" s="37"/>
       <c r="Y89" s="37"/>
-      <c r="Z89" s="37" t="s">
+      <c r="Z89" s="37"/>
+      <c r="AA89" s="37"/>
+      <c r="AB89" s="37"/>
+      <c r="AC89" s="37"/>
+      <c r="AD89" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>83</v>
       </c>
@@ -6949,27 +7315,31 @@
       </c>
       <c r="N90" s="40"/>
       <c r="O90" s="40"/>
-      <c r="P90" s="40">
+      <c r="P90" s="40"/>
+      <c r="Q90" s="40"/>
+      <c r="R90" s="40"/>
+      <c r="S90" s="40"/>
+      <c r="T90" s="40">
         <v>873</v>
       </c>
-      <c r="Q90" s="40">
-        <v>17</v>
-      </c>
-      <c r="R90" s="40">
+      <c r="U90" s="40">
+        <v>17</v>
+      </c>
+      <c r="V90" s="40">
         <v>76.5</v>
       </c>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
       <c r="W90" s="40"/>
       <c r="X90" s="40"/>
       <c r="Y90" s="40"/>
-      <c r="Z90" s="40" t="s">
+      <c r="Z90" s="40"/>
+      <c r="AA90" s="40"/>
+      <c r="AB90" s="40"/>
+      <c r="AC90" s="40"/>
+      <c r="AD90" s="40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>83</v>
       </c>
@@ -7007,27 +7377,31 @@
       </c>
       <c r="N91" s="45"/>
       <c r="O91" s="45"/>
-      <c r="P91" s="49">
+      <c r="P91" s="45"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="49">
         <v>873</v>
       </c>
-      <c r="Q91" s="49">
-        <v>17</v>
-      </c>
-      <c r="R91" s="49">
+      <c r="U91" s="49">
+        <v>17</v>
+      </c>
+      <c r="V91" s="49">
         <v>76.5</v>
       </c>
-      <c r="S91" s="49"/>
-      <c r="T91" s="49"/>
-      <c r="U91" s="49"/>
-      <c r="V91" s="49"/>
       <c r="W91" s="49"/>
       <c r="X91" s="49"/>
       <c r="Y91" s="49"/>
-      <c r="Z91" s="45" t="s">
+      <c r="Z91" s="49"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="49"/>
+      <c r="AD91" s="45" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="45" t="s">
         <v>83</v>
       </c>
@@ -7065,27 +7439,31 @@
       </c>
       <c r="N92" s="45"/>
       <c r="O92" s="45"/>
-      <c r="P92" s="49">
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="49">
         <v>873</v>
       </c>
-      <c r="Q92" s="49">
-        <v>17</v>
-      </c>
-      <c r="R92" s="49">
+      <c r="U92" s="49">
+        <v>17</v>
+      </c>
+      <c r="V92" s="49">
         <v>76.5</v>
       </c>
-      <c r="S92" s="49"/>
-      <c r="T92" s="49"/>
-      <c r="U92" s="49"/>
-      <c r="V92" s="49"/>
       <c r="W92" s="49"/>
       <c r="X92" s="49"/>
       <c r="Y92" s="49"/>
-      <c r="Z92" s="45" t="s">
+      <c r="Z92" s="49"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
+      <c r="AD92" s="45" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>83</v>
       </c>
@@ -7117,27 +7495,31 @@
       <c r="M93" s="50"/>
       <c r="N93" s="47"/>
       <c r="O93" s="47"/>
-      <c r="P93" s="50">
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="47"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="50">
         <v>298</v>
       </c>
-      <c r="Q93" s="50">
+      <c r="U93" s="50">
         <v>0</v>
       </c>
-      <c r="R93" s="50">
+      <c r="V93" s="50">
         <v>0</v>
       </c>
-      <c r="S93" s="50"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="50"/>
-      <c r="V93" s="50"/>
       <c r="W93" s="50"/>
       <c r="X93" s="50"/>
       <c r="Y93" s="50"/>
-      <c r="Z93" s="47" t="s">
+      <c r="Z93" s="50"/>
+      <c r="AA93" s="50"/>
+      <c r="AB93" s="50"/>
+      <c r="AC93" s="50"/>
+      <c r="AD93" s="47" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>83</v>
       </c>
@@ -7169,27 +7551,31 @@
       <c r="M94" s="50"/>
       <c r="N94" s="47"/>
       <c r="O94" s="47"/>
-      <c r="P94" s="50">
+      <c r="P94" s="47"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="47"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="50">
         <v>298</v>
       </c>
-      <c r="Q94" s="50">
+      <c r="U94" s="50">
         <v>0</v>
       </c>
-      <c r="R94" s="50">
+      <c r="V94" s="50">
         <v>0</v>
       </c>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="50"/>
       <c r="W94" s="50"/>
       <c r="X94" s="50"/>
       <c r="Y94" s="50"/>
-      <c r="Z94" s="47" t="s">
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+      <c r="AD94" s="47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
         <v>83</v>
       </c>
@@ -7229,27 +7615,31 @@
       </c>
       <c r="N95" s="43"/>
       <c r="O95" s="43"/>
-      <c r="P95" s="43">
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43">
         <v>298</v>
       </c>
-      <c r="Q95" s="43">
-        <v>17</v>
-      </c>
-      <c r="R95" s="43">
+      <c r="U95" s="43">
+        <v>17</v>
+      </c>
+      <c r="V95" s="43">
         <v>76.5</v>
       </c>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
       <c r="W95" s="43"/>
       <c r="X95" s="43"/>
       <c r="Y95" s="43"/>
-      <c r="Z95" s="43" t="s">
+      <c r="Z95" s="43"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="43"/>
+      <c r="AD95" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
         <v>83</v>
       </c>
@@ -7289,27 +7679,31 @@
       </c>
       <c r="N96" s="43"/>
       <c r="O96" s="43"/>
-      <c r="P96" s="43">
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43">
         <v>298</v>
       </c>
-      <c r="Q96" s="43">
-        <v>17</v>
-      </c>
-      <c r="R96" s="43">
+      <c r="U96" s="43">
+        <v>17</v>
+      </c>
+      <c r="V96" s="43">
         <v>76.5</v>
       </c>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
       <c r="W96" s="43"/>
       <c r="X96" s="43"/>
       <c r="Y96" s="43"/>
-      <c r="Z96" s="43" t="s">
+      <c r="Z96" s="43"/>
+      <c r="AA96" s="43"/>
+      <c r="AB96" s="43"/>
+      <c r="AC96" s="43"/>
+      <c r="AD96" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="43" t="s">
         <v>83</v>
       </c>
@@ -7349,27 +7743,31 @@
       </c>
       <c r="N97" s="43"/>
       <c r="O97" s="43"/>
-      <c r="P97" s="43">
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43">
         <v>298</v>
       </c>
-      <c r="Q97" s="43">
-        <v>17</v>
-      </c>
-      <c r="R97" s="43">
+      <c r="U97" s="43">
+        <v>17</v>
+      </c>
+      <c r="V97" s="43">
         <v>76.5</v>
       </c>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
       <c r="W97" s="43"/>
       <c r="X97" s="43"/>
       <c r="Y97" s="43"/>
-      <c r="Z97" s="43" t="s">
+      <c r="Z97" s="43"/>
+      <c r="AA97" s="43"/>
+      <c r="AB97" s="43"/>
+      <c r="AC97" s="43"/>
+      <c r="AD97" s="43" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
         <v>83</v>
       </c>
@@ -7409,27 +7807,31 @@
       </c>
       <c r="N98" s="43"/>
       <c r="O98" s="43"/>
-      <c r="P98" s="51">
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="51">
         <v>298</v>
       </c>
-      <c r="Q98" s="51">
-        <v>17</v>
-      </c>
-      <c r="R98" s="51">
+      <c r="U98" s="51">
+        <v>17</v>
+      </c>
+      <c r="V98" s="51">
         <v>76.5</v>
       </c>
-      <c r="S98" s="51"/>
-      <c r="T98" s="51"/>
-      <c r="U98" s="51"/>
-      <c r="V98" s="51"/>
       <c r="W98" s="51"/>
       <c r="X98" s="51"/>
       <c r="Y98" s="51"/>
-      <c r="Z98" s="43" t="s">
+      <c r="Z98" s="51"/>
+      <c r="AA98" s="51"/>
+      <c r="AB98" s="51"/>
+      <c r="AC98" s="51"/>
+      <c r="AD98" s="43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="52" t="s">
         <v>83</v>
       </c>
@@ -7468,27 +7870,31 @@
       </c>
       <c r="N99" s="54"/>
       <c r="O99" s="54"/>
-      <c r="P99" s="55">
+      <c r="P99" s="54"/>
+      <c r="Q99" s="54"/>
+      <c r="R99" s="54"/>
+      <c r="S99" s="54"/>
+      <c r="T99" s="55">
         <v>873</v>
       </c>
-      <c r="Q99" s="55">
-        <v>17</v>
-      </c>
-      <c r="R99" s="55">
+      <c r="U99" s="55">
+        <v>17</v>
+      </c>
+      <c r="V99" s="55">
         <v>76.5</v>
       </c>
-      <c r="S99" s="55"/>
-      <c r="T99" s="55"/>
-      <c r="U99" s="55"/>
-      <c r="V99" s="55"/>
       <c r="W99" s="55"/>
       <c r="X99" s="55"/>
       <c r="Y99" s="55"/>
-      <c r="Z99" s="54" t="s">
+      <c r="Z99" s="55"/>
+      <c r="AA99" s="55"/>
+      <c r="AB99" s="55"/>
+      <c r="AC99" s="55"/>
+      <c r="AD99" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
         <v>83</v>
       </c>
@@ -7527,27 +7933,31 @@
       </c>
       <c r="N100" s="54"/>
       <c r="O100" s="54"/>
-      <c r="P100" s="55">
+      <c r="P100" s="54"/>
+      <c r="Q100" s="54"/>
+      <c r="R100" s="54"/>
+      <c r="S100" s="54"/>
+      <c r="T100" s="55">
         <v>873</v>
       </c>
-      <c r="Q100" s="55">
-        <v>17</v>
-      </c>
-      <c r="R100" s="55">
+      <c r="U100" s="55">
+        <v>17</v>
+      </c>
+      <c r="V100" s="55">
         <v>76.5</v>
       </c>
-      <c r="S100" s="55"/>
-      <c r="T100" s="55"/>
-      <c r="U100" s="55"/>
-      <c r="V100" s="55"/>
       <c r="W100" s="55"/>
       <c r="X100" s="55"/>
       <c r="Y100" s="55"/>
-      <c r="Z100" s="54" t="s">
+      <c r="Z100" s="55"/>
+      <c r="AA100" s="55"/>
+      <c r="AB100" s="55"/>
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="52" t="s">
         <v>83</v>
       </c>
@@ -7586,27 +7996,31 @@
       </c>
       <c r="N101" s="54"/>
       <c r="O101" s="54"/>
-      <c r="P101" s="55">
+      <c r="P101" s="54"/>
+      <c r="Q101" s="54"/>
+      <c r="R101" s="54"/>
+      <c r="S101" s="54"/>
+      <c r="T101" s="55">
         <v>873</v>
       </c>
-      <c r="Q101" s="55">
-        <v>17</v>
-      </c>
-      <c r="R101" s="55">
+      <c r="U101" s="55">
+        <v>17</v>
+      </c>
+      <c r="V101" s="55">
         <v>76.5</v>
       </c>
-      <c r="S101" s="55"/>
-      <c r="T101" s="55"/>
-      <c r="U101" s="55"/>
-      <c r="V101" s="55"/>
       <c r="W101" s="55"/>
       <c r="X101" s="55"/>
       <c r="Y101" s="55"/>
-      <c r="Z101" s="54" t="s">
+      <c r="Z101" s="55"/>
+      <c r="AA101" s="55"/>
+      <c r="AB101" s="55"/>
+      <c r="AC101" s="55"/>
+      <c r="AD101" s="54" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="56" t="s">
         <v>83</v>
       </c>
@@ -7646,27 +8060,31 @@
       </c>
       <c r="N102" s="58"/>
       <c r="O102" s="58"/>
-      <c r="P102" s="59">
+      <c r="P102" s="58"/>
+      <c r="Q102" s="58"/>
+      <c r="R102" s="58"/>
+      <c r="S102" s="58"/>
+      <c r="T102" s="59">
         <v>873</v>
       </c>
-      <c r="Q102" s="59">
-        <v>17</v>
-      </c>
-      <c r="R102" s="59">
+      <c r="U102" s="59">
+        <v>17</v>
+      </c>
+      <c r="V102" s="59">
         <v>76.5</v>
       </c>
-      <c r="S102" s="59"/>
-      <c r="T102" s="59"/>
-      <c r="U102" s="59"/>
-      <c r="V102" s="59"/>
       <c r="W102" s="59"/>
       <c r="X102" s="59"/>
       <c r="Y102" s="59"/>
-      <c r="Z102" s="58" t="s">
+      <c r="Z102" s="59"/>
+      <c r="AA102" s="59"/>
+      <c r="AB102" s="59"/>
+      <c r="AC102" s="59"/>
+      <c r="AD102" s="58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="56" t="s">
         <v>83</v>
       </c>
@@ -7706,27 +8124,31 @@
       </c>
       <c r="N103" s="58"/>
       <c r="O103" s="58"/>
-      <c r="P103" s="59">
+      <c r="P103" s="58"/>
+      <c r="Q103" s="58"/>
+      <c r="R103" s="58"/>
+      <c r="S103" s="58"/>
+      <c r="T103" s="59">
         <v>873</v>
       </c>
-      <c r="Q103" s="59">
-        <v>17</v>
-      </c>
-      <c r="R103" s="59">
+      <c r="U103" s="59">
+        <v>17</v>
+      </c>
+      <c r="V103" s="59">
         <v>76.5</v>
       </c>
-      <c r="S103" s="59"/>
-      <c r="T103" s="59"/>
-      <c r="U103" s="59"/>
-      <c r="V103" s="59"/>
       <c r="W103" s="59"/>
       <c r="X103" s="59"/>
       <c r="Y103" s="59"/>
-      <c r="Z103" s="58" t="s">
+      <c r="Z103" s="59"/>
+      <c r="AA103" s="59"/>
+      <c r="AB103" s="59"/>
+      <c r="AC103" s="59"/>
+      <c r="AD103" s="58" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="56" t="s">
         <v>83</v>
       </c>
@@ -7766,27 +8188,31 @@
       </c>
       <c r="N104" s="58"/>
       <c r="O104" s="58"/>
-      <c r="P104" s="59">
+      <c r="P104" s="58"/>
+      <c r="Q104" s="58"/>
+      <c r="R104" s="58"/>
+      <c r="S104" s="58"/>
+      <c r="T104" s="59">
         <v>873</v>
       </c>
-      <c r="Q104" s="59">
-        <v>17</v>
-      </c>
-      <c r="R104" s="59">
+      <c r="U104" s="59">
+        <v>17</v>
+      </c>
+      <c r="V104" s="59">
         <v>76.5</v>
       </c>
-      <c r="S104" s="59"/>
-      <c r="T104" s="59"/>
-      <c r="U104" s="59"/>
-      <c r="V104" s="59"/>
       <c r="W104" s="59"/>
       <c r="X104" s="59"/>
       <c r="Y104" s="59"/>
-      <c r="Z104" s="58" t="s">
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="59"/>
+      <c r="AB104" s="59"/>
+      <c r="AC104" s="59"/>
+      <c r="AD104" s="58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="56" t="s">
         <v>83</v>
       </c>
@@ -7826,27 +8252,31 @@
       </c>
       <c r="N105" s="58"/>
       <c r="O105" s="58"/>
-      <c r="P105" s="59">
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="58"/>
+      <c r="S105" s="58"/>
+      <c r="T105" s="59">
         <v>298</v>
       </c>
-      <c r="Q105" s="59">
-        <v>17</v>
-      </c>
-      <c r="R105" s="59">
+      <c r="U105" s="59">
+        <v>17</v>
+      </c>
+      <c r="V105" s="59">
         <v>76.5</v>
       </c>
-      <c r="S105" s="59"/>
-      <c r="T105" s="59"/>
-      <c r="U105" s="59"/>
-      <c r="V105" s="59"/>
       <c r="W105" s="59"/>
       <c r="X105" s="59"/>
       <c r="Y105" s="59"/>
-      <c r="Z105" s="58" t="s">
+      <c r="Z105" s="59"/>
+      <c r="AA105" s="59"/>
+      <c r="AB105" s="59"/>
+      <c r="AC105" s="59"/>
+      <c r="AD105" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="56" t="s">
         <v>83</v>
       </c>
@@ -7886,27 +8316,31 @@
       </c>
       <c r="N106" s="58"/>
       <c r="O106" s="58"/>
-      <c r="P106" s="59">
+      <c r="P106" s="58"/>
+      <c r="Q106" s="58"/>
+      <c r="R106" s="58"/>
+      <c r="S106" s="58"/>
+      <c r="T106" s="59">
         <v>298</v>
       </c>
-      <c r="Q106" s="59">
-        <v>17</v>
-      </c>
-      <c r="R106" s="59">
+      <c r="U106" s="59">
+        <v>17</v>
+      </c>
+      <c r="V106" s="59">
         <v>76.5</v>
       </c>
-      <c r="S106" s="59"/>
-      <c r="T106" s="59"/>
-      <c r="U106" s="59"/>
-      <c r="V106" s="59"/>
       <c r="W106" s="59"/>
       <c r="X106" s="59"/>
       <c r="Y106" s="59"/>
-      <c r="Z106" s="58" t="s">
+      <c r="Z106" s="59"/>
+      <c r="AA106" s="59"/>
+      <c r="AB106" s="59"/>
+      <c r="AC106" s="59"/>
+      <c r="AD106" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="56" t="s">
         <v>83</v>
       </c>
@@ -7946,27 +8380,31 @@
       </c>
       <c r="N107" s="58"/>
       <c r="O107" s="58"/>
-      <c r="P107" s="59">
+      <c r="P107" s="58"/>
+      <c r="Q107" s="58"/>
+      <c r="R107" s="58"/>
+      <c r="S107" s="58"/>
+      <c r="T107" s="59">
         <v>298</v>
       </c>
-      <c r="Q107" s="59">
-        <v>17</v>
-      </c>
-      <c r="R107" s="59">
+      <c r="U107" s="59">
+        <v>17</v>
+      </c>
+      <c r="V107" s="59">
         <v>76.5</v>
       </c>
-      <c r="S107" s="59"/>
-      <c r="T107" s="59"/>
-      <c r="U107" s="59"/>
-      <c r="V107" s="59"/>
       <c r="W107" s="59"/>
       <c r="X107" s="59"/>
       <c r="Y107" s="59"/>
-      <c r="Z107" s="58" t="s">
+      <c r="Z107" s="59"/>
+      <c r="AA107" s="59"/>
+      <c r="AB107" s="59"/>
+      <c r="AC107" s="59"/>
+      <c r="AD107" s="58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="56" t="s">
         <v>83</v>
       </c>
@@ -8006,27 +8444,31 @@
       </c>
       <c r="N108" s="58"/>
       <c r="O108" s="58"/>
-      <c r="P108" s="59">
+      <c r="P108" s="58"/>
+      <c r="Q108" s="58"/>
+      <c r="R108" s="58"/>
+      <c r="S108" s="58"/>
+      <c r="T108" s="59">
         <v>873</v>
       </c>
-      <c r="Q108" s="59">
-        <v>17</v>
-      </c>
-      <c r="R108" s="59">
+      <c r="U108" s="59">
+        <v>17</v>
+      </c>
+      <c r="V108" s="59">
         <v>76.5</v>
       </c>
-      <c r="S108" s="59"/>
-      <c r="T108" s="59"/>
-      <c r="U108" s="59"/>
-      <c r="V108" s="59"/>
       <c r="W108" s="59"/>
       <c r="X108" s="59"/>
       <c r="Y108" s="59"/>
-      <c r="Z108" s="58" t="s">
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="59"/>
+      <c r="AB108" s="59"/>
+      <c r="AC108" s="59"/>
+      <c r="AD108" s="58" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="56" t="s">
         <v>83</v>
       </c>
@@ -8066,27 +8508,31 @@
       </c>
       <c r="N109" s="58"/>
       <c r="O109" s="58"/>
-      <c r="P109" s="59">
+      <c r="P109" s="58"/>
+      <c r="Q109" s="58"/>
+      <c r="R109" s="58"/>
+      <c r="S109" s="58"/>
+      <c r="T109" s="59">
         <v>873</v>
       </c>
-      <c r="Q109" s="59">
-        <v>17</v>
-      </c>
-      <c r="R109" s="59">
+      <c r="U109" s="59">
+        <v>17</v>
+      </c>
+      <c r="V109" s="59">
         <v>76.5</v>
       </c>
-      <c r="S109" s="59"/>
-      <c r="T109" s="59"/>
-      <c r="U109" s="59"/>
-      <c r="V109" s="59"/>
       <c r="W109" s="59"/>
       <c r="X109" s="59"/>
       <c r="Y109" s="59"/>
-      <c r="Z109" s="58" t="s">
+      <c r="Z109" s="59"/>
+      <c r="AA109" s="59"/>
+      <c r="AB109" s="59"/>
+      <c r="AC109" s="59"/>
+      <c r="AD109" s="58" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="56" t="s">
         <v>83</v>
       </c>
@@ -8126,27 +8572,31 @@
       </c>
       <c r="N110" s="58"/>
       <c r="O110" s="58"/>
-      <c r="P110" s="59">
+      <c r="P110" s="58"/>
+      <c r="Q110" s="58"/>
+      <c r="R110" s="58"/>
+      <c r="S110" s="58"/>
+      <c r="T110" s="59">
         <v>873</v>
       </c>
-      <c r="Q110" s="59">
-        <v>17</v>
-      </c>
-      <c r="R110" s="59">
+      <c r="U110" s="59">
+        <v>17</v>
+      </c>
+      <c r="V110" s="59">
         <v>76.5</v>
       </c>
-      <c r="S110" s="59"/>
-      <c r="T110" s="59"/>
-      <c r="U110" s="59"/>
-      <c r="V110" s="59"/>
       <c r="W110" s="59"/>
       <c r="X110" s="59"/>
       <c r="Y110" s="59"/>
-      <c r="Z110" s="58" t="s">
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
+      <c r="AB110" s="59"/>
+      <c r="AC110" s="59"/>
+      <c r="AD110" s="58" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="56" t="s">
         <v>83</v>
       </c>
@@ -8186,27 +8636,31 @@
       </c>
       <c r="N111" s="58"/>
       <c r="O111" s="58"/>
-      <c r="P111" s="59">
+      <c r="P111" s="58"/>
+      <c r="Q111" s="58"/>
+      <c r="R111" s="58"/>
+      <c r="S111" s="58"/>
+      <c r="T111" s="59">
         <v>873</v>
       </c>
-      <c r="Q111" s="59">
-        <v>17</v>
-      </c>
-      <c r="R111" s="59">
+      <c r="U111" s="59">
+        <v>17</v>
+      </c>
+      <c r="V111" s="59">
         <v>76.5</v>
       </c>
-      <c r="S111" s="59"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="59"/>
-      <c r="V111" s="59"/>
       <c r="W111" s="59"/>
       <c r="X111" s="59"/>
       <c r="Y111" s="59"/>
-      <c r="Z111" s="58" t="s">
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
+      <c r="AB111" s="59"/>
+      <c r="AC111" s="59"/>
+      <c r="AD111" s="58" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="56" t="s">
         <v>83</v>
       </c>
@@ -8246,27 +8700,31 @@
       </c>
       <c r="N112" s="58"/>
       <c r="O112" s="58"/>
-      <c r="P112" s="59">
+      <c r="P112" s="58"/>
+      <c r="Q112" s="58"/>
+      <c r="R112" s="58"/>
+      <c r="S112" s="58"/>
+      <c r="T112" s="59">
         <v>873</v>
       </c>
-      <c r="Q112" s="59">
-        <v>17</v>
-      </c>
-      <c r="R112" s="59">
+      <c r="U112" s="59">
+        <v>17</v>
+      </c>
+      <c r="V112" s="59">
         <v>76.5</v>
       </c>
-      <c r="S112" s="59"/>
-      <c r="T112" s="59"/>
-      <c r="U112" s="59"/>
-      <c r="V112" s="59"/>
       <c r="W112" s="59"/>
       <c r="X112" s="59"/>
       <c r="Y112" s="59"/>
-      <c r="Z112" s="58" t="s">
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
+      <c r="AB112" s="59"/>
+      <c r="AC112" s="59"/>
+      <c r="AD112" s="58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="56" t="s">
         <v>83</v>
       </c>
@@ -8306,27 +8764,31 @@
       </c>
       <c r="N113" s="58"/>
       <c r="O113" s="58"/>
-      <c r="P113" s="59">
+      <c r="P113" s="58"/>
+      <c r="Q113" s="58"/>
+      <c r="R113" s="58"/>
+      <c r="S113" s="58"/>
+      <c r="T113" s="59">
         <v>873</v>
       </c>
-      <c r="Q113" s="59">
-        <v>17</v>
-      </c>
-      <c r="R113" s="59">
+      <c r="U113" s="59">
+        <v>17</v>
+      </c>
+      <c r="V113" s="59">
         <v>76.5</v>
       </c>
-      <c r="S113" s="59"/>
-      <c r="T113" s="59"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="59"/>
       <c r="W113" s="59"/>
       <c r="X113" s="59"/>
       <c r="Y113" s="59"/>
-      <c r="Z113" s="58" t="s">
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="59"/>
+      <c r="AB113" s="59"/>
+      <c r="AC113" s="59"/>
+      <c r="AD113" s="58" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="60" t="s">
         <v>83</v>
       </c>
@@ -8362,27 +8824,31 @@
       <c r="M114" s="63"/>
       <c r="N114" s="60"/>
       <c r="O114" s="60"/>
-      <c r="P114" s="63">
+      <c r="P114" s="60"/>
+      <c r="Q114" s="60"/>
+      <c r="R114" s="60"/>
+      <c r="S114" s="60"/>
+      <c r="T114" s="63">
         <v>873</v>
       </c>
-      <c r="Q114" s="63">
-        <v>17</v>
-      </c>
-      <c r="R114" s="63">
+      <c r="U114" s="63">
+        <v>17</v>
+      </c>
+      <c r="V114" s="63">
         <v>76.5</v>
       </c>
-      <c r="S114" s="63"/>
-      <c r="T114" s="63"/>
-      <c r="U114" s="63"/>
-      <c r="V114" s="63"/>
       <c r="W114" s="63"/>
       <c r="X114" s="63"/>
       <c r="Y114" s="63"/>
-      <c r="Z114" s="62" t="s">
+      <c r="Z114" s="63"/>
+      <c r="AA114" s="63"/>
+      <c r="AB114" s="63"/>
+      <c r="AC114" s="63"/>
+      <c r="AD114" s="62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
         <v>83</v>
       </c>
@@ -8418,27 +8884,31 @@
       </c>
       <c r="N115" s="34"/>
       <c r="O115" s="34"/>
-      <c r="P115" s="65">
+      <c r="P115" s="34"/>
+      <c r="Q115" s="34"/>
+      <c r="R115" s="34"/>
+      <c r="S115" s="34"/>
+      <c r="T115" s="65">
         <v>873</v>
       </c>
-      <c r="Q115" s="65">
-        <v>17</v>
-      </c>
-      <c r="R115" s="65">
+      <c r="U115" s="65">
+        <v>17</v>
+      </c>
+      <c r="V115" s="65">
         <v>76.5</v>
       </c>
-      <c r="S115" s="65"/>
-      <c r="T115" s="65"/>
-      <c r="U115" s="65"/>
-      <c r="V115" s="65"/>
       <c r="W115" s="65"/>
       <c r="X115" s="65"/>
       <c r="Y115" s="65"/>
-      <c r="Z115" s="34" t="s">
+      <c r="Z115" s="65"/>
+      <c r="AA115" s="65"/>
+      <c r="AB115" s="65"/>
+      <c r="AC115" s="65"/>
+      <c r="AD115" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="34" t="s">
         <v>83</v>
       </c>
@@ -8474,27 +8944,31 @@
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
-      <c r="P116" s="65">
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="65">
         <v>873</v>
       </c>
-      <c r="Q116" s="65">
-        <v>17</v>
-      </c>
-      <c r="R116" s="65">
+      <c r="U116" s="65">
+        <v>17</v>
+      </c>
+      <c r="V116" s="65">
         <v>76.5</v>
       </c>
-      <c r="S116" s="65"/>
-      <c r="T116" s="65"/>
-      <c r="U116" s="65"/>
-      <c r="V116" s="65"/>
       <c r="W116" s="65"/>
       <c r="X116" s="65"/>
       <c r="Y116" s="65"/>
-      <c r="Z116" s="34" t="s">
+      <c r="Z116" s="65"/>
+      <c r="AA116" s="65"/>
+      <c r="AB116" s="65"/>
+      <c r="AC116" s="65"/>
+      <c r="AD116" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="34" t="s">
         <v>83</v>
       </c>
@@ -8530,27 +9004,31 @@
       </c>
       <c r="N117" s="34"/>
       <c r="O117" s="34"/>
-      <c r="P117" s="65">
+      <c r="P117" s="34"/>
+      <c r="Q117" s="34"/>
+      <c r="R117" s="34"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="65">
         <v>873</v>
       </c>
-      <c r="Q117" s="65">
-        <v>17</v>
-      </c>
-      <c r="R117" s="65">
+      <c r="U117" s="65">
+        <v>17</v>
+      </c>
+      <c r="V117" s="65">
         <v>76.5</v>
       </c>
-      <c r="S117" s="65"/>
-      <c r="T117" s="65"/>
-      <c r="U117" s="65"/>
-      <c r="V117" s="65"/>
       <c r="W117" s="65"/>
       <c r="X117" s="65"/>
       <c r="Y117" s="65"/>
-      <c r="Z117" s="34" t="s">
+      <c r="Z117" s="65"/>
+      <c r="AA117" s="65"/>
+      <c r="AB117" s="65"/>
+      <c r="AC117" s="65"/>
+      <c r="AD117" s="34" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="66" t="s">
         <v>83</v>
       </c>
@@ -8584,37 +9062,41 @@
       </c>
       <c r="N118" s="66"/>
       <c r="O118" s="66"/>
-      <c r="P118" s="69">
+      <c r="P118" s="66"/>
+      <c r="Q118" s="66"/>
+      <c r="R118" s="66"/>
+      <c r="S118" s="66"/>
+      <c r="T118" s="69">
         <v>298</v>
       </c>
-      <c r="Q118" s="69">
-        <v>17</v>
-      </c>
-      <c r="R118" s="66">
+      <c r="U118" s="69">
+        <v>17</v>
+      </c>
+      <c r="V118" s="66">
         <v>76.5</v>
       </c>
-      <c r="S118" s="66"/>
-      <c r="T118" s="66" t="s">
+      <c r="W118" s="66"/>
+      <c r="X118" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="U118" s="66">
+      <c r="Y118" s="66">
         <v>15</v>
       </c>
-      <c r="V118" s="66"/>
-      <c r="W118" s="66">
+      <c r="Z118" s="66"/>
+      <c r="AA118" s="66">
         <v>0</v>
       </c>
-      <c r="X118" s="66">
+      <c r="AB118" s="66">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y118" s="66">
+      <c r="AC118" s="66">
         <v>50</v>
       </c>
-      <c r="Z118" s="66" t="s">
+      <c r="AD118" s="66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="66" t="s">
         <v>83</v>
       </c>
@@ -8648,37 +9130,41 @@
       </c>
       <c r="N119" s="66"/>
       <c r="O119" s="66"/>
-      <c r="P119" s="69">
+      <c r="P119" s="66"/>
+      <c r="Q119" s="66"/>
+      <c r="R119" s="66"/>
+      <c r="S119" s="66"/>
+      <c r="T119" s="69">
         <v>298</v>
       </c>
-      <c r="Q119" s="69">
-        <v>17</v>
-      </c>
-      <c r="R119" s="66">
+      <c r="U119" s="69">
+        <v>17</v>
+      </c>
+      <c r="V119" s="66">
         <v>76.5</v>
       </c>
-      <c r="S119" s="66"/>
-      <c r="T119" s="66" t="s">
+      <c r="W119" s="66"/>
+      <c r="X119" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="U119" s="66">
+      <c r="Y119" s="66">
         <v>15</v>
       </c>
-      <c r="V119" s="66"/>
-      <c r="W119" s="66">
+      <c r="Z119" s="66"/>
+      <c r="AA119" s="66">
         <v>0</v>
       </c>
-      <c r="X119" s="66">
+      <c r="AB119" s="66">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y119" s="66">
+      <c r="AC119" s="66">
         <v>50</v>
       </c>
-      <c r="Z119" s="66" t="s">
+      <c r="AD119" s="66" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="66" t="s">
         <v>83</v>
       </c>
@@ -8712,39 +9198,43 @@
       </c>
       <c r="N120" s="66"/>
       <c r="O120" s="66"/>
-      <c r="P120" s="69">
+      <c r="P120" s="66"/>
+      <c r="Q120" s="66"/>
+      <c r="R120" s="66"/>
+      <c r="S120" s="66"/>
+      <c r="T120" s="69">
         <v>298</v>
       </c>
-      <c r="Q120" s="69">
-        <v>17</v>
-      </c>
-      <c r="R120" s="66">
+      <c r="U120" s="69">
+        <v>17</v>
+      </c>
+      <c r="V120" s="66">
         <v>76.5</v>
       </c>
-      <c r="S120" s="66"/>
-      <c r="T120" s="66" t="s">
+      <c r="W120" s="66"/>
+      <c r="X120" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="U120" s="66">
+      <c r="Y120" s="66">
         <v>90</v>
       </c>
-      <c r="V120" s="66" t="s">
+      <c r="Z120" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="W120" s="66">
+      <c r="AA120" s="66">
         <v>10</v>
       </c>
-      <c r="X120" s="66">
+      <c r="AB120" s="66">
         <v>0.01</v>
       </c>
-      <c r="Y120" s="66">
+      <c r="AC120" s="66">
         <v>50</v>
       </c>
-      <c r="Z120" s="66" t="s">
+      <c r="AD120" s="66" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="40" t="s">
         <v>83</v>
       </c>
@@ -8780,27 +9270,31 @@
       </c>
       <c r="N121" s="40"/>
       <c r="O121" s="40"/>
-      <c r="P121" s="71">
+      <c r="P121" s="40"/>
+      <c r="Q121" s="40"/>
+      <c r="R121" s="40"/>
+      <c r="S121" s="40"/>
+      <c r="T121" s="71">
         <v>873</v>
       </c>
-      <c r="Q121" s="71">
-        <v>17</v>
-      </c>
-      <c r="R121" s="40">
+      <c r="U121" s="71">
+        <v>17</v>
+      </c>
+      <c r="V121" s="40">
         <v>76.5</v>
       </c>
-      <c r="S121" s="40"/>
-      <c r="T121" s="40"/>
-      <c r="U121" s="40"/>
-      <c r="V121" s="40"/>
       <c r="W121" s="40"/>
       <c r="X121" s="40"/>
       <c r="Y121" s="40"/>
-      <c r="Z121" s="40" t="s">
+      <c r="Z121" s="40"/>
+      <c r="AA121" s="40"/>
+      <c r="AB121" s="40"/>
+      <c r="AC121" s="40"/>
+      <c r="AD121" s="40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="s">
         <v>83</v>
       </c>
@@ -8836,27 +9330,31 @@
       </c>
       <c r="N122" s="40"/>
       <c r="O122" s="40"/>
-      <c r="P122" s="71">
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="40"/>
+      <c r="S122" s="40"/>
+      <c r="T122" s="71">
         <v>873</v>
       </c>
-      <c r="Q122" s="71">
-        <v>17</v>
-      </c>
-      <c r="R122" s="40">
+      <c r="U122" s="71">
+        <v>17</v>
+      </c>
+      <c r="V122" s="40">
         <v>76.5</v>
       </c>
-      <c r="S122" s="40"/>
-      <c r="T122" s="40"/>
-      <c r="U122" s="40"/>
-      <c r="V122" s="40"/>
       <c r="W122" s="40"/>
       <c r="X122" s="40"/>
       <c r="Y122" s="40"/>
-      <c r="Z122" s="40" t="s">
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="40"/>
+      <c r="AD122" s="40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="40" t="s">
         <v>83</v>
       </c>
@@ -8892,27 +9390,31 @@
       </c>
       <c r="N123" s="40"/>
       <c r="O123" s="40"/>
-      <c r="P123" s="71">
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="71">
         <v>873</v>
       </c>
-      <c r="Q123" s="71">
-        <v>17</v>
-      </c>
-      <c r="R123" s="40">
+      <c r="U123" s="71">
+        <v>17</v>
+      </c>
+      <c r="V123" s="40">
         <v>76.5</v>
       </c>
-      <c r="S123" s="40"/>
-      <c r="T123" s="40"/>
-      <c r="U123" s="40"/>
-      <c r="V123" s="40"/>
       <c r="W123" s="40"/>
       <c r="X123" s="40"/>
       <c r="Y123" s="40"/>
-      <c r="Z123" s="40" t="s">
+      <c r="Z123" s="40"/>
+      <c r="AA123" s="40"/>
+      <c r="AB123" s="40"/>
+      <c r="AC123" s="40"/>
+      <c r="AD123" s="40" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="40" t="s">
         <v>83</v>
       </c>
@@ -8948,27 +9450,31 @@
       </c>
       <c r="N124" s="40"/>
       <c r="O124" s="40"/>
-      <c r="P124" s="71">
+      <c r="P124" s="40"/>
+      <c r="Q124" s="40"/>
+      <c r="R124" s="40"/>
+      <c r="S124" s="40"/>
+      <c r="T124" s="71">
         <v>873</v>
       </c>
-      <c r="Q124" s="71">
-        <v>17</v>
-      </c>
-      <c r="R124" s="40">
+      <c r="U124" s="71">
+        <v>17</v>
+      </c>
+      <c r="V124" s="40">
         <v>76.5</v>
       </c>
-      <c r="S124" s="40"/>
-      <c r="T124" s="40"/>
-      <c r="U124" s="40"/>
-      <c r="V124" s="40"/>
       <c r="W124" s="40"/>
       <c r="X124" s="40"/>
       <c r="Y124" s="40"/>
-      <c r="Z124" s="40" t="s">
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="40"/>
+      <c r="AC124" s="40"/>
+      <c r="AD124" s="40" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>83</v>
       </c>
@@ -9004,27 +9510,31 @@
       </c>
       <c r="N125" s="47"/>
       <c r="O125" s="47"/>
-      <c r="P125" s="50">
+      <c r="P125" s="47"/>
+      <c r="Q125" s="47"/>
+      <c r="R125" s="47"/>
+      <c r="S125" s="47"/>
+      <c r="T125" s="50">
         <v>0</v>
       </c>
-      <c r="Q125" s="50">
-        <v>17</v>
-      </c>
-      <c r="R125" s="47">
+      <c r="U125" s="50">
+        <v>17</v>
+      </c>
+      <c r="V125" s="47">
         <v>76.5</v>
       </c>
-      <c r="S125" s="47"/>
-      <c r="T125" s="47"/>
-      <c r="U125" s="47"/>
-      <c r="V125" s="47"/>
       <c r="W125" s="47"/>
       <c r="X125" s="47"/>
       <c r="Y125" s="47"/>
-      <c r="Z125" s="47" t="s">
+      <c r="Z125" s="47"/>
+      <c r="AA125" s="47"/>
+      <c r="AB125" s="47"/>
+      <c r="AC125" s="47"/>
+      <c r="AD125" s="47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>83</v>
       </c>
@@ -9060,27 +9570,31 @@
       </c>
       <c r="N126" s="47"/>
       <c r="O126" s="47"/>
-      <c r="P126" s="50">
+      <c r="P126" s="47"/>
+      <c r="Q126" s="47"/>
+      <c r="R126" s="47"/>
+      <c r="S126" s="47"/>
+      <c r="T126" s="50">
         <v>873</v>
       </c>
-      <c r="Q126" s="50">
-        <v>17</v>
-      </c>
-      <c r="R126" s="47">
+      <c r="U126" s="50">
+        <v>17</v>
+      </c>
+      <c r="V126" s="47">
         <v>76.5</v>
       </c>
-      <c r="S126" s="47"/>
-      <c r="T126" s="47"/>
-      <c r="U126" s="47"/>
-      <c r="V126" s="47"/>
       <c r="W126" s="47"/>
       <c r="X126" s="47"/>
       <c r="Y126" s="47"/>
-      <c r="Z126" s="47" t="s">
+      <c r="Z126" s="47"/>
+      <c r="AA126" s="47"/>
+      <c r="AB126" s="47"/>
+      <c r="AC126" s="47"/>
+      <c r="AD126" s="47" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>83</v>
       </c>
@@ -9116,27 +9630,31 @@
       </c>
       <c r="N127" s="47"/>
       <c r="O127" s="47"/>
-      <c r="P127" s="50">
+      <c r="P127" s="47"/>
+      <c r="Q127" s="47"/>
+      <c r="R127" s="47"/>
+      <c r="S127" s="47"/>
+      <c r="T127" s="50">
         <v>873</v>
       </c>
-      <c r="Q127" s="50">
-        <v>17</v>
-      </c>
-      <c r="R127" s="47">
+      <c r="U127" s="50">
+        <v>17</v>
+      </c>
+      <c r="V127" s="47">
         <v>76.5</v>
       </c>
-      <c r="S127" s="47"/>
-      <c r="T127" s="47"/>
-      <c r="U127" s="47"/>
-      <c r="V127" s="47"/>
       <c r="W127" s="47"/>
       <c r="X127" s="47"/>
       <c r="Y127" s="47"/>
-      <c r="Z127" s="47" t="s">
+      <c r="Z127" s="47"/>
+      <c r="AA127" s="47"/>
+      <c r="AB127" s="47"/>
+      <c r="AC127" s="47"/>
+      <c r="AD127" s="47" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="60" t="s">
         <v>83</v>
       </c>
@@ -9167,24 +9685,28 @@
       <c r="N128" s="60"/>
       <c r="O128" s="60"/>
       <c r="P128" s="60"/>
-      <c r="Q128" s="63">
-        <v>17</v>
-      </c>
-      <c r="R128" s="60">
-        <v>76.5</v>
-      </c>
+      <c r="Q128" s="60"/>
+      <c r="R128" s="60"/>
       <c r="S128" s="60"/>
       <c r="T128" s="60"/>
-      <c r="U128" s="60"/>
-      <c r="V128" s="60"/>
+      <c r="U128" s="63">
+        <v>17</v>
+      </c>
+      <c r="V128" s="60">
+        <v>76.5</v>
+      </c>
       <c r="W128" s="60"/>
       <c r="X128" s="60"/>
       <c r="Y128" s="60"/>
-      <c r="Z128" s="60" t="s">
+      <c r="Z128" s="60"/>
+      <c r="AA128" s="60"/>
+      <c r="AB128" s="60"/>
+      <c r="AC128" s="60"/>
+      <c r="AD128" s="60" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" s="60" t="s">
         <v>83</v>
       </c>
@@ -9215,24 +9737,28 @@
       <c r="N129" s="60"/>
       <c r="O129" s="60"/>
       <c r="P129" s="60"/>
-      <c r="Q129" s="63">
-        <v>17</v>
-      </c>
-      <c r="R129" s="60">
-        <v>76.5</v>
-      </c>
+      <c r="Q129" s="60"/>
+      <c r="R129" s="60"/>
       <c r="S129" s="60"/>
       <c r="T129" s="60"/>
-      <c r="U129" s="60"/>
-      <c r="V129" s="60"/>
+      <c r="U129" s="63">
+        <v>17</v>
+      </c>
+      <c r="V129" s="60">
+        <v>76.5</v>
+      </c>
       <c r="W129" s="60"/>
       <c r="X129" s="60"/>
       <c r="Y129" s="60"/>
-      <c r="Z129" s="60" t="s">
+      <c r="Z129" s="60"/>
+      <c r="AA129" s="60"/>
+      <c r="AB129" s="60"/>
+      <c r="AC129" s="60"/>
+      <c r="AD129" s="60" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="60" t="s">
         <v>83</v>
       </c>
@@ -9263,24 +9789,28 @@
       <c r="N130" s="60"/>
       <c r="O130" s="60"/>
       <c r="P130" s="60"/>
-      <c r="Q130" s="63">
-        <v>17</v>
-      </c>
-      <c r="R130" s="60">
-        <v>76.5</v>
-      </c>
+      <c r="Q130" s="60"/>
+      <c r="R130" s="60"/>
       <c r="S130" s="60"/>
       <c r="T130" s="60"/>
-      <c r="U130" s="60"/>
-      <c r="V130" s="60"/>
+      <c r="U130" s="63">
+        <v>17</v>
+      </c>
+      <c r="V130" s="60">
+        <v>76.5</v>
+      </c>
       <c r="W130" s="60"/>
       <c r="X130" s="60"/>
       <c r="Y130" s="60"/>
-      <c r="Z130" s="60" t="s">
+      <c r="Z130" s="60"/>
+      <c r="AA130" s="60"/>
+      <c r="AB130" s="60"/>
+      <c r="AC130" s="60"/>
+      <c r="AD130" s="60" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="73" t="s">
         <v>265</v>
       </c>
@@ -9314,35 +9844,39 @@
       <c r="M131" s="73"/>
       <c r="N131" s="73"/>
       <c r="O131" s="73"/>
-      <c r="P131" s="76">
-        <v>298</v>
-      </c>
-      <c r="Q131" s="76"/>
+      <c r="P131" s="73"/>
+      <c r="Q131" s="73"/>
       <c r="R131" s="73"/>
       <c r="S131" s="73"/>
-      <c r="T131" s="73" t="s">
+      <c r="T131" s="76">
+        <v>298</v>
+      </c>
+      <c r="U131" s="76"/>
+      <c r="V131" s="73"/>
+      <c r="W131" s="73"/>
+      <c r="X131" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="U131" s="73">
+      <c r="Y131" s="73">
         <v>94</v>
       </c>
-      <c r="V131" s="73" t="s">
+      <c r="Z131" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="W131" s="73">
+      <c r="AA131" s="73">
         <v>6</v>
       </c>
-      <c r="X131" s="73">
+      <c r="AB131" s="73">
         <v>0.01</v>
       </c>
-      <c r="Y131" s="73">
+      <c r="AC131" s="73">
         <v>50</v>
       </c>
-      <c r="Z131" s="73" t="s">
+      <c r="AD131" s="73" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="73" t="s">
         <v>265</v>
       </c>
@@ -9376,35 +9910,39 @@
       <c r="M132" s="73"/>
       <c r="N132" s="73"/>
       <c r="O132" s="73"/>
-      <c r="P132" s="76">
-        <v>298</v>
-      </c>
-      <c r="Q132" s="76"/>
+      <c r="P132" s="73"/>
+      <c r="Q132" s="73"/>
       <c r="R132" s="73"/>
       <c r="S132" s="73"/>
-      <c r="T132" s="73" t="s">
+      <c r="T132" s="76">
+        <v>298</v>
+      </c>
+      <c r="U132" s="76"/>
+      <c r="V132" s="73"/>
+      <c r="W132" s="73"/>
+      <c r="X132" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="U132" s="73">
+      <c r="Y132" s="73">
         <v>94</v>
       </c>
-      <c r="V132" s="73" t="s">
+      <c r="Z132" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="W132" s="73">
+      <c r="AA132" s="73">
         <v>6</v>
       </c>
-      <c r="X132" s="73">
+      <c r="AB132" s="73">
         <v>0.01</v>
       </c>
-      <c r="Y132" s="73">
+      <c r="AC132" s="73">
         <v>50</v>
       </c>
-      <c r="Z132" s="73" t="s">
+      <c r="AD132" s="73" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="73" t="s">
         <v>265</v>
       </c>
@@ -9436,37 +9974,41 @@
       <c r="M133" s="73"/>
       <c r="N133" s="73"/>
       <c r="O133" s="73"/>
-      <c r="P133" s="76">
+      <c r="P133" s="73"/>
+      <c r="Q133" s="73"/>
+      <c r="R133" s="73"/>
+      <c r="S133" s="73"/>
+      <c r="T133" s="76">
         <v>298</v>
       </c>
-      <c r="Q133" s="76"/>
-      <c r="R133" s="73"/>
-      <c r="S133" s="73">
+      <c r="U133" s="76"/>
+      <c r="V133" s="73"/>
+      <c r="W133" s="73">
         <v>1073</v>
       </c>
-      <c r="T133" s="73" t="s">
+      <c r="X133" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="U133" s="73">
+      <c r="Y133" s="73">
         <v>94</v>
       </c>
-      <c r="V133" s="73" t="s">
+      <c r="Z133" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="W133" s="73">
+      <c r="AA133" s="73">
         <v>6</v>
       </c>
-      <c r="X133" s="73">
+      <c r="AB133" s="73">
         <v>0.01</v>
       </c>
-      <c r="Y133" s="73">
+      <c r="AC133" s="73">
         <v>50</v>
       </c>
-      <c r="Z133" s="73" t="s">
+      <c r="AD133" s="73" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="77" t="s">
         <v>83</v>
       </c>
@@ -9506,39 +10048,43 @@
       </c>
       <c r="N134" s="77"/>
       <c r="O134" s="77"/>
-      <c r="P134" s="80">
+      <c r="P134" s="77"/>
+      <c r="Q134" s="77"/>
+      <c r="R134" s="77"/>
+      <c r="S134" s="77"/>
+      <c r="T134" s="80">
         <v>873</v>
       </c>
-      <c r="Q134" s="80">
-        <v>17</v>
-      </c>
-      <c r="R134" s="77">
+      <c r="U134" s="80">
+        <v>17</v>
+      </c>
+      <c r="V134" s="77">
         <v>76.5</v>
       </c>
-      <c r="S134" s="77"/>
-      <c r="T134" s="77" t="s">
+      <c r="W134" s="77"/>
+      <c r="X134" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="U134" s="77">
+      <c r="Y134" s="77">
         <v>94</v>
       </c>
-      <c r="V134" s="77" t="s">
+      <c r="Z134" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="W134" s="77">
+      <c r="AA134" s="77">
         <v>6</v>
       </c>
-      <c r="X134" s="77">
+      <c r="AB134" s="77">
         <v>0.01</v>
       </c>
-      <c r="Y134" s="77">
+      <c r="AC134" s="77">
         <v>50</v>
       </c>
-      <c r="Z134" s="77" t="s">
+      <c r="AD134" s="77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="77" t="s">
         <v>83</v>
       </c>
@@ -9578,39 +10124,43 @@
       </c>
       <c r="N135" s="77"/>
       <c r="O135" s="77"/>
-      <c r="P135" s="80">
+      <c r="P135" s="77"/>
+      <c r="Q135" s="77"/>
+      <c r="R135" s="77"/>
+      <c r="S135" s="77"/>
+      <c r="T135" s="80">
         <v>873</v>
       </c>
-      <c r="Q135" s="80">
-        <v>17</v>
-      </c>
-      <c r="R135" s="77">
+      <c r="U135" s="80">
+        <v>17</v>
+      </c>
+      <c r="V135" s="77">
         <v>76.5</v>
       </c>
-      <c r="S135" s="77"/>
-      <c r="T135" s="77" t="s">
+      <c r="W135" s="77"/>
+      <c r="X135" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="U135" s="77">
+      <c r="Y135" s="77">
         <v>94</v>
       </c>
-      <c r="V135" s="77" t="s">
+      <c r="Z135" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="W135" s="77">
+      <c r="AA135" s="77">
         <v>6</v>
       </c>
-      <c r="X135" s="77">
+      <c r="AB135" s="77">
         <v>0.01</v>
       </c>
-      <c r="Y135" s="77">
+      <c r="AC135" s="77">
         <v>50</v>
       </c>
-      <c r="Z135" s="77" t="s">
+      <c r="AD135" s="77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="77" t="s">
         <v>83</v>
       </c>
@@ -9650,39 +10200,43 @@
       </c>
       <c r="N136" s="77"/>
       <c r="O136" s="77"/>
-      <c r="P136" s="80">
+      <c r="P136" s="77"/>
+      <c r="Q136" s="77"/>
+      <c r="R136" s="77"/>
+      <c r="S136" s="77"/>
+      <c r="T136" s="80">
         <v>873</v>
       </c>
-      <c r="Q136" s="80">
-        <v>17</v>
-      </c>
-      <c r="R136" s="77">
+      <c r="U136" s="80">
+        <v>17</v>
+      </c>
+      <c r="V136" s="77">
         <v>76.5</v>
       </c>
-      <c r="S136" s="77"/>
-      <c r="T136" s="77" t="s">
+      <c r="W136" s="77"/>
+      <c r="X136" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="U136" s="77">
+      <c r="Y136" s="77">
         <v>94</v>
       </c>
-      <c r="V136" s="77" t="s">
+      <c r="Z136" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="W136" s="77">
+      <c r="AA136" s="77">
         <v>6</v>
       </c>
-      <c r="X136" s="77">
+      <c r="AB136" s="77">
         <v>0.01</v>
       </c>
-      <c r="Y136" s="77">
+      <c r="AC136" s="77">
         <v>50</v>
       </c>
-      <c r="Z136" s="77" t="s">
+      <c r="AD136" s="77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="77" t="s">
         <v>83</v>
       </c>
@@ -9722,39 +10276,43 @@
       </c>
       <c r="N137" s="77"/>
       <c r="O137" s="77"/>
-      <c r="P137" s="80">
+      <c r="P137" s="77"/>
+      <c r="Q137" s="77"/>
+      <c r="R137" s="77"/>
+      <c r="S137" s="77"/>
+      <c r="T137" s="80">
         <v>873</v>
       </c>
-      <c r="Q137" s="80">
-        <v>17</v>
-      </c>
-      <c r="R137" s="77">
+      <c r="U137" s="80">
+        <v>17</v>
+      </c>
+      <c r="V137" s="77">
         <v>76.5</v>
       </c>
-      <c r="S137" s="77"/>
-      <c r="T137" s="77" t="s">
+      <c r="W137" s="77"/>
+      <c r="X137" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="U137" s="77">
+      <c r="Y137" s="77">
         <v>94</v>
       </c>
-      <c r="V137" s="77" t="s">
+      <c r="Z137" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="W137" s="77">
+      <c r="AA137" s="77">
         <v>6</v>
       </c>
-      <c r="X137" s="77">
+      <c r="AB137" s="77">
         <v>0.01</v>
       </c>
-      <c r="Y137" s="77">
+      <c r="AC137" s="77">
         <v>50</v>
       </c>
-      <c r="Z137" s="77" t="s">
+      <c r="AD137" s="77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="77" t="s">
         <v>83</v>
       </c>
@@ -9788,21 +10346,25 @@
       <c r="M138" s="77"/>
       <c r="N138" s="77"/>
       <c r="O138" s="77"/>
-      <c r="P138" s="80"/>
-      <c r="Q138" s="80"/>
+      <c r="P138" s="77"/>
+      <c r="Q138" s="77"/>
       <c r="R138" s="77"/>
       <c r="S138" s="77"/>
-      <c r="T138" s="77"/>
-      <c r="U138" s="77"/>
+      <c r="T138" s="80"/>
+      <c r="U138" s="80"/>
       <c r="V138" s="77"/>
       <c r="W138" s="77"/>
       <c r="X138" s="77"/>
       <c r="Y138" s="77"/>
-      <c r="Z138" s="77" t="s">
+      <c r="Z138" s="77"/>
+      <c r="AA138" s="77"/>
+      <c r="AB138" s="77"/>
+      <c r="AC138" s="77"/>
+      <c r="AD138" s="77" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="77" t="s">
         <v>83</v>
       </c>
@@ -9840,39 +10402,43 @@
       </c>
       <c r="N139" s="77"/>
       <c r="O139" s="77"/>
-      <c r="P139" s="80">
+      <c r="P139" s="77"/>
+      <c r="Q139" s="77"/>
+      <c r="R139" s="77"/>
+      <c r="S139" s="77"/>
+      <c r="T139" s="80">
         <v>873</v>
       </c>
-      <c r="Q139" s="80">
-        <v>17</v>
-      </c>
-      <c r="R139" s="77">
+      <c r="U139" s="80">
+        <v>17</v>
+      </c>
+      <c r="V139" s="77">
         <v>76.5</v>
       </c>
-      <c r="S139" s="77"/>
-      <c r="T139" s="77" t="s">
+      <c r="W139" s="77"/>
+      <c r="X139" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="U139" s="77">
+      <c r="Y139" s="77">
         <v>94</v>
       </c>
-      <c r="V139" s="77" t="s">
+      <c r="Z139" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="W139" s="77">
+      <c r="AA139" s="77">
         <v>6</v>
       </c>
-      <c r="X139" s="77">
+      <c r="AB139" s="77">
         <v>0.01</v>
       </c>
-      <c r="Y139" s="77">
+      <c r="AC139" s="77">
         <v>50</v>
       </c>
-      <c r="Z139" s="77" t="s">
+      <c r="AD139" s="77" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="77" t="s">
         <v>83</v>
       </c>
@@ -9912,39 +10478,43 @@
       </c>
       <c r="N140" s="77"/>
       <c r="O140" s="77"/>
-      <c r="P140" s="80">
+      <c r="P140" s="77"/>
+      <c r="Q140" s="77"/>
+      <c r="R140" s="77"/>
+      <c r="S140" s="77"/>
+      <c r="T140" s="80">
         <v>873</v>
       </c>
-      <c r="Q140" s="80">
-        <v>17</v>
-      </c>
-      <c r="R140" s="77">
+      <c r="U140" s="80">
+        <v>17</v>
+      </c>
+      <c r="V140" s="77">
         <v>76.5</v>
       </c>
-      <c r="S140" s="77"/>
-      <c r="T140" s="77" t="s">
+      <c r="W140" s="77"/>
+      <c r="X140" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="U140" s="77">
+      <c r="Y140" s="77">
         <v>94</v>
       </c>
-      <c r="V140" s="77" t="s">
+      <c r="Z140" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="W140" s="77">
+      <c r="AA140" s="77">
         <v>6</v>
       </c>
-      <c r="X140" s="77">
+      <c r="AB140" s="77">
         <v>0.01</v>
       </c>
-      <c r="Y140" s="77">
+      <c r="AC140" s="77">
         <v>50</v>
       </c>
-      <c r="Z140" s="77" t="s">
+      <c r="AD140" s="77" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="77" t="s">
         <v>83</v>
       </c>
@@ -9988,11 +10558,15 @@
       <c r="W141" s="77"/>
       <c r="X141" s="77"/>
       <c r="Y141" s="77"/>
-      <c r="Z141" s="77" t="s">
+      <c r="Z141" s="77"/>
+      <c r="AA141" s="77"/>
+      <c r="AB141" s="77"/>
+      <c r="AC141" s="77"/>
+      <c r="AD141" s="77" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="81" t="s">
         <v>83</v>
       </c>
@@ -10027,22 +10601,26 @@
       <c r="N142" s="81"/>
       <c r="O142" s="81"/>
       <c r="P142" s="81"/>
-      <c r="Q142" s="81">
-        <v>17</v>
-      </c>
+      <c r="Q142" s="81"/>
       <c r="R142" s="81"/>
       <c r="S142" s="81"/>
       <c r="T142" s="81"/>
-      <c r="U142" s="81"/>
+      <c r="U142" s="81">
+        <v>17</v>
+      </c>
       <c r="V142" s="81"/>
       <c r="W142" s="81"/>
       <c r="X142" s="81"/>
       <c r="Y142" s="81"/>
-      <c r="Z142" s="81" t="s">
+      <c r="Z142" s="81"/>
+      <c r="AA142" s="81"/>
+      <c r="AB142" s="81"/>
+      <c r="AC142" s="81"/>
+      <c r="AD142" s="81" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="81" t="s">
         <v>83</v>
       </c>
@@ -10077,22 +10655,26 @@
       <c r="N143" s="81"/>
       <c r="O143" s="81"/>
       <c r="P143" s="81"/>
-      <c r="Q143" s="81">
-        <v>0</v>
-      </c>
+      <c r="Q143" s="81"/>
       <c r="R143" s="81"/>
       <c r="S143" s="81"/>
       <c r="T143" s="81"/>
-      <c r="U143" s="81"/>
+      <c r="U143" s="81">
+        <v>0</v>
+      </c>
       <c r="V143" s="81"/>
       <c r="W143" s="81"/>
       <c r="X143" s="81"/>
       <c r="Y143" s="81"/>
-      <c r="Z143" s="81" t="s">
+      <c r="Z143" s="81"/>
+      <c r="AA143" s="81"/>
+      <c r="AB143" s="81"/>
+      <c r="AC143" s="81"/>
+      <c r="AD143" s="81" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>83</v>
       </c>
@@ -10127,22 +10709,26 @@
       <c r="N144" s="22"/>
       <c r="O144" s="22"/>
       <c r="P144" s="22"/>
-      <c r="Q144" s="22">
-        <v>17</v>
-      </c>
+      <c r="Q144" s="22"/>
       <c r="R144" s="22"/>
       <c r="S144" s="22"/>
       <c r="T144" s="22"/>
-      <c r="U144" s="22"/>
+      <c r="U144" s="22">
+        <v>17</v>
+      </c>
       <c r="V144" s="22"/>
       <c r="W144" s="22"/>
       <c r="X144" s="22"/>
       <c r="Y144" s="22"/>
-      <c r="Z144" s="22" t="s">
+      <c r="Z144" s="22"/>
+      <c r="AA144" s="22"/>
+      <c r="AB144" s="22"/>
+      <c r="AC144" s="22"/>
+      <c r="AD144" s="22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>83</v>
       </c>
@@ -10177,22 +10763,26 @@
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
-      <c r="Q145" s="22">
-        <v>17</v>
-      </c>
+      <c r="Q145" s="22"/>
       <c r="R145" s="22"/>
       <c r="S145" s="22"/>
       <c r="T145" s="22"/>
-      <c r="U145" s="22"/>
+      <c r="U145" s="22">
+        <v>17</v>
+      </c>
       <c r="V145" s="22"/>
       <c r="W145" s="22"/>
       <c r="X145" s="22"/>
       <c r="Y145" s="22"/>
-      <c r="Z145" s="22" t="s">
+      <c r="Z145" s="22"/>
+      <c r="AA145" s="22"/>
+      <c r="AB145" s="22"/>
+      <c r="AC145" s="22"/>
+      <c r="AD145" s="22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>83</v>
       </c>
@@ -10227,22 +10817,26 @@
       <c r="N146" s="22"/>
       <c r="O146" s="22"/>
       <c r="P146" s="22"/>
-      <c r="Q146" s="22">
-        <v>17</v>
-      </c>
+      <c r="Q146" s="22"/>
       <c r="R146" s="22"/>
       <c r="S146" s="22"/>
       <c r="T146" s="22"/>
-      <c r="U146" s="22"/>
+      <c r="U146" s="22">
+        <v>17</v>
+      </c>
       <c r="V146" s="22"/>
       <c r="W146" s="22"/>
       <c r="X146" s="22"/>
       <c r="Y146" s="22"/>
-      <c r="Z146" s="22" t="s">
+      <c r="Z146" s="22"/>
+      <c r="AA146" s="22"/>
+      <c r="AB146" s="22"/>
+      <c r="AC146" s="22"/>
+      <c r="AD146" s="22" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>83</v>
       </c>
@@ -10277,22 +10871,26 @@
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
-      <c r="Q147" s="22">
-        <v>17</v>
-      </c>
+      <c r="Q147" s="22"/>
       <c r="R147" s="22"/>
       <c r="S147" s="22"/>
       <c r="T147" s="22"/>
-      <c r="U147" s="22"/>
+      <c r="U147" s="22">
+        <v>17</v>
+      </c>
       <c r="V147" s="22"/>
       <c r="W147" s="22"/>
       <c r="X147" s="22"/>
       <c r="Y147" s="22"/>
-      <c r="Z147" s="22" t="s">
+      <c r="Z147" s="22"/>
+      <c r="AA147" s="22"/>
+      <c r="AB147" s="22"/>
+      <c r="AC147" s="22"/>
+      <c r="AD147" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="45" t="s">
         <v>83</v>
       </c>
@@ -10334,11 +10932,15 @@
       <c r="W148" s="45"/>
       <c r="X148" s="45"/>
       <c r="Y148" s="45"/>
-      <c r="Z148" s="45" t="s">
+      <c r="Z148" s="45"/>
+      <c r="AA148" s="45"/>
+      <c r="AB148" s="45"/>
+      <c r="AC148" s="45"/>
+      <c r="AD148" s="45" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="45" t="s">
         <v>83</v>
       </c>
@@ -10380,11 +10982,15 @@
       <c r="W149" s="45"/>
       <c r="X149" s="45"/>
       <c r="Y149" s="45"/>
-      <c r="Z149" s="45" t="s">
+      <c r="Z149" s="45"/>
+      <c r="AA149" s="45"/>
+      <c r="AB149" s="45"/>
+      <c r="AC149" s="45"/>
+      <c r="AD149" s="45" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="45" t="s">
         <v>83</v>
       </c>
@@ -10426,11 +11032,15 @@
       <c r="W150" s="45"/>
       <c r="X150" s="45"/>
       <c r="Y150" s="45"/>
-      <c r="Z150" s="45" t="s">
+      <c r="Z150" s="45"/>
+      <c r="AA150" s="45"/>
+      <c r="AB150" s="45"/>
+      <c r="AC150" s="45"/>
+      <c r="AD150" s="45" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>265</v>
       </c>
@@ -10462,23 +11072,27 @@
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
       <c r="O151" s="16"/>
-      <c r="P151" s="16">
-        <v>298</v>
-      </c>
+      <c r="P151" s="16"/>
       <c r="Q151" s="16"/>
       <c r="R151" s="16"/>
       <c r="S151" s="16"/>
-      <c r="T151" s="16"/>
+      <c r="T151" s="16">
+        <v>298</v>
+      </c>
       <c r="U151" s="16"/>
       <c r="V151" s="16"/>
       <c r="W151" s="16"/>
       <c r="X151" s="16"/>
       <c r="Y151" s="16"/>
-      <c r="Z151" s="16" t="s">
+      <c r="Z151" s="16"/>
+      <c r="AA151" s="16"/>
+      <c r="AB151" s="16"/>
+      <c r="AC151" s="16"/>
+      <c r="AD151" s="16" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
         <v>265</v>
       </c>
@@ -10510,23 +11124,27 @@
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
       <c r="O152" s="16"/>
-      <c r="P152" s="16">
-        <v>298</v>
-      </c>
+      <c r="P152" s="16"/>
       <c r="Q152" s="16"/>
       <c r="R152" s="16"/>
       <c r="S152" s="16"/>
-      <c r="T152" s="16"/>
+      <c r="T152" s="16">
+        <v>298</v>
+      </c>
       <c r="U152" s="16"/>
       <c r="V152" s="16"/>
       <c r="W152" s="16"/>
       <c r="X152" s="16"/>
       <c r="Y152" s="16"/>
-      <c r="Z152" s="16" t="s">
+      <c r="Z152" s="16"/>
+      <c r="AA152" s="16"/>
+      <c r="AB152" s="16"/>
+      <c r="AC152" s="16"/>
+      <c r="AD152" s="16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" s="43" t="s">
         <v>83</v>
       </c>
@@ -10561,22 +11179,26 @@
       <c r="N153" s="43"/>
       <c r="O153" s="43"/>
       <c r="P153" s="43"/>
-      <c r="Q153" s="43">
-        <v>17</v>
-      </c>
+      <c r="Q153" s="43"/>
       <c r="R153" s="43"/>
       <c r="S153" s="43"/>
       <c r="T153" s="43"/>
-      <c r="U153" s="43"/>
+      <c r="U153" s="43">
+        <v>17</v>
+      </c>
       <c r="V153" s="43"/>
       <c r="W153" s="43"/>
       <c r="X153" s="43"/>
       <c r="Y153" s="43"/>
-      <c r="Z153" s="43" t="s">
+      <c r="Z153" s="43"/>
+      <c r="AA153" s="43"/>
+      <c r="AB153" s="43"/>
+      <c r="AC153" s="43"/>
+      <c r="AD153" s="43" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="43" t="s">
         <v>83</v>
       </c>
@@ -10611,22 +11233,26 @@
       <c r="N154" s="43"/>
       <c r="O154" s="43"/>
       <c r="P154" s="43"/>
-      <c r="Q154" s="43">
-        <v>17</v>
-      </c>
+      <c r="Q154" s="43"/>
       <c r="R154" s="43"/>
       <c r="S154" s="43"/>
       <c r="T154" s="43"/>
-      <c r="U154" s="43"/>
+      <c r="U154" s="43">
+        <v>17</v>
+      </c>
       <c r="V154" s="43"/>
       <c r="W154" s="43"/>
       <c r="X154" s="43"/>
       <c r="Y154" s="43"/>
-      <c r="Z154" s="43" t="s">
+      <c r="Z154" s="43"/>
+      <c r="AA154" s="43"/>
+      <c r="AB154" s="43"/>
+      <c r="AC154" s="43"/>
+      <c r="AD154" s="43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
         <v>83</v>
       </c>
@@ -10666,39 +11292,43 @@
       </c>
       <c r="N155" s="47"/>
       <c r="O155" s="47"/>
-      <c r="P155" s="50">
+      <c r="P155" s="47"/>
+      <c r="Q155" s="47"/>
+      <c r="R155" s="47"/>
+      <c r="S155" s="47"/>
+      <c r="T155" s="50">
         <v>873</v>
       </c>
-      <c r="Q155" s="50">
-        <v>17</v>
-      </c>
-      <c r="R155" s="47">
+      <c r="U155" s="50">
+        <v>17</v>
+      </c>
+      <c r="V155" s="47">
         <v>76.5</v>
       </c>
-      <c r="S155" s="47"/>
-      <c r="T155" s="47" t="s">
+      <c r="W155" s="47"/>
+      <c r="X155" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="U155" s="47">
+      <c r="Y155" s="47">
         <v>94</v>
       </c>
-      <c r="V155" s="47" t="s">
+      <c r="Z155" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="W155" s="47">
+      <c r="AA155" s="47">
         <v>6</v>
       </c>
-      <c r="X155" s="47">
+      <c r="AB155" s="47">
         <v>0.01</v>
       </c>
-      <c r="Y155" s="47">
+      <c r="AC155" s="47">
         <v>50</v>
       </c>
-      <c r="Z155" s="47" t="s">
+      <c r="AD155" s="47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>83</v>
       </c>
@@ -10738,39 +11368,43 @@
       </c>
       <c r="N156" s="47"/>
       <c r="O156" s="47"/>
-      <c r="P156" s="50">
+      <c r="P156" s="47"/>
+      <c r="Q156" s="47"/>
+      <c r="R156" s="47"/>
+      <c r="S156" s="47"/>
+      <c r="T156" s="50">
         <v>873</v>
       </c>
-      <c r="Q156" s="50">
-        <v>17</v>
-      </c>
-      <c r="R156" s="47">
+      <c r="U156" s="50">
+        <v>17</v>
+      </c>
+      <c r="V156" s="47">
         <v>76.5</v>
       </c>
-      <c r="S156" s="47"/>
-      <c r="T156" s="47" t="s">
+      <c r="W156" s="47"/>
+      <c r="X156" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="U156" s="47">
+      <c r="Y156" s="47">
         <v>94</v>
       </c>
-      <c r="V156" s="47" t="s">
+      <c r="Z156" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="W156" s="47">
+      <c r="AA156" s="47">
         <v>6</v>
       </c>
-      <c r="X156" s="47">
+      <c r="AB156" s="47">
         <v>0.01</v>
       </c>
-      <c r="Y156" s="47">
+      <c r="AC156" s="47">
         <v>50</v>
       </c>
-      <c r="Z156" s="47" t="s">
+      <c r="AD156" s="47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
         <v>83</v>
       </c>
@@ -10810,39 +11444,43 @@
       </c>
       <c r="N157" s="47"/>
       <c r="O157" s="47"/>
-      <c r="P157" s="50">
+      <c r="P157" s="47"/>
+      <c r="Q157" s="47"/>
+      <c r="R157" s="47"/>
+      <c r="S157" s="47"/>
+      <c r="T157" s="50">
         <v>873</v>
       </c>
-      <c r="Q157" s="50">
-        <v>17</v>
-      </c>
-      <c r="R157" s="47">
+      <c r="U157" s="50">
+        <v>17</v>
+      </c>
+      <c r="V157" s="47">
         <v>76.5</v>
       </c>
-      <c r="S157" s="47"/>
-      <c r="T157" s="47" t="s">
+      <c r="W157" s="47"/>
+      <c r="X157" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="U157" s="47">
+      <c r="Y157" s="47">
         <v>94</v>
       </c>
-      <c r="V157" s="47" t="s">
+      <c r="Z157" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="W157" s="47">
+      <c r="AA157" s="47">
         <v>6</v>
       </c>
-      <c r="X157" s="47">
+      <c r="AB157" s="47">
         <v>0.01</v>
       </c>
-      <c r="Y157" s="47">
+      <c r="AC157" s="47">
         <v>50</v>
       </c>
-      <c r="Z157" s="47" t="s">
+      <c r="AD157" s="47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>83</v>
       </c>
@@ -10882,39 +11520,43 @@
       </c>
       <c r="N158" s="47"/>
       <c r="O158" s="47"/>
-      <c r="P158" s="50">
+      <c r="P158" s="47"/>
+      <c r="Q158" s="47"/>
+      <c r="R158" s="47"/>
+      <c r="S158" s="47"/>
+      <c r="T158" s="50">
         <v>873</v>
       </c>
-      <c r="Q158" s="50">
-        <v>17</v>
-      </c>
-      <c r="R158" s="47">
+      <c r="U158" s="50">
+        <v>17</v>
+      </c>
+      <c r="V158" s="47">
         <v>76.5</v>
       </c>
-      <c r="S158" s="47"/>
-      <c r="T158" s="47" t="s">
+      <c r="W158" s="47"/>
+      <c r="X158" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="U158" s="47">
+      <c r="Y158" s="47">
         <v>94</v>
       </c>
-      <c r="V158" s="47" t="s">
+      <c r="Z158" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="W158" s="47">
+      <c r="AA158" s="47">
         <v>6</v>
       </c>
-      <c r="X158" s="47">
+      <c r="AB158" s="47">
         <v>0.01</v>
       </c>
-      <c r="Y158" s="47">
+      <c r="AC158" s="47">
         <v>50</v>
       </c>
-      <c r="Z158" s="47" t="s">
+      <c r="AD158" s="47" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" s="40" t="s">
         <v>83</v>
       </c>
@@ -10954,39 +11596,43 @@
       </c>
       <c r="N159" s="40"/>
       <c r="O159" s="40"/>
-      <c r="P159" s="71">
+      <c r="P159" s="40"/>
+      <c r="Q159" s="40"/>
+      <c r="R159" s="40"/>
+      <c r="S159" s="40"/>
+      <c r="T159" s="71">
         <v>0</v>
       </c>
-      <c r="Q159" s="71">
-        <v>17</v>
-      </c>
-      <c r="R159" s="40">
+      <c r="U159" s="71">
+        <v>17</v>
+      </c>
+      <c r="V159" s="40">
         <v>76.5</v>
       </c>
-      <c r="S159" s="40"/>
-      <c r="T159" s="40" t="s">
+      <c r="W159" s="40"/>
+      <c r="X159" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U159" s="40">
+      <c r="Y159" s="40">
         <v>94</v>
       </c>
-      <c r="V159" s="40" t="s">
+      <c r="Z159" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W159" s="40">
+      <c r="AA159" s="40">
         <v>6</v>
       </c>
-      <c r="X159" s="40">
+      <c r="AB159" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y159" s="40">
+      <c r="AC159" s="40">
         <v>50</v>
       </c>
-      <c r="Z159" s="40" t="s">
+      <c r="AD159" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" s="40" t="s">
         <v>83</v>
       </c>
@@ -11026,39 +11672,43 @@
       </c>
       <c r="N160" s="40"/>
       <c r="O160" s="40"/>
-      <c r="P160" s="71">
+      <c r="P160" s="40"/>
+      <c r="Q160" s="40"/>
+      <c r="R160" s="40"/>
+      <c r="S160" s="40"/>
+      <c r="T160" s="71">
         <v>0</v>
       </c>
-      <c r="Q160" s="71">
-        <v>17</v>
-      </c>
-      <c r="R160" s="40">
+      <c r="U160" s="71">
+        <v>17</v>
+      </c>
+      <c r="V160" s="40">
         <v>76.5</v>
       </c>
-      <c r="S160" s="40"/>
-      <c r="T160" s="40" t="s">
+      <c r="W160" s="40"/>
+      <c r="X160" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U160" s="40">
+      <c r="Y160" s="40">
         <v>94</v>
       </c>
-      <c r="V160" s="40" t="s">
+      <c r="Z160" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W160" s="40">
+      <c r="AA160" s="40">
         <v>6</v>
       </c>
-      <c r="X160" s="40">
+      <c r="AB160" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y160" s="40">
+      <c r="AC160" s="40">
         <v>50</v>
       </c>
-      <c r="Z160" s="40" t="s">
+      <c r="AD160" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" s="40" t="s">
         <v>83</v>
       </c>
@@ -11098,39 +11748,43 @@
       </c>
       <c r="N161" s="40"/>
       <c r="O161" s="40"/>
-      <c r="P161" s="71">
+      <c r="P161" s="40"/>
+      <c r="Q161" s="40"/>
+      <c r="R161" s="40"/>
+      <c r="S161" s="40"/>
+      <c r="T161" s="71">
         <v>873</v>
       </c>
-      <c r="Q161" s="71">
-        <v>17</v>
-      </c>
-      <c r="R161" s="40">
+      <c r="U161" s="71">
+        <v>17</v>
+      </c>
+      <c r="V161" s="40">
         <v>76.5</v>
       </c>
-      <c r="S161" s="40"/>
-      <c r="T161" s="40" t="s">
+      <c r="W161" s="40"/>
+      <c r="X161" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U161" s="40">
+      <c r="Y161" s="40">
         <v>94</v>
       </c>
-      <c r="V161" s="40" t="s">
+      <c r="Z161" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W161" s="40">
+      <c r="AA161" s="40">
         <v>6</v>
       </c>
-      <c r="X161" s="40">
+      <c r="AB161" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y161" s="40">
+      <c r="AC161" s="40">
         <v>50</v>
       </c>
-      <c r="Z161" s="40" t="s">
+      <c r="AD161" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" s="40" t="s">
         <v>83</v>
       </c>
@@ -11170,39 +11824,43 @@
       </c>
       <c r="N162" s="40"/>
       <c r="O162" s="40"/>
-      <c r="P162" s="71">
+      <c r="P162" s="40"/>
+      <c r="Q162" s="40"/>
+      <c r="R162" s="40"/>
+      <c r="S162" s="40"/>
+      <c r="T162" s="71">
         <v>873</v>
       </c>
-      <c r="Q162" s="71">
-        <v>17</v>
-      </c>
-      <c r="R162" s="40">
+      <c r="U162" s="71">
+        <v>17</v>
+      </c>
+      <c r="V162" s="40">
         <v>76.5</v>
       </c>
-      <c r="S162" s="40"/>
-      <c r="T162" s="40" t="s">
+      <c r="W162" s="40"/>
+      <c r="X162" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U162" s="40">
+      <c r="Y162" s="40">
         <v>94</v>
       </c>
-      <c r="V162" s="40" t="s">
+      <c r="Z162" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W162" s="40">
+      <c r="AA162" s="40">
         <v>6</v>
       </c>
-      <c r="X162" s="40">
+      <c r="AB162" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y162" s="40">
+      <c r="AC162" s="40">
         <v>50</v>
       </c>
-      <c r="Z162" s="40" t="s">
+      <c r="AD162" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" s="40" t="s">
         <v>83</v>
       </c>
@@ -11240,39 +11898,43 @@
       </c>
       <c r="N163" s="40"/>
       <c r="O163" s="40"/>
-      <c r="P163" s="71">
+      <c r="P163" s="40"/>
+      <c r="Q163" s="40"/>
+      <c r="R163" s="40"/>
+      <c r="S163" s="40"/>
+      <c r="T163" s="71">
         <v>873</v>
       </c>
-      <c r="Q163" s="71">
-        <v>17</v>
-      </c>
-      <c r="R163" s="40">
+      <c r="U163" s="71">
+        <v>17</v>
+      </c>
+      <c r="V163" s="40">
         <v>76.5</v>
       </c>
-      <c r="S163" s="40"/>
-      <c r="T163" s="40" t="s">
+      <c r="W163" s="40"/>
+      <c r="X163" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U163" s="40">
+      <c r="Y163" s="40">
         <v>94</v>
       </c>
-      <c r="V163" s="40" t="s">
+      <c r="Z163" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W163" s="40">
+      <c r="AA163" s="40">
         <v>6</v>
       </c>
-      <c r="X163" s="40">
+      <c r="AB163" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y163" s="40">
+      <c r="AC163" s="40">
         <v>50</v>
       </c>
-      <c r="Z163" s="40" t="s">
+      <c r="AD163" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>83</v>
       </c>
@@ -11310,39 +11972,43 @@
       </c>
       <c r="N164" s="40"/>
       <c r="O164" s="40"/>
-      <c r="P164" s="71">
+      <c r="P164" s="40"/>
+      <c r="Q164" s="40"/>
+      <c r="R164" s="40"/>
+      <c r="S164" s="40"/>
+      <c r="T164" s="71">
         <v>0</v>
       </c>
-      <c r="Q164" s="71">
-        <v>17</v>
-      </c>
-      <c r="R164" s="40">
+      <c r="U164" s="71">
+        <v>17</v>
+      </c>
+      <c r="V164" s="40">
         <v>76.5</v>
       </c>
-      <c r="S164" s="40"/>
-      <c r="T164" s="40" t="s">
+      <c r="W164" s="40"/>
+      <c r="X164" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U164" s="40">
+      <c r="Y164" s="40">
         <v>94</v>
       </c>
-      <c r="V164" s="40" t="s">
+      <c r="Z164" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W164" s="40">
+      <c r="AA164" s="40">
         <v>6</v>
       </c>
-      <c r="X164" s="40">
+      <c r="AB164" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y164" s="40">
+      <c r="AC164" s="40">
         <v>50</v>
       </c>
-      <c r="Z164" s="40" t="s">
+      <c r="AD164" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" s="40" t="s">
         <v>83</v>
       </c>
@@ -11380,39 +12046,43 @@
       </c>
       <c r="N165" s="40"/>
       <c r="O165" s="40"/>
-      <c r="P165" s="71">
+      <c r="P165" s="40"/>
+      <c r="Q165" s="40"/>
+      <c r="R165" s="40"/>
+      <c r="S165" s="40"/>
+      <c r="T165" s="71">
         <v>873</v>
       </c>
-      <c r="Q165" s="71">
-        <v>17</v>
-      </c>
-      <c r="R165" s="40">
+      <c r="U165" s="71">
+        <v>17</v>
+      </c>
+      <c r="V165" s="40">
         <v>76.5</v>
       </c>
-      <c r="S165" s="40"/>
-      <c r="T165" s="40" t="s">
+      <c r="W165" s="40"/>
+      <c r="X165" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U165" s="40">
+      <c r="Y165" s="40">
         <v>94</v>
       </c>
-      <c r="V165" s="40" t="s">
+      <c r="Z165" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W165" s="40">
+      <c r="AA165" s="40">
         <v>6</v>
       </c>
-      <c r="X165" s="40">
+      <c r="AB165" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y165" s="40">
+      <c r="AC165" s="40">
         <v>50</v>
       </c>
-      <c r="Z165" s="40" t="s">
+      <c r="AD165" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" s="40" t="s">
         <v>83</v>
       </c>
@@ -11450,39 +12120,43 @@
       </c>
       <c r="N166" s="40"/>
       <c r="O166" s="40"/>
-      <c r="P166" s="40">
+      <c r="P166" s="40"/>
+      <c r="Q166" s="40"/>
+      <c r="R166" s="40"/>
+      <c r="S166" s="40"/>
+      <c r="T166" s="40">
         <v>0</v>
       </c>
-      <c r="Q166" s="71">
-        <v>17</v>
-      </c>
-      <c r="R166" s="40">
+      <c r="U166" s="71">
+        <v>17</v>
+      </c>
+      <c r="V166" s="40">
         <v>76.5</v>
       </c>
-      <c r="S166" s="40"/>
-      <c r="T166" s="40" t="s">
+      <c r="W166" s="40"/>
+      <c r="X166" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U166" s="40">
+      <c r="Y166" s="40">
         <v>94</v>
       </c>
-      <c r="V166" s="40" t="s">
+      <c r="Z166" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W166" s="40">
+      <c r="AA166" s="40">
         <v>6</v>
       </c>
-      <c r="X166" s="40">
+      <c r="AB166" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y166" s="40">
+      <c r="AC166" s="40">
         <v>50</v>
       </c>
-      <c r="Z166" s="40" t="s">
+      <c r="AD166" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" s="40" t="s">
         <v>83</v>
       </c>
@@ -11520,39 +12194,43 @@
       </c>
       <c r="N167" s="40"/>
       <c r="O167" s="40"/>
-      <c r="P167" s="71">
+      <c r="P167" s="40"/>
+      <c r="Q167" s="40"/>
+      <c r="R167" s="40"/>
+      <c r="S167" s="40"/>
+      <c r="T167" s="71">
         <v>873</v>
       </c>
-      <c r="Q167" s="71">
-        <v>17</v>
-      </c>
-      <c r="R167" s="40">
+      <c r="U167" s="71">
+        <v>17</v>
+      </c>
+      <c r="V167" s="40">
         <v>76.5</v>
       </c>
-      <c r="S167" s="40"/>
-      <c r="T167" s="40" t="s">
+      <c r="W167" s="40"/>
+      <c r="X167" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U167" s="40">
+      <c r="Y167" s="40">
         <v>94</v>
       </c>
-      <c r="V167" s="40" t="s">
+      <c r="Z167" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W167" s="40">
+      <c r="AA167" s="40">
         <v>6</v>
       </c>
-      <c r="X167" s="40">
+      <c r="AB167" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y167" s="40">
+      <c r="AC167" s="40">
         <v>50</v>
       </c>
-      <c r="Z167" s="40" t="s">
+      <c r="AD167" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
         <v>83</v>
       </c>
@@ -11590,39 +12268,43 @@
       </c>
       <c r="N168" s="40"/>
       <c r="O168" s="40"/>
-      <c r="P168" s="71">
+      <c r="P168" s="40"/>
+      <c r="Q168" s="40"/>
+      <c r="R168" s="40"/>
+      <c r="S168" s="40"/>
+      <c r="T168" s="71">
         <v>0</v>
       </c>
-      <c r="Q168" s="71">
-        <v>17</v>
-      </c>
-      <c r="R168" s="40">
+      <c r="U168" s="71">
+        <v>17</v>
+      </c>
+      <c r="V168" s="40">
         <v>76.5</v>
       </c>
-      <c r="S168" s="40"/>
-      <c r="T168" s="40" t="s">
+      <c r="W168" s="40"/>
+      <c r="X168" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U168" s="40">
+      <c r="Y168" s="40">
         <v>94</v>
       </c>
-      <c r="V168" s="40" t="s">
+      <c r="Z168" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W168" s="40">
+      <c r="AA168" s="40">
         <v>6</v>
       </c>
-      <c r="X168" s="40">
+      <c r="AB168" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y168" s="40">
+      <c r="AC168" s="40">
         <v>50</v>
       </c>
-      <c r="Z168" s="40" t="s">
+      <c r="AD168" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" s="40" t="s">
         <v>83</v>
       </c>
@@ -11660,39 +12342,43 @@
       </c>
       <c r="N169" s="40"/>
       <c r="O169" s="40"/>
-      <c r="P169" s="71">
+      <c r="P169" s="40"/>
+      <c r="Q169" s="40"/>
+      <c r="R169" s="40"/>
+      <c r="S169" s="40"/>
+      <c r="T169" s="71">
         <v>873</v>
       </c>
-      <c r="Q169" s="71">
-        <v>17</v>
-      </c>
-      <c r="R169" s="40">
+      <c r="U169" s="71">
+        <v>17</v>
+      </c>
+      <c r="V169" s="40">
         <v>76.5</v>
       </c>
-      <c r="S169" s="40"/>
-      <c r="T169" s="40" t="s">
+      <c r="W169" s="40"/>
+      <c r="X169" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U169" s="40">
+      <c r="Y169" s="40">
         <v>94</v>
       </c>
-      <c r="V169" s="40" t="s">
+      <c r="Z169" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W169" s="40">
+      <c r="AA169" s="40">
         <v>6</v>
       </c>
-      <c r="X169" s="40">
+      <c r="AB169" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y169" s="40">
+      <c r="AC169" s="40">
         <v>50</v>
       </c>
-      <c r="Z169" s="40" t="s">
+      <c r="AD169" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" s="40" t="s">
         <v>83</v>
       </c>
@@ -11730,39 +12416,43 @@
       </c>
       <c r="N170" s="40"/>
       <c r="O170" s="40"/>
-      <c r="P170" s="40">
+      <c r="P170" s="40"/>
+      <c r="Q170" s="40"/>
+      <c r="R170" s="40"/>
+      <c r="S170" s="40"/>
+      <c r="T170" s="40">
         <v>0</v>
       </c>
-      <c r="Q170" s="71">
-        <v>17</v>
-      </c>
-      <c r="R170" s="40">
+      <c r="U170" s="71">
+        <v>17</v>
+      </c>
+      <c r="V170" s="40">
         <v>76.5</v>
       </c>
-      <c r="S170" s="40"/>
-      <c r="T170" s="40" t="s">
+      <c r="W170" s="40"/>
+      <c r="X170" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="U170" s="40">
+      <c r="Y170" s="40">
         <v>94</v>
       </c>
-      <c r="V170" s="40" t="s">
+      <c r="Z170" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="W170" s="40">
+      <c r="AA170" s="40">
         <v>6</v>
       </c>
-      <c r="X170" s="40">
+      <c r="AB170" s="40">
         <v>0.01</v>
       </c>
-      <c r="Y170" s="40">
+      <c r="AC170" s="40">
         <v>50</v>
       </c>
-      <c r="Z170" s="40" t="s">
+      <c r="AD170" s="40" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" s="37" t="s">
         <v>83</v>
       </c>
@@ -11796,29 +12486,33 @@
       </c>
       <c r="N171" s="37"/>
       <c r="O171" s="37"/>
-      <c r="P171" s="37">
+      <c r="P171" s="37"/>
+      <c r="Q171" s="37"/>
+      <c r="R171" s="37"/>
+      <c r="S171" s="37"/>
+      <c r="T171" s="37">
         <v>673</v>
       </c>
-      <c r="Q171" s="94">
-        <v>17</v>
-      </c>
-      <c r="R171" s="37">
+      <c r="U171" s="94">
+        <v>17</v>
+      </c>
+      <c r="V171" s="37">
         <v>76.5</v>
       </c>
-      <c r="S171" s="94">
+      <c r="W171" s="94">
         <v>873</v>
       </c>
-      <c r="T171" s="37"/>
-      <c r="U171" s="37"/>
-      <c r="V171" s="37"/>
-      <c r="W171" s="37"/>
       <c r="X171" s="37"/>
       <c r="Y171" s="37"/>
-      <c r="Z171" s="37" t="s">
+      <c r="Z171" s="37"/>
+      <c r="AA171" s="37"/>
+      <c r="AB171" s="37"/>
+      <c r="AC171" s="37"/>
+      <c r="AD171" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" s="37" t="s">
         <v>83</v>
       </c>
@@ -11852,29 +12546,33 @@
       </c>
       <c r="N172" s="37"/>
       <c r="O172" s="37"/>
-      <c r="P172" s="37">
+      <c r="P172" s="37"/>
+      <c r="Q172" s="37"/>
+      <c r="R172" s="37"/>
+      <c r="S172" s="37"/>
+      <c r="T172" s="37">
         <v>673</v>
       </c>
-      <c r="Q172" s="94">
-        <v>17</v>
-      </c>
-      <c r="R172" s="37">
+      <c r="U172" s="94">
+        <v>17</v>
+      </c>
+      <c r="V172" s="37">
         <v>76.5</v>
       </c>
-      <c r="S172" s="94">
+      <c r="W172" s="94">
         <v>873</v>
       </c>
-      <c r="T172" s="37"/>
-      <c r="U172" s="37"/>
-      <c r="V172" s="37"/>
-      <c r="W172" s="37"/>
       <c r="X172" s="37"/>
       <c r="Y172" s="37"/>
-      <c r="Z172" s="37" t="s">
+      <c r="Z172" s="37"/>
+      <c r="AA172" s="37"/>
+      <c r="AB172" s="37"/>
+      <c r="AC172" s="37"/>
+      <c r="AD172" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
         <v>83</v>
       </c>
@@ -11908,29 +12606,33 @@
       </c>
       <c r="N173" s="37"/>
       <c r="O173" s="37"/>
-      <c r="P173" s="37">
+      <c r="P173" s="37"/>
+      <c r="Q173" s="37"/>
+      <c r="R173" s="37"/>
+      <c r="S173" s="37"/>
+      <c r="T173" s="37">
         <v>0</v>
       </c>
-      <c r="Q173" s="94">
-        <v>17</v>
-      </c>
-      <c r="R173" s="37">
+      <c r="U173" s="94">
+        <v>17</v>
+      </c>
+      <c r="V173" s="37">
         <v>76.5</v>
       </c>
-      <c r="S173" s="94">
+      <c r="W173" s="94">
         <v>873</v>
       </c>
-      <c r="T173" s="37"/>
-      <c r="U173" s="37"/>
-      <c r="V173" s="37"/>
-      <c r="W173" s="37"/>
       <c r="X173" s="37"/>
       <c r="Y173" s="37"/>
-      <c r="Z173" s="37" t="s">
+      <c r="Z173" s="37"/>
+      <c r="AA173" s="37"/>
+      <c r="AB173" s="37"/>
+      <c r="AC173" s="37"/>
+      <c r="AD173" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" s="37" t="s">
         <v>83</v>
       </c>
@@ -11964,29 +12666,33 @@
       </c>
       <c r="N174" s="37"/>
       <c r="O174" s="37"/>
-      <c r="P174" s="37">
+      <c r="P174" s="37"/>
+      <c r="Q174" s="37"/>
+      <c r="R174" s="37"/>
+      <c r="S174" s="37"/>
+      <c r="T174" s="37">
         <v>0</v>
       </c>
-      <c r="Q174" s="94">
-        <v>17</v>
-      </c>
-      <c r="R174" s="37">
+      <c r="U174" s="94">
+        <v>17</v>
+      </c>
+      <c r="V174" s="37">
         <v>76.5</v>
       </c>
-      <c r="S174" s="94">
+      <c r="W174" s="94">
         <v>873</v>
       </c>
-      <c r="T174" s="37"/>
-      <c r="U174" s="37"/>
-      <c r="V174" s="37"/>
-      <c r="W174" s="37"/>
       <c r="X174" s="37"/>
       <c r="Y174" s="37"/>
-      <c r="Z174" s="37" t="s">
+      <c r="Z174" s="37"/>
+      <c r="AA174" s="37"/>
+      <c r="AB174" s="37"/>
+      <c r="AC174" s="37"/>
+      <c r="AD174" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="37" t="s">
         <v>83</v>
       </c>
@@ -12020,29 +12726,33 @@
       </c>
       <c r="N175" s="37"/>
       <c r="O175" s="37"/>
-      <c r="P175" s="37">
+      <c r="P175" s="37"/>
+      <c r="Q175" s="37"/>
+      <c r="R175" s="37"/>
+      <c r="S175" s="37"/>
+      <c r="T175" s="37">
         <v>673</v>
       </c>
-      <c r="Q175" s="94">
-        <v>17</v>
-      </c>
-      <c r="R175" s="37">
+      <c r="U175" s="94">
+        <v>17</v>
+      </c>
+      <c r="V175" s="37">
         <v>76.5</v>
       </c>
-      <c r="S175" s="94">
+      <c r="W175" s="94">
         <v>0</v>
       </c>
-      <c r="T175" s="37"/>
-      <c r="U175" s="37"/>
-      <c r="V175" s="37"/>
-      <c r="W175" s="37"/>
       <c r="X175" s="37"/>
       <c r="Y175" s="37"/>
-      <c r="Z175" s="37" t="s">
+      <c r="Z175" s="37"/>
+      <c r="AA175" s="37"/>
+      <c r="AB175" s="37"/>
+      <c r="AC175" s="37"/>
+      <c r="AD175" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="37" t="s">
         <v>83</v>
       </c>
@@ -12076,29 +12786,33 @@
       </c>
       <c r="N176" s="37"/>
       <c r="O176" s="37"/>
-      <c r="P176" s="37">
+      <c r="P176" s="37"/>
+      <c r="Q176" s="37"/>
+      <c r="R176" s="37"/>
+      <c r="S176" s="37"/>
+      <c r="T176" s="37">
         <v>673</v>
       </c>
-      <c r="Q176" s="94">
-        <v>17</v>
-      </c>
-      <c r="R176" s="37">
+      <c r="U176" s="94">
+        <v>17</v>
+      </c>
+      <c r="V176" s="37">
         <v>76.5</v>
       </c>
-      <c r="S176" s="94">
+      <c r="W176" s="94">
         <v>0</v>
       </c>
-      <c r="T176" s="37"/>
-      <c r="U176" s="37"/>
-      <c r="V176" s="37"/>
-      <c r="W176" s="37"/>
       <c r="X176" s="37"/>
       <c r="Y176" s="37"/>
-      <c r="Z176" s="37" t="s">
+      <c r="Z176" s="37"/>
+      <c r="AA176" s="37"/>
+      <c r="AB176" s="37"/>
+      <c r="AC176" s="37"/>
+      <c r="AD176" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="37" t="s">
         <v>83</v>
       </c>
@@ -12132,29 +12846,33 @@
       </c>
       <c r="N177" s="37"/>
       <c r="O177" s="37"/>
-      <c r="P177" s="37">
+      <c r="P177" s="37"/>
+      <c r="Q177" s="37"/>
+      <c r="R177" s="37"/>
+      <c r="S177" s="37"/>
+      <c r="T177" s="37">
         <v>0</v>
       </c>
-      <c r="Q177" s="94">
-        <v>17</v>
-      </c>
-      <c r="R177" s="37">
+      <c r="U177" s="94">
+        <v>17</v>
+      </c>
+      <c r="V177" s="37">
         <v>76.5</v>
       </c>
-      <c r="S177" s="94">
+      <c r="W177" s="94">
         <v>0</v>
       </c>
-      <c r="T177" s="37"/>
-      <c r="U177" s="37"/>
-      <c r="V177" s="37"/>
-      <c r="W177" s="37"/>
       <c r="X177" s="37"/>
       <c r="Y177" s="37"/>
-      <c r="Z177" s="37" t="s">
+      <c r="Z177" s="37"/>
+      <c r="AA177" s="37"/>
+      <c r="AB177" s="37"/>
+      <c r="AC177" s="37"/>
+      <c r="AD177" s="37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="37" t="s">
         <v>83</v>
       </c>
@@ -12188,26 +12906,254 @@
       </c>
       <c r="N178" s="37"/>
       <c r="O178" s="37"/>
-      <c r="P178" s="37">
+      <c r="P178" s="37"/>
+      <c r="Q178" s="37"/>
+      <c r="R178" s="37"/>
+      <c r="S178" s="37"/>
+      <c r="T178" s="37">
         <v>0</v>
       </c>
-      <c r="Q178" s="94">
-        <v>17</v>
-      </c>
-      <c r="R178" s="37">
+      <c r="U178" s="94">
+        <v>17</v>
+      </c>
+      <c r="V178" s="37">
         <v>76.5</v>
       </c>
-      <c r="S178" s="94">
+      <c r="W178" s="94">
         <v>0</v>
       </c>
-      <c r="T178" s="37"/>
-      <c r="U178" s="37"/>
-      <c r="V178" s="37"/>
-      <c r="W178" s="37"/>
       <c r="X178" s="37"/>
       <c r="Y178" s="37"/>
-      <c r="Z178" s="37" t="s">
+      <c r="Z178" s="37"/>
+      <c r="AA178" s="37"/>
+      <c r="AB178" s="37"/>
+      <c r="AC178" s="37"/>
+      <c r="AD178" s="37" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D179" s="25">
+        <v>44747</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="G179" s="24">
+        <v>1</v>
+      </c>
+      <c r="I179" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J179" s="24">
+        <v>18</v>
+      </c>
+      <c r="L179" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M179" s="24">
+        <v>2</v>
+      </c>
+      <c r="N179" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O179" s="24">
+        <v>30</v>
+      </c>
+      <c r="T179" s="24">
+        <v>673</v>
+      </c>
+      <c r="U179" s="95">
+        <v>17</v>
+      </c>
+      <c r="V179" s="24">
+        <v>76.5</v>
+      </c>
+      <c r="W179" s="95">
+        <v>873</v>
+      </c>
+      <c r="AD179" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D180" s="25">
+        <v>44747</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="G180" s="24">
+        <v>2</v>
+      </c>
+      <c r="I180" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J180" s="24">
+        <v>9</v>
+      </c>
+      <c r="L180" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M180" s="24">
+        <v>1</v>
+      </c>
+      <c r="N180" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O180" s="24">
+        <v>9</v>
+      </c>
+      <c r="P180" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q180" s="24">
+        <v>1</v>
+      </c>
+      <c r="R180" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S180" s="24">
+        <v>30</v>
+      </c>
+      <c r="T180" s="24">
+        <v>673</v>
+      </c>
+      <c r="U180" s="95">
+        <v>17</v>
+      </c>
+      <c r="V180" s="24">
+        <v>76.5</v>
+      </c>
+      <c r="W180" s="95">
+        <v>873</v>
+      </c>
+      <c r="AD180" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D181" s="25">
+        <v>44748</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="G181" s="24">
+        <v>3</v>
+      </c>
+      <c r="I181" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J181" s="24">
+        <v>16</v>
+      </c>
+      <c r="L181" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M181" s="24">
+        <v>4</v>
+      </c>
+      <c r="N181" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O181" s="24">
+        <v>30</v>
+      </c>
+      <c r="T181" s="24">
+        <v>673</v>
+      </c>
+      <c r="U181" s="95">
+        <v>17</v>
+      </c>
+      <c r="V181" s="24">
+        <v>76.5</v>
+      </c>
+      <c r="W181" s="95">
+        <v>873</v>
+      </c>
+      <c r="AD181" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" s="25">
+        <v>44749</v>
+      </c>
+      <c r="E182" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="G182" s="24">
+        <v>4</v>
+      </c>
+      <c r="I182" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J182" s="24">
+        <v>8</v>
+      </c>
+      <c r="L182" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M182" s="24">
+        <v>2</v>
+      </c>
+      <c r="N182" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O182" s="24">
+        <v>8</v>
+      </c>
+      <c r="P182" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q182" s="24">
+        <v>2</v>
+      </c>
+      <c r="R182" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S182" s="24">
+        <v>30</v>
+      </c>
+      <c r="T182" s="24">
+        <v>673</v>
+      </c>
+      <c r="U182" s="95">
+        <v>17</v>
+      </c>
+      <c r="V182" s="24">
+        <v>76.5</v>
+      </c>
+      <c r="W182" s="95">
+        <v>873</v>
+      </c>
+      <c r="AD182" s="24" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -12224,7 +13170,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
